--- a/mitchell10x3.xlsx
+++ b/mitchell10x3.xlsx
@@ -568,12 +568,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Name 78</t>
+          <t>Name 40</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Name 67</t>
+          <t>Name 33</t>
         </is>
       </c>
       <c r="D8" s="4">
@@ -591,12 +591,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Name 52</t>
+          <t>Name 61</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Name 80</t>
+          <t>Name 69</t>
         </is>
       </c>
       <c r="D9" s="4">
@@ -614,12 +614,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Name 48</t>
+          <t>Name 28</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Name 79</t>
+          <t>Name 43</t>
         </is>
       </c>
       <c r="D10" s="4">
@@ -637,12 +637,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Name 75</t>
+          <t>Name 81</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Name 86</t>
+          <t>Name 71</t>
         </is>
       </c>
       <c r="D11" s="4">
@@ -660,12 +660,12 @@
       </c>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>Name 21</t>
+          <t>Name 84</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr">
         <is>
-          <t>Name 52</t>
+          <t>Name 79</t>
         </is>
       </c>
       <c r="D12" s="8">
@@ -716,12 +716,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Name 49</t>
+          <t>Name 55</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Name 24</t>
+          <t>Name 27</t>
         </is>
       </c>
       <c r="D16" s="4">
@@ -739,12 +739,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Name 12</t>
+          <t>Name 47</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Name 26</t>
+          <t>Name 27</t>
         </is>
       </c>
       <c r="D17" s="4">
@@ -762,12 +762,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Name 49</t>
+          <t>Name 77</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Name 57</t>
+          <t>Name 39</t>
         </is>
       </c>
       <c r="D18" s="4">
@@ -785,12 +785,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Name 47</t>
+          <t>Name 51</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Name 22</t>
+          <t>Name 89</t>
         </is>
       </c>
       <c r="D19" s="4">
@@ -808,12 +808,12 @@
       </c>
       <c r="B20" s="7" t="inlineStr">
         <is>
-          <t>Name 35</t>
+          <t>Name 18</t>
         </is>
       </c>
       <c r="C20" s="7" t="inlineStr">
         <is>
-          <t>Name 32</t>
+          <t>Name 77</t>
         </is>
       </c>
       <c r="D20" s="8">

--- a/mitchell10x3.xlsx
+++ b/mitchell10x3.xlsx
@@ -568,12 +568,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Name 40</t>
+          <t>Name 44</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Name 33</t>
+          <t>Name 46</t>
         </is>
       </c>
       <c r="D8" s="4">
@@ -591,12 +591,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Name 61</t>
+          <t>Name 49</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Name 69</t>
+          <t>Name 36</t>
         </is>
       </c>
       <c r="D9" s="4">
@@ -614,12 +614,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Name 28</t>
+          <t>Name 54</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Name 43</t>
+          <t>Name 23</t>
         </is>
       </c>
       <c r="D10" s="4">
@@ -637,12 +637,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Name 81</t>
+          <t>Name 19</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Name 71</t>
+          <t>Name 72</t>
         </is>
       </c>
       <c r="D11" s="4">
@@ -660,12 +660,12 @@
       </c>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>Name 84</t>
+          <t>Name 58</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr">
         <is>
-          <t>Name 79</t>
+          <t>Name 83</t>
         </is>
       </c>
       <c r="D12" s="8">
@@ -716,12 +716,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Name 55</t>
+          <t>Name 52</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Name 27</t>
+          <t>Name 46</t>
         </is>
       </c>
       <c r="D16" s="4">
@@ -739,12 +739,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Name 47</t>
+          <t>Name 61</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Name 27</t>
+          <t>Name 36</t>
         </is>
       </c>
       <c r="D17" s="4">
@@ -762,12 +762,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Name 77</t>
+          <t>Name 36</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Name 39</t>
+          <t>Name 69</t>
         </is>
       </c>
       <c r="D18" s="4">
@@ -785,12 +785,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Name 51</t>
+          <t>Name 33</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Name 89</t>
+          <t>Name 38</t>
         </is>
       </c>
       <c r="D19" s="4">
@@ -808,12 +808,12 @@
       </c>
       <c r="B20" s="7" t="inlineStr">
         <is>
+          <t>Name 48</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="inlineStr">
+        <is>
           <t>Name 18</t>
-        </is>
-      </c>
-      <c r="C20" s="7" t="inlineStr">
-        <is>
-          <t>Name 77</t>
         </is>
       </c>
       <c r="D20" s="8">
@@ -11555,6 +11555,9 @@
           <t>None</t>
         </is>
       </c>
+      <c r="J3" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="4">
       <c r="B4" s="15" t="n"/>
@@ -11568,6 +11571,9 @@
           <t>NS</t>
         </is>
       </c>
+      <c r="J4" t="n">
+        <v>410</v>
+      </c>
     </row>
     <row r="5">
       <c r="B5" s="19" t="n"/>
@@ -11585,7 +11591,9 @@
       <c r="H5" s="7" t="n"/>
       <c r="I5" s="7" t="n"/>
       <c r="J5" s="7" t="n"/>
-      <c r="K5" s="7" t="n"/>
+      <c r="K5" s="7" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="6">
       <c r="B6" s="15" t="n">
@@ -11604,6 +11612,9 @@
         <is>
           <t>Both</t>
         </is>
+      </c>
+      <c r="J6" t="n">
+        <v>620</v>
       </c>
     </row>
     <row r="7">
@@ -11618,6 +11629,9 @@
           <t>NS</t>
         </is>
       </c>
+      <c r="K7" t="n">
+        <v>500</v>
+      </c>
     </row>
     <row r="8">
       <c r="B8" s="19" t="n"/>
@@ -11634,7 +11648,9 @@
       <c r="G8" s="7" t="n"/>
       <c r="H8" s="7" t="n"/>
       <c r="I8" s="7" t="n"/>
-      <c r="J8" s="7" t="n"/>
+      <c r="J8" s="7" t="n">
+        <v>300</v>
+      </c>
       <c r="K8" s="7" t="n"/>
     </row>
     <row r="9">
@@ -11654,6 +11670,9 @@
         <is>
           <t>Both</t>
         </is>
+      </c>
+      <c r="J9" t="n">
+        <v>280</v>
       </c>
     </row>
     <row r="10">
@@ -11668,6 +11687,9 @@
           <t>None</t>
         </is>
       </c>
+      <c r="J10" t="n">
+        <v>230</v>
+      </c>
     </row>
     <row r="11">
       <c r="B11" s="19" t="n"/>
@@ -11685,7 +11707,9 @@
       <c r="H11" s="7" t="n"/>
       <c r="I11" s="7" t="n"/>
       <c r="J11" s="7" t="n"/>
-      <c r="K11" s="7" t="n"/>
+      <c r="K11" s="7" t="n">
+        <v>520</v>
+      </c>
     </row>
     <row r="12">
       <c r="B12" s="15" t="n">
@@ -11703,6 +11727,16 @@
       <c r="F12" s="15" t="inlineStr">
         <is>
           <t>Both</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Avg</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -11718,6 +11752,9 @@
           <t>None</t>
         </is>
       </c>
+      <c r="K13" t="n">
+        <v>220</v>
+      </c>
     </row>
     <row r="14">
       <c r="B14" s="19" t="n"/>
@@ -11735,7 +11772,9 @@
       <c r="H14" s="7" t="n"/>
       <c r="I14" s="7" t="n"/>
       <c r="J14" s="7" t="n"/>
-      <c r="K14" s="7" t="n"/>
+      <c r="K14" s="7" t="n">
+        <v>600</v>
+      </c>
     </row>
     <row r="15">
       <c r="B15" s="15" t="n">
@@ -11754,6 +11793,9 @@
         <is>
           <t>Both</t>
         </is>
+      </c>
+      <c r="J15" t="n">
+        <v>760</v>
       </c>
     </row>
     <row r="16">
@@ -11767,6 +11809,9 @@
         <is>
           <t>None</t>
         </is>
+      </c>
+      <c r="K16" t="n">
+        <v>730</v>
       </c>
     </row>
     <row r="17">
@@ -11785,7 +11830,9 @@
       <c r="G17" s="7" t="n"/>
       <c r="H17" s="7" t="n"/>
       <c r="I17" s="7" t="n"/>
-      <c r="J17" s="7" t="n"/>
+      <c r="J17" s="7" t="n">
+        <v>760</v>
+      </c>
       <c r="K17" s="7" t="n"/>
     </row>
     <row r="18">
@@ -11808,6 +11855,9 @@
         <is>
           <t>Both</t>
         </is>
+      </c>
+      <c r="J18" t="n">
+        <v>700</v>
       </c>
     </row>
     <row r="19">
@@ -11822,6 +11872,16 @@
           <t>NS</t>
         </is>
       </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Avg</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Avg</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="B20" s="19" t="n"/>
@@ -11838,7 +11898,9 @@
       <c r="G20" s="7" t="n"/>
       <c r="H20" s="7" t="n"/>
       <c r="I20" s="7" t="n"/>
-      <c r="J20" s="7" t="n"/>
+      <c r="J20" s="7" t="n">
+        <v>770</v>
+      </c>
       <c r="K20" s="7" t="n"/>
     </row>
     <row r="21">
@@ -11858,6 +11920,9 @@
         <is>
           <t>Both</t>
         </is>
+      </c>
+      <c r="K21" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="22">
@@ -11872,6 +11937,9 @@
           <t>None</t>
         </is>
       </c>
+      <c r="K22" t="n">
+        <v>560</v>
+      </c>
     </row>
     <row r="23">
       <c r="B23" s="19" t="n"/>
@@ -11889,7 +11957,9 @@
       <c r="H23" s="7" t="n"/>
       <c r="I23" s="7" t="n"/>
       <c r="J23" s="7" t="n"/>
-      <c r="K23" s="7" t="n"/>
+      <c r="K23" s="7" t="n">
+        <v>770</v>
+      </c>
     </row>
     <row r="24">
       <c r="B24" s="15" t="n">
@@ -11908,6 +11978,9 @@
         <is>
           <t>Both</t>
         </is>
+      </c>
+      <c r="K24" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="25">
@@ -11922,6 +11995,9 @@
           <t>None</t>
         </is>
       </c>
+      <c r="K25" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="26">
       <c r="B26" s="19" t="n"/>
@@ -11939,7 +12015,9 @@
       <c r="H26" s="7" t="n"/>
       <c r="I26" s="7" t="n"/>
       <c r="J26" s="7" t="n"/>
-      <c r="K26" s="7" t="n"/>
+      <c r="K26" s="7" t="n">
+        <v>660</v>
+      </c>
     </row>
     <row r="27">
       <c r="B27" s="15" t="n">
@@ -11958,6 +12036,9 @@
         <is>
           <t>Both</t>
         </is>
+      </c>
+      <c r="K27" t="n">
+        <v>370</v>
       </c>
     </row>
     <row r="28">
@@ -11972,6 +12053,9 @@
           <t>None</t>
         </is>
       </c>
+      <c r="K28" t="n">
+        <v>500</v>
+      </c>
     </row>
     <row r="29">
       <c r="B29" s="19" t="n"/>
@@ -11989,7 +12073,9 @@
       <c r="H29" s="7" t="n"/>
       <c r="I29" s="7" t="n"/>
       <c r="J29" s="7" t="n"/>
-      <c r="K29" s="7" t="n"/>
+      <c r="K29" s="7" t="n">
+        <v>430</v>
+      </c>
     </row>
     <row r="30">
       <c r="B30" s="15" t="n">
@@ -12008,6 +12094,9 @@
         <is>
           <t>None</t>
         </is>
+      </c>
+      <c r="K30" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="31">
@@ -12021,6 +12110,9 @@
         <is>
           <t>NS</t>
         </is>
+      </c>
+      <c r="K31" t="n">
+        <v>330</v>
       </c>
     </row>
     <row r="32">
@@ -12040,7 +12132,9 @@
       <c r="H32" s="7" t="n"/>
       <c r="I32" s="7" t="n"/>
       <c r="J32" s="7" t="n"/>
-      <c r="K32" s="7" t="n"/>
+      <c r="K32" s="7" t="n">
+        <v>270</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="15" t="n">
@@ -12062,6 +12156,9 @@
         <is>
           <t>Both</t>
         </is>
+      </c>
+      <c r="K33" t="n">
+        <v>780</v>
       </c>
     </row>
     <row r="34">
@@ -12076,6 +12173,9 @@
           <t>None</t>
         </is>
       </c>
+      <c r="J34" t="n">
+        <v>770</v>
+      </c>
     </row>
     <row r="35">
       <c r="B35" s="19" t="n"/>
@@ -12092,7 +12192,9 @@
       <c r="G35" s="7" t="n"/>
       <c r="H35" s="7" t="n"/>
       <c r="I35" s="7" t="n"/>
-      <c r="J35" s="7" t="n"/>
+      <c r="J35" s="7" t="n">
+        <v>390</v>
+      </c>
       <c r="K35" s="7" t="n"/>
     </row>
     <row r="36">
@@ -12112,6 +12214,9 @@
         <is>
           <t>Both</t>
         </is>
+      </c>
+      <c r="J36" t="n">
+        <v>460</v>
       </c>
     </row>
     <row r="37">
@@ -12126,6 +12231,9 @@
           <t>None</t>
         </is>
       </c>
+      <c r="K37" t="n">
+        <v>590</v>
+      </c>
     </row>
     <row r="38">
       <c r="B38" s="19" t="n"/>
@@ -12143,7 +12251,9 @@
       <c r="H38" s="7" t="n"/>
       <c r="I38" s="7" t="n"/>
       <c r="J38" s="7" t="n"/>
-      <c r="K38" s="7" t="n"/>
+      <c r="K38" s="7" t="n">
+        <v>750</v>
+      </c>
     </row>
     <row r="39">
       <c r="B39" s="15" t="n">
@@ -12162,6 +12272,9 @@
         <is>
           <t>Both</t>
         </is>
+      </c>
+      <c r="K39" t="n">
+        <v>640</v>
       </c>
     </row>
     <row r="40">
@@ -12176,6 +12289,9 @@
           <t>None</t>
         </is>
       </c>
+      <c r="J40" t="n">
+        <v>460</v>
+      </c>
     </row>
     <row r="41">
       <c r="B41" s="19" t="n"/>
@@ -12193,7 +12309,9 @@
       <c r="H41" s="7" t="n"/>
       <c r="I41" s="7" t="n"/>
       <c r="J41" s="7" t="n"/>
-      <c r="K41" s="7" t="n"/>
+      <c r="K41" s="7" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="42">
       <c r="B42" s="15" t="n">
@@ -12212,6 +12330,9 @@
         <is>
           <t>None</t>
         </is>
+      </c>
+      <c r="K42" t="n">
+        <v>490</v>
       </c>
     </row>
     <row r="43">
@@ -12226,6 +12347,9 @@
           <t>NS</t>
         </is>
       </c>
+      <c r="J43" t="n">
+        <v>570</v>
+      </c>
     </row>
     <row r="44">
       <c r="B44" s="19" t="n"/>
@@ -12243,7 +12367,9 @@
       <c r="H44" s="7" t="n"/>
       <c r="I44" s="7" t="n"/>
       <c r="J44" s="7" t="n"/>
-      <c r="K44" s="7" t="n"/>
+      <c r="K44" s="7" t="n">
+        <v>360</v>
+      </c>
     </row>
     <row r="45">
       <c r="B45" s="15" t="n">
@@ -12262,6 +12388,9 @@
         <is>
           <t>Both</t>
         </is>
+      </c>
+      <c r="J45" t="n">
+        <v>530</v>
       </c>
     </row>
     <row r="46">
@@ -12274,6 +12403,16 @@
       <c r="F46" s="15" t="inlineStr">
         <is>
           <t>NS</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Avg</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -12294,7 +12433,9 @@
       <c r="H47" s="7" t="n"/>
       <c r="I47" s="7" t="n"/>
       <c r="J47" s="7" t="n"/>
-      <c r="K47" s="7" t="n"/>
+      <c r="K47" s="7" t="n">
+        <v>280</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="15" t="n">
@@ -12316,6 +12457,9 @@
         <is>
           <t>Both</t>
         </is>
+      </c>
+      <c r="J48" t="n">
+        <v>260</v>
       </c>
     </row>
     <row r="49">
@@ -12330,6 +12474,9 @@
           <t>None</t>
         </is>
       </c>
+      <c r="J49" t="n">
+        <v>420</v>
+      </c>
     </row>
     <row r="50">
       <c r="B50" s="19" t="n"/>
@@ -12347,7 +12494,9 @@
       <c r="H50" s="7" t="n"/>
       <c r="I50" s="7" t="n"/>
       <c r="J50" s="7" t="n"/>
-      <c r="K50" s="7" t="n"/>
+      <c r="K50" s="7" t="n">
+        <v>700</v>
+      </c>
     </row>
     <row r="51">
       <c r="B51" s="15" t="n">
@@ -12366,6 +12515,9 @@
         <is>
           <t>Both</t>
         </is>
+      </c>
+      <c r="K51" t="n">
+        <v>310</v>
       </c>
     </row>
     <row r="52">
@@ -12380,6 +12532,9 @@
           <t>None</t>
         </is>
       </c>
+      <c r="J52" t="n">
+        <v>720</v>
+      </c>
     </row>
     <row r="53">
       <c r="B53" s="19" t="n"/>
@@ -12397,7 +12552,9 @@
       <c r="H53" s="7" t="n"/>
       <c r="I53" s="7" t="n"/>
       <c r="J53" s="7" t="n"/>
-      <c r="K53" s="7" t="n"/>
+      <c r="K53" s="7" t="n">
+        <v>270</v>
+      </c>
     </row>
     <row r="54">
       <c r="B54" s="15" t="n">
@@ -12415,6 +12572,16 @@
       <c r="F54" s="15" t="inlineStr">
         <is>
           <t>None</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Avg</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -12430,6 +12597,9 @@
           <t>NS</t>
         </is>
       </c>
+      <c r="K55" t="n">
+        <v>700</v>
+      </c>
     </row>
     <row r="56">
       <c r="B56" s="19" t="n"/>
@@ -12447,7 +12617,9 @@
       <c r="H56" s="7" t="n"/>
       <c r="I56" s="7" t="n"/>
       <c r="J56" s="7" t="n"/>
-      <c r="K56" s="7" t="n"/>
+      <c r="K56" s="7" t="n">
+        <v>640</v>
+      </c>
     </row>
     <row r="57">
       <c r="B57" s="15" t="n">
@@ -12466,6 +12638,9 @@
         <is>
           <t>Both</t>
         </is>
+      </c>
+      <c r="J57" t="n">
+        <v>260</v>
       </c>
     </row>
     <row r="58">
@@ -12480,6 +12655,9 @@
           <t>NS</t>
         </is>
       </c>
+      <c r="J58" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="59">
       <c r="B59" s="19" t="n"/>
@@ -12496,8 +12674,16 @@
       <c r="G59" s="7" t="n"/>
       <c r="H59" s="7" t="n"/>
       <c r="I59" s="7" t="n"/>
-      <c r="J59" s="7" t="n"/>
-      <c r="K59" s="7" t="n"/>
+      <c r="J59" s="7" t="inlineStr">
+        <is>
+          <t>Avg</t>
+        </is>
+      </c>
+      <c r="K59" s="7" t="inlineStr">
+        <is>
+          <t>Avg</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="B60" s="15" t="n">
@@ -12516,6 +12702,9 @@
         <is>
           <t>Both</t>
         </is>
+      </c>
+      <c r="K60" t="n">
+        <v>190</v>
       </c>
     </row>
     <row r="61">
@@ -12528,6 +12717,16 @@
       <c r="F61" s="15" t="inlineStr">
         <is>
           <t>None</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Avg</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -12547,7 +12746,9 @@
       <c r="G62" s="7" t="n"/>
       <c r="H62" s="7" t="n"/>
       <c r="I62" s="7" t="n"/>
-      <c r="J62" s="7" t="n"/>
+      <c r="J62" s="7" t="n">
+        <v>170</v>
+      </c>
       <c r="K62" s="7" t="n"/>
     </row>
     <row r="63">
@@ -12570,6 +12771,9 @@
         <is>
           <t>Both</t>
         </is>
+      </c>
+      <c r="K63" t="n">
+        <v>380</v>
       </c>
     </row>
     <row r="64">
@@ -12584,6 +12788,9 @@
           <t>None</t>
         </is>
       </c>
+      <c r="J64" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="65">
       <c r="B65" s="19" t="n"/>
@@ -12601,7 +12808,9 @@
       <c r="H65" s="7" t="n"/>
       <c r="I65" s="7" t="n"/>
       <c r="J65" s="7" t="n"/>
-      <c r="K65" s="7" t="n"/>
+      <c r="K65" s="7" t="n">
+        <v>160</v>
+      </c>
     </row>
     <row r="66">
       <c r="B66" s="15" t="n">
@@ -12620,6 +12829,9 @@
         <is>
           <t>None</t>
         </is>
+      </c>
+      <c r="J66" t="n">
+        <v>610</v>
       </c>
     </row>
     <row r="67">
@@ -12634,6 +12846,9 @@
           <t>NS</t>
         </is>
       </c>
+      <c r="K67" t="n">
+        <v>380</v>
+      </c>
     </row>
     <row r="68">
       <c r="B68" s="19" t="n"/>
@@ -12651,7 +12866,9 @@
       <c r="H68" s="7" t="n"/>
       <c r="I68" s="7" t="n"/>
       <c r="J68" s="7" t="n"/>
-      <c r="K68" s="7" t="n"/>
+      <c r="K68" s="7" t="n">
+        <v>620</v>
+      </c>
     </row>
     <row r="69">
       <c r="B69" s="15" t="n">
@@ -12669,6 +12886,16 @@
       <c r="F69" s="15" t="inlineStr">
         <is>
           <t>Both</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Avg</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -12684,6 +12911,9 @@
           <t>NS</t>
         </is>
       </c>
+      <c r="J70" t="n">
+        <v>610</v>
+      </c>
     </row>
     <row r="71">
       <c r="B71" s="19" t="n"/>
@@ -12700,7 +12930,9 @@
       <c r="G71" s="7" t="n"/>
       <c r="H71" s="7" t="n"/>
       <c r="I71" s="7" t="n"/>
-      <c r="J71" s="7" t="n"/>
+      <c r="J71" s="7" t="n">
+        <v>560</v>
+      </c>
       <c r="K71" s="7" t="n"/>
     </row>
     <row r="72">
@@ -12720,6 +12952,9 @@
         <is>
           <t>Both</t>
         </is>
+      </c>
+      <c r="J72" t="n">
+        <v>460</v>
       </c>
     </row>
     <row r="73">
@@ -12734,6 +12969,16 @@
           <t>None</t>
         </is>
       </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Avg</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Avg</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="B74" s="19" t="n"/>
@@ -12750,7 +12995,9 @@
       <c r="G74" s="7" t="n"/>
       <c r="H74" s="7" t="n"/>
       <c r="I74" s="7" t="n"/>
-      <c r="J74" s="7" t="n"/>
+      <c r="J74" s="7" t="n">
+        <v>800</v>
+      </c>
       <c r="K74" s="7" t="n"/>
     </row>
     <row r="75">
@@ -12769,6 +13016,16 @@
       <c r="F75" s="15" t="inlineStr">
         <is>
           <t>Both</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Avg</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -12783,6 +13040,9 @@
         <is>
           <t>None</t>
         </is>
+      </c>
+      <c r="J76" t="n">
+        <v>260</v>
       </c>
     </row>
     <row r="77">
@@ -12802,7 +13062,9 @@
       <c r="H77" s="7" t="n"/>
       <c r="I77" s="7" t="n"/>
       <c r="J77" s="7" t="n"/>
-      <c r="K77" s="7" t="n"/>
+      <c r="K77" s="7" t="n">
+        <v>780</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/mitchell10x3.xlsx
+++ b/mitchell10x3.xlsx
@@ -568,12 +568,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Name 44</t>
+          <t>Name 74</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Name 46</t>
+          <t>Name 30</t>
         </is>
       </c>
       <c r="D8" s="4">
@@ -591,12 +591,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Name 49</t>
+          <t>Name 23</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Name 36</t>
+          <t>Name 65</t>
         </is>
       </c>
       <c r="D9" s="4">
@@ -614,12 +614,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Name 54</t>
+          <t>Name 12</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Name 23</t>
+          <t>Name 58</t>
         </is>
       </c>
       <c r="D10" s="4">
@@ -637,12 +637,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Name 19</t>
+          <t>Name 70</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Name 72</t>
+          <t>Name 25</t>
         </is>
       </c>
       <c r="D11" s="4">
@@ -660,12 +660,12 @@
       </c>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>Name 58</t>
+          <t>Name 79</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr">
         <is>
-          <t>Name 83</t>
+          <t>Name 68</t>
         </is>
       </c>
       <c r="D12" s="8">
@@ -716,12 +716,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Name 52</t>
+          <t>Name 81</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Name 46</t>
+          <t>Name 67</t>
         </is>
       </c>
       <c r="D16" s="4">
@@ -739,12 +739,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Name 61</t>
+          <t>Name 68</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Name 36</t>
+          <t>Name 88</t>
         </is>
       </c>
       <c r="D17" s="4">
@@ -762,12 +762,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Name 36</t>
+          <t>Name 44</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Name 69</t>
+          <t>Name 84</t>
         </is>
       </c>
       <c r="D18" s="4">
@@ -785,12 +785,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Name 33</t>
+          <t>Name 28</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Name 38</t>
+          <t>Name 71</t>
         </is>
       </c>
       <c r="D19" s="4">
@@ -808,12 +808,12 @@
       </c>
       <c r="B20" s="7" t="inlineStr">
         <is>
-          <t>Name 48</t>
+          <t>Name 38</t>
         </is>
       </c>
       <c r="C20" s="7" t="inlineStr">
         <is>
-          <t>Name 18</t>
+          <t>Name 15</t>
         </is>
       </c>
       <c r="D20" s="8">
@@ -11459,7 +11459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K77"/>
+  <dimension ref="A1:M76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11471,1604 +11471,1365 @@
   </cols>
   <sheetData>
     <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Round</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Table</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Board</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Vul</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>By</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
       <c r="J1" s="2" t="inlineStr">
         <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
           <t>Scores</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Round</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Table</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="A2" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="15" t="n"/>
+      <c r="C3" s="15" t="n"/>
+      <c r="D3" s="15" t="n"/>
+      <c r="E3" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" s="15" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+    </row>
+    <row r="4">
+      <c r="B4" s="19" t="n"/>
+      <c r="C4" s="19" t="n"/>
+      <c r="D4" s="19" t="n"/>
+      <c r="E4" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" s="19" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>Board</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>Vul</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>Contract</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>By</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t>Result</t>
-        </is>
-      </c>
-      <c r="J2" s="2" t="inlineStr">
+      <c r="G4" s="7" t="n"/>
+      <c r="H4" s="7" t="n"/>
+      <c r="I4" s="7" t="n"/>
+      <c r="J4" s="7" t="n"/>
+      <c r="K4" s="7" t="n"/>
+      <c r="L4" s="7" t="n"/>
+    </row>
+    <row r="5">
+      <c r="B5" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" s="15" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="15" t="n"/>
+      <c r="C6" s="15" t="n"/>
+      <c r="D6" s="15" t="n"/>
+      <c r="E6" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" s="15" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="K2" s="2" t="inlineStr">
+    </row>
+    <row r="7">
+      <c r="B7" s="19" t="n"/>
+      <c r="C7" s="19" t="n"/>
+      <c r="D7" s="19" t="n"/>
+      <c r="E7" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F7" s="19" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="15" t="n">
+      <c r="G7" s="7" t="n"/>
+      <c r="H7" s="7" t="n"/>
+      <c r="I7" s="7" t="n"/>
+      <c r="J7" s="7" t="n"/>
+      <c r="K7" s="7" t="n"/>
+      <c r="L7" s="7" t="n"/>
+    </row>
+    <row r="8">
+      <c r="B8" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="F8" s="15" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="15" t="n"/>
+      <c r="C9" s="15" t="n"/>
+      <c r="D9" s="15" t="n"/>
+      <c r="E9" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="F9" s="15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="19" t="n"/>
+      <c r="C10" s="19" t="n"/>
+      <c r="D10" s="19" t="n"/>
+      <c r="E10" s="19" t="n">
+        <v>9</v>
+      </c>
+      <c r="F10" s="19" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="n"/>
+      <c r="H10" s="7" t="n"/>
+      <c r="I10" s="7" t="n"/>
+      <c r="J10" s="7" t="n"/>
+      <c r="K10" s="7" t="n"/>
+      <c r="L10" s="7" t="n"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="E11" s="15" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" s="15" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="15" t="n"/>
+      <c r="C12" s="15" t="n"/>
+      <c r="D12" s="15" t="n"/>
+      <c r="E12" s="15" t="n">
+        <v>11</v>
+      </c>
+      <c r="F12" s="15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="19" t="n"/>
+      <c r="C13" s="19" t="n"/>
+      <c r="D13" s="19" t="n"/>
+      <c r="E13" s="19" t="n">
+        <v>12</v>
+      </c>
+      <c r="F13" s="19" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="G13" s="7" t="n"/>
+      <c r="H13" s="7" t="n"/>
+      <c r="I13" s="7" t="n"/>
+      <c r="J13" s="7" t="n"/>
+      <c r="K13" s="7" t="n"/>
+      <c r="L13" s="7" t="n"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="D14" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" s="15" t="n">
+        <v>13</v>
+      </c>
+      <c r="F14" s="15" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="15" t="n"/>
+      <c r="C15" s="15" t="n"/>
+      <c r="D15" s="15" t="n"/>
+      <c r="E15" s="15" t="n">
+        <v>14</v>
+      </c>
+      <c r="F15" s="15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="n"/>
+      <c r="B16" s="19" t="n"/>
+      <c r="C16" s="19" t="n"/>
+      <c r="D16" s="19" t="n"/>
+      <c r="E16" s="19" t="n">
+        <v>15</v>
+      </c>
+      <c r="F16" s="19" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="G16" s="7" t="n"/>
+      <c r="H16" s="7" t="n"/>
+      <c r="I16" s="7" t="n"/>
+      <c r="J16" s="7" t="n"/>
+      <c r="K16" s="7" t="n"/>
+      <c r="L16" s="7" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="n">
+      <c r="C17" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="15" t="n">
+      <c r="D17" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="F17" s="15" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="15" t="n"/>
+      <c r="C18" s="15" t="n"/>
+      <c r="D18" s="15" t="n"/>
+      <c r="E18" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="F18" s="15" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="19" t="n"/>
+      <c r="C19" s="19" t="n"/>
+      <c r="D19" s="19" t="n"/>
+      <c r="E19" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F19" s="19" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G19" s="7" t="n"/>
+      <c r="H19" s="7" t="n"/>
+      <c r="I19" s="7" t="n"/>
+      <c r="J19" s="7" t="n"/>
+      <c r="K19" s="7" t="n"/>
+      <c r="L19" s="7" t="n"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="15" t="n">
+      <c r="E20" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="F20" s="15" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="15" t="n"/>
+      <c r="C21" s="15" t="n"/>
+      <c r="D21" s="15" t="n"/>
+      <c r="E21" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="F21" s="15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="19" t="n"/>
+      <c r="C22" s="19" t="n"/>
+      <c r="D22" s="19" t="n"/>
+      <c r="E22" s="19" t="n">
+        <v>9</v>
+      </c>
+      <c r="F22" s="19" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G22" s="7" t="n"/>
+      <c r="H22" s="7" t="n"/>
+      <c r="I22" s="7" t="n"/>
+      <c r="J22" s="7" t="n"/>
+      <c r="K22" s="7" t="n"/>
+      <c r="L22" s="7" t="n"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C23" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="D23" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" s="15" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" s="15" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="15" t="n"/>
+      <c r="C24" s="15" t="n"/>
+      <c r="D24" s="15" t="n"/>
+      <c r="E24" s="15" t="n">
+        <v>11</v>
+      </c>
+      <c r="F24" s="15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="19" t="n"/>
+      <c r="C25" s="19" t="n"/>
+      <c r="D25" s="19" t="n"/>
+      <c r="E25" s="19" t="n">
+        <v>12</v>
+      </c>
+      <c r="F25" s="19" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="G25" s="7" t="n"/>
+      <c r="H25" s="7" t="n"/>
+      <c r="I25" s="7" t="n"/>
+      <c r="J25" s="7" t="n"/>
+      <c r="K25" s="7" t="n"/>
+      <c r="L25" s="7" t="n"/>
+    </row>
+    <row r="26">
+      <c r="B26" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C26" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D26" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="E26" s="15" t="n">
+        <v>13</v>
+      </c>
+      <c r="F26" s="15" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="15" t="n"/>
+      <c r="C27" s="15" t="n"/>
+      <c r="D27" s="15" t="n"/>
+      <c r="E27" s="15" t="n">
+        <v>14</v>
+      </c>
+      <c r="F27" s="15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="19" t="n"/>
+      <c r="C28" s="19" t="n"/>
+      <c r="D28" s="19" t="n"/>
+      <c r="E28" s="19" t="n">
+        <v>15</v>
+      </c>
+      <c r="F28" s="19" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="G28" s="7" t="n"/>
+      <c r="H28" s="7" t="n"/>
+      <c r="I28" s="7" t="n"/>
+      <c r="J28" s="7" t="n"/>
+      <c r="K28" s="7" t="n"/>
+      <c r="L28" s="7" t="n"/>
+    </row>
+    <row r="29">
+      <c r="B29" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C29" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="D29" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="E29" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="E3" s="15" t="n">
+      <c r="F29" s="15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="15" t="n"/>
+      <c r="C30" s="15" t="n"/>
+      <c r="D30" s="15" t="n"/>
+      <c r="E30" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F30" s="15" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="7" t="n"/>
+      <c r="B31" s="19" t="n"/>
+      <c r="C31" s="19" t="n"/>
+      <c r="D31" s="19" t="n"/>
+      <c r="E31" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="F31" s="19" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G31" s="7" t="n"/>
+      <c r="H31" s="7" t="n"/>
+      <c r="I31" s="7" t="n"/>
+      <c r="J31" s="7" t="n"/>
+      <c r="K31" s="7" t="n"/>
+      <c r="L31" s="7" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B32" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="F3" s="15" t="inlineStr">
+      <c r="C32" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="E32" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="F32" s="15" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="15" t="n"/>
+      <c r="C33" s="15" t="n"/>
+      <c r="D33" s="15" t="n"/>
+      <c r="E33" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="F33" s="15" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="J3" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="15" t="n"/>
-      <c r="C4" s="15" t="n"/>
-      <c r="D4" s="15" t="n"/>
-      <c r="E4" s="15" t="n">
+    </row>
+    <row r="34">
+      <c r="B34" s="19" t="n"/>
+      <c r="C34" s="19" t="n"/>
+      <c r="D34" s="19" t="n"/>
+      <c r="E34" s="19" t="n">
+        <v>9</v>
+      </c>
+      <c r="F34" s="19" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G34" s="7" t="n"/>
+      <c r="H34" s="7" t="n"/>
+      <c r="I34" s="7" t="n"/>
+      <c r="J34" s="7" t="n"/>
+      <c r="K34" s="7" t="n"/>
+      <c r="L34" s="7" t="n"/>
+    </row>
+    <row r="35">
+      <c r="B35" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="F4" s="15" t="inlineStr">
+      <c r="C35" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D35" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="E35" s="15" t="n">
+        <v>10</v>
+      </c>
+      <c r="F35" s="15" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="15" t="n"/>
+      <c r="C36" s="15" t="n"/>
+      <c r="D36" s="15" t="n"/>
+      <c r="E36" s="15" t="n">
+        <v>11</v>
+      </c>
+      <c r="F36" s="15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="19" t="n"/>
+      <c r="C37" s="19" t="n"/>
+      <c r="D37" s="19" t="n"/>
+      <c r="E37" s="19" t="n">
+        <v>12</v>
+      </c>
+      <c r="F37" s="19" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="J4" t="n">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="19" t="n"/>
-      <c r="C5" s="19" t="n"/>
-      <c r="D5" s="19" t="n"/>
-      <c r="E5" s="19" t="n">
+      <c r="G37" s="7" t="n"/>
+      <c r="H37" s="7" t="n"/>
+      <c r="I37" s="7" t="n"/>
+      <c r="J37" s="7" t="n"/>
+      <c r="K37" s="7" t="n"/>
+      <c r="L37" s="7" t="n"/>
+    </row>
+    <row r="38">
+      <c r="B38" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="F5" s="19" t="inlineStr">
+      <c r="C38" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="D38" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" s="15" t="n">
+        <v>13</v>
+      </c>
+      <c r="F38" s="15" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="15" t="n"/>
+      <c r="C39" s="15" t="n"/>
+      <c r="D39" s="15" t="n"/>
+      <c r="E39" s="15" t="n">
+        <v>14</v>
+      </c>
+      <c r="F39" s="15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" s="19" t="n"/>
+      <c r="C40" s="19" t="n"/>
+      <c r="D40" s="19" t="n"/>
+      <c r="E40" s="19" t="n">
+        <v>15</v>
+      </c>
+      <c r="F40" s="19" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="G40" s="7" t="n"/>
+      <c r="H40" s="7" t="n"/>
+      <c r="I40" s="7" t="n"/>
+      <c r="J40" s="7" t="n"/>
+      <c r="K40" s="7" t="n"/>
+      <c r="L40" s="7" t="n"/>
+    </row>
+    <row r="41">
+      <c r="B41" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C41" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D41" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="E41" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" s="15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" s="15" t="n"/>
+      <c r="C42" s="15" t="n"/>
+      <c r="D42" s="15" t="n"/>
+      <c r="E42" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F42" s="15" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" s="19" t="n"/>
+      <c r="C43" s="19" t="n"/>
+      <c r="D43" s="19" t="n"/>
+      <c r="E43" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="F43" s="19" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G5" s="7" t="n"/>
-      <c r="H5" s="7" t="n"/>
-      <c r="I5" s="7" t="n"/>
-      <c r="J5" s="7" t="n"/>
-      <c r="K5" s="7" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="15" t="n">
+      <c r="G43" s="7" t="n"/>
+      <c r="H43" s="7" t="n"/>
+      <c r="I43" s="7" t="n"/>
+      <c r="J43" s="7" t="n"/>
+      <c r="K43" s="7" t="n"/>
+      <c r="L43" s="7" t="n"/>
+    </row>
+    <row r="44">
+      <c r="B44" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C44" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="D44" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="E44" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="F44" s="15" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" s="15" t="n"/>
+      <c r="C45" s="15" t="n"/>
+      <c r="D45" s="15" t="n"/>
+      <c r="E45" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="F45" s="15" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="7" t="n"/>
+      <c r="B46" s="19" t="n"/>
+      <c r="C46" s="19" t="n"/>
+      <c r="D46" s="19" t="n"/>
+      <c r="E46" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F46" s="19" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G46" s="7" t="n"/>
+      <c r="H46" s="7" t="n"/>
+      <c r="I46" s="7" t="n"/>
+      <c r="J46" s="7" t="n"/>
+      <c r="K46" s="7" t="n"/>
+      <c r="L46" s="7" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="B47" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="E47" s="15" t="n">
+        <v>10</v>
+      </c>
+      <c r="F47" s="15" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" s="15" t="n"/>
+      <c r="C48" s="15" t="n"/>
+      <c r="D48" s="15" t="n"/>
+      <c r="E48" s="15" t="n">
+        <v>11</v>
+      </c>
+      <c r="F48" s="15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" s="19" t="n"/>
+      <c r="C49" s="19" t="n"/>
+      <c r="D49" s="19" t="n"/>
+      <c r="E49" s="19" t="n">
+        <v>12</v>
+      </c>
+      <c r="F49" s="19" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="G49" s="7" t="n"/>
+      <c r="H49" s="7" t="n"/>
+      <c r="I49" s="7" t="n"/>
+      <c r="J49" s="7" t="n"/>
+      <c r="K49" s="7" t="n"/>
+      <c r="L49" s="7" t="n"/>
+    </row>
+    <row r="50">
+      <c r="B50" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="C6" s="15" t="n">
+      <c r="C50" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="D6" s="15" t="n">
+      <c r="D50" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="E50" s="15" t="n">
+        <v>13</v>
+      </c>
+      <c r="F50" s="15" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" s="15" t="n"/>
+      <c r="C51" s="15" t="n"/>
+      <c r="D51" s="15" t="n"/>
+      <c r="E51" s="15" t="n">
+        <v>14</v>
+      </c>
+      <c r="F51" s="15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" s="19" t="n"/>
+      <c r="C52" s="19" t="n"/>
+      <c r="D52" s="19" t="n"/>
+      <c r="E52" s="19" t="n">
+        <v>15</v>
+      </c>
+      <c r="F52" s="19" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="G52" s="7" t="n"/>
+      <c r="H52" s="7" t="n"/>
+      <c r="I52" s="7" t="n"/>
+      <c r="J52" s="7" t="n"/>
+      <c r="K52" s="7" t="n"/>
+      <c r="L52" s="7" t="n"/>
+    </row>
+    <row r="53">
+      <c r="B53" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C53" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="D53" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="E53" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F53" s="15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" s="15" t="n"/>
+      <c r="C54" s="15" t="n"/>
+      <c r="D54" s="15" t="n"/>
+      <c r="E54" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="E6" s="15" t="n">
+      <c r="F54" s="15" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" s="19" t="n"/>
+      <c r="C55" s="19" t="n"/>
+      <c r="D55" s="19" t="n"/>
+      <c r="E55" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="F55" s="19" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G55" s="7" t="n"/>
+      <c r="H55" s="7" t="n"/>
+      <c r="I55" s="7" t="n"/>
+      <c r="J55" s="7" t="n"/>
+      <c r="K55" s="7" t="n"/>
+      <c r="L55" s="7" t="n"/>
+    </row>
+    <row r="56">
+      <c r="B56" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="F6" s="15" t="inlineStr">
+      <c r="C56" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D56" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="F56" s="15" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="J6" t="n">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="15" t="n"/>
-      <c r="C7" s="15" t="n"/>
-      <c r="D7" s="15" t="n"/>
-      <c r="E7" s="15" t="n">
+    </row>
+    <row r="57">
+      <c r="B57" s="15" t="n"/>
+      <c r="C57" s="15" t="n"/>
+      <c r="D57" s="15" t="n"/>
+      <c r="E57" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="F7" s="15" t="inlineStr">
+      <c r="F57" s="15" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="K7" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="19" t="n"/>
-      <c r="C8" s="19" t="n"/>
-      <c r="D8" s="19" t="n"/>
-      <c r="E8" s="19" t="n">
+    </row>
+    <row r="58">
+      <c r="B58" s="19" t="n"/>
+      <c r="C58" s="19" t="n"/>
+      <c r="D58" s="19" t="n"/>
+      <c r="E58" s="19" t="n">
         <v>6</v>
       </c>
-      <c r="F8" s="19" t="inlineStr">
+      <c r="F58" s="19" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G8" s="7" t="n"/>
-      <c r="H8" s="7" t="n"/>
-      <c r="I8" s="7" t="n"/>
-      <c r="J8" s="7" t="n">
-        <v>300</v>
-      </c>
-      <c r="K8" s="7" t="n"/>
-    </row>
-    <row r="9">
-      <c r="B9" s="15" t="n">
+      <c r="G58" s="7" t="n"/>
+      <c r="H58" s="7" t="n"/>
+      <c r="I58" s="7" t="n"/>
+      <c r="J58" s="7" t="n"/>
+      <c r="K58" s="7" t="n"/>
+      <c r="L58" s="7" t="n"/>
+    </row>
+    <row r="59">
+      <c r="B59" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C59" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="D59" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="E59" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="F59" s="15" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" s="15" t="n"/>
+      <c r="C60" s="15" t="n"/>
+      <c r="D60" s="15" t="n"/>
+      <c r="E60" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="F60" s="15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="7" t="n"/>
+      <c r="B61" s="19" t="n"/>
+      <c r="C61" s="19" t="n"/>
+      <c r="D61" s="19" t="n"/>
+      <c r="E61" s="19" t="n">
+        <v>9</v>
+      </c>
+      <c r="F61" s="19" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G61" s="7" t="n"/>
+      <c r="H61" s="7" t="n"/>
+      <c r="I61" s="7" t="n"/>
+      <c r="J61" s="7" t="n"/>
+      <c r="K61" s="7" t="n"/>
+      <c r="L61" s="7" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B62" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C62" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="E62" s="15" t="n">
+        <v>13</v>
+      </c>
+      <c r="F62" s="15" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" s="15" t="n"/>
+      <c r="C63" s="15" t="n"/>
+      <c r="D63" s="15" t="n"/>
+      <c r="E63" s="15" t="n">
+        <v>14</v>
+      </c>
+      <c r="F63" s="15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" s="19" t="n"/>
+      <c r="C64" s="19" t="n"/>
+      <c r="D64" s="19" t="n"/>
+      <c r="E64" s="19" t="n">
+        <v>15</v>
+      </c>
+      <c r="F64" s="19" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="G64" s="7" t="n"/>
+      <c r="H64" s="7" t="n"/>
+      <c r="I64" s="7" t="n"/>
+      <c r="J64" s="7" t="n"/>
+      <c r="K64" s="7" t="n"/>
+      <c r="L64" s="7" t="n"/>
+    </row>
+    <row r="65">
+      <c r="B65" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C65" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D65" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="C9" s="15" t="n">
+      <c r="E65" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F65" s="15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" s="15" t="n"/>
+      <c r="C66" s="15" t="n"/>
+      <c r="D66" s="15" t="n"/>
+      <c r="E66" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F66" s="15" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" s="19" t="n"/>
+      <c r="C67" s="19" t="n"/>
+      <c r="D67" s="19" t="n"/>
+      <c r="E67" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="D9" s="15" t="n">
+      <c r="F67" s="19" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G67" s="7" t="n"/>
+      <c r="H67" s="7" t="n"/>
+      <c r="I67" s="7" t="n"/>
+      <c r="J67" s="7" t="n"/>
+      <c r="K67" s="7" t="n"/>
+      <c r="L67" s="7" t="n"/>
+    </row>
+    <row r="68">
+      <c r="B68" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="E9" s="15" t="n">
+      <c r="C68" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="D68" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="E68" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="F68" s="15" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" s="15" t="n"/>
+      <c r="C69" s="15" t="n"/>
+      <c r="D69" s="15" t="n"/>
+      <c r="E69" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="F69" s="15" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" s="19" t="n"/>
+      <c r="C70" s="19" t="n"/>
+      <c r="D70" s="19" t="n"/>
+      <c r="E70" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F70" s="19" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G70" s="7" t="n"/>
+      <c r="H70" s="7" t="n"/>
+      <c r="I70" s="7" t="n"/>
+      <c r="J70" s="7" t="n"/>
+      <c r="K70" s="7" t="n"/>
+      <c r="L70" s="7" t="n"/>
+    </row>
+    <row r="71">
+      <c r="B71" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C71" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D71" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="E71" s="15" t="n">
         <v>7</v>
       </c>
-      <c r="F9" s="15" t="inlineStr">
+      <c r="F71" s="15" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="J9" t="n">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="15" t="n"/>
-      <c r="C10" s="15" t="n"/>
-      <c r="D10" s="15" t="n"/>
-      <c r="E10" s="15" t="n">
+    </row>
+    <row r="72">
+      <c r="B72" s="15" t="n"/>
+      <c r="C72" s="15" t="n"/>
+      <c r="D72" s="15" t="n"/>
+      <c r="E72" s="15" t="n">
         <v>8</v>
       </c>
-      <c r="F10" s="15" t="inlineStr">
+      <c r="F72" s="15" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="J10" t="n">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="19" t="n"/>
-      <c r="C11" s="19" t="n"/>
-      <c r="D11" s="19" t="n"/>
-      <c r="E11" s="19" t="n">
+    </row>
+    <row r="73">
+      <c r="B73" s="19" t="n"/>
+      <c r="C73" s="19" t="n"/>
+      <c r="D73" s="19" t="n"/>
+      <c r="E73" s="19" t="n">
         <v>9</v>
       </c>
-      <c r="F11" s="19" t="inlineStr">
+      <c r="F73" s="19" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G11" s="7" t="n"/>
-      <c r="H11" s="7" t="n"/>
-      <c r="I11" s="7" t="n"/>
-      <c r="J11" s="7" t="n"/>
-      <c r="K11" s="7" t="n">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C12" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="D12" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="E12" s="15" t="n">
+      <c r="G73" s="7" t="n"/>
+      <c r="H73" s="7" t="n"/>
+      <c r="I73" s="7" t="n"/>
+      <c r="J73" s="7" t="n"/>
+      <c r="K73" s="7" t="n"/>
+      <c r="L73" s="7" t="n"/>
+    </row>
+    <row r="74">
+      <c r="B74" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C74" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="D74" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E74" s="15" t="n">
         <v>10</v>
       </c>
-      <c r="F12" s="15" t="inlineStr">
+      <c r="F74" s="15" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Avg</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>Avg</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="15" t="n"/>
-      <c r="C13" s="15" t="n"/>
-      <c r="D13" s="15" t="n"/>
-      <c r="E13" s="15" t="n">
+    </row>
+    <row r="75">
+      <c r="B75" s="15" t="n"/>
+      <c r="C75" s="15" t="n"/>
+      <c r="D75" s="15" t="n"/>
+      <c r="E75" s="15" t="n">
         <v>11</v>
       </c>
-      <c r="F13" s="15" t="inlineStr">
+      <c r="F75" s="15" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="K13" t="n">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="19" t="n"/>
-      <c r="C14" s="19" t="n"/>
-      <c r="D14" s="19" t="n"/>
-      <c r="E14" s="19" t="n">
+    </row>
+    <row r="76">
+      <c r="A76" s="7" t="n"/>
+      <c r="B76" s="19" t="n"/>
+      <c r="C76" s="19" t="n"/>
+      <c r="D76" s="19" t="n"/>
+      <c r="E76" s="19" t="n">
         <v>12</v>
       </c>
-      <c r="F14" s="19" t="inlineStr">
+      <c r="F76" s="19" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G14" s="7" t="n"/>
-      <c r="H14" s="7" t="n"/>
-      <c r="I14" s="7" t="n"/>
-      <c r="J14" s="7" t="n"/>
-      <c r="K14" s="7" t="n">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="C15" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="D15" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="E15" s="15" t="n">
-        <v>13</v>
-      </c>
-      <c r="F15" s="15" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="J15" t="n">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="15" t="n"/>
-      <c r="C16" s="15" t="n"/>
-      <c r="D16" s="15" t="n"/>
-      <c r="E16" s="15" t="n">
-        <v>14</v>
-      </c>
-      <c r="F16" s="15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K16" t="n">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="7" t="n"/>
-      <c r="B17" s="19" t="n"/>
-      <c r="C17" s="19" t="n"/>
-      <c r="D17" s="19" t="n"/>
-      <c r="E17" s="19" t="n">
-        <v>15</v>
-      </c>
-      <c r="F17" s="19" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="G17" s="7" t="n"/>
-      <c r="H17" s="7" t="n"/>
-      <c r="I17" s="7" t="n"/>
-      <c r="J17" s="7" t="n">
-        <v>760</v>
-      </c>
-      <c r="K17" s="7" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="B18" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="E18" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="F18" s="15" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="J18" t="n">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="15" t="n"/>
-      <c r="C19" s="15" t="n"/>
-      <c r="D19" s="15" t="n"/>
-      <c r="E19" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="F19" s="15" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Avg</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>Avg</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="19" t="n"/>
-      <c r="C20" s="19" t="n"/>
-      <c r="D20" s="19" t="n"/>
-      <c r="E20" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F20" s="19" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G20" s="7" t="n"/>
-      <c r="H20" s="7" t="n"/>
-      <c r="I20" s="7" t="n"/>
-      <c r="J20" s="7" t="n">
-        <v>770</v>
-      </c>
-      <c r="K20" s="7" t="n"/>
-    </row>
-    <row r="21">
-      <c r="B21" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="C21" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D21" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="15" t="n">
-        <v>7</v>
-      </c>
-      <c r="F21" s="15" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="K21" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" s="15" t="n"/>
-      <c r="C22" s="15" t="n"/>
-      <c r="D22" s="15" t="n"/>
-      <c r="E22" s="15" t="n">
-        <v>8</v>
-      </c>
-      <c r="F22" s="15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K22" t="n">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" s="19" t="n"/>
-      <c r="C23" s="19" t="n"/>
-      <c r="D23" s="19" t="n"/>
-      <c r="E23" s="19" t="n">
-        <v>9</v>
-      </c>
-      <c r="F23" s="19" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G23" s="7" t="n"/>
-      <c r="H23" s="7" t="n"/>
-      <c r="I23" s="7" t="n"/>
-      <c r="J23" s="7" t="n"/>
-      <c r="K23" s="7" t="n">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="C24" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="D24" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="E24" s="15" t="n">
-        <v>10</v>
-      </c>
-      <c r="F24" s="15" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="K24" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" s="15" t="n"/>
-      <c r="C25" s="15" t="n"/>
-      <c r="D25" s="15" t="n"/>
-      <c r="E25" s="15" t="n">
-        <v>11</v>
-      </c>
-      <c r="F25" s="15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K25" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" s="19" t="n"/>
-      <c r="C26" s="19" t="n"/>
-      <c r="D26" s="19" t="n"/>
-      <c r="E26" s="19" t="n">
-        <v>12</v>
-      </c>
-      <c r="F26" s="19" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="G26" s="7" t="n"/>
-      <c r="H26" s="7" t="n"/>
-      <c r="I26" s="7" t="n"/>
-      <c r="J26" s="7" t="n"/>
-      <c r="K26" s="7" t="n">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="B27" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C27" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="D27" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="E27" s="15" t="n">
-        <v>13</v>
-      </c>
-      <c r="F27" s="15" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="K27" t="n">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" s="15" t="n"/>
-      <c r="C28" s="15" t="n"/>
-      <c r="D28" s="15" t="n"/>
-      <c r="E28" s="15" t="n">
-        <v>14</v>
-      </c>
-      <c r="F28" s="15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K28" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" s="19" t="n"/>
-      <c r="C29" s="19" t="n"/>
-      <c r="D29" s="19" t="n"/>
-      <c r="E29" s="19" t="n">
-        <v>15</v>
-      </c>
-      <c r="F29" s="19" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="G29" s="7" t="n"/>
-      <c r="H29" s="7" t="n"/>
-      <c r="I29" s="7" t="n"/>
-      <c r="J29" s="7" t="n"/>
-      <c r="K29" s="7" t="n">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="B30" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="C30" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="D30" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="E30" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F30" s="15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K30" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="B31" s="15" t="n"/>
-      <c r="C31" s="15" t="n"/>
-      <c r="D31" s="15" t="n"/>
-      <c r="E31" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="F31" s="15" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="K31" t="n">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="7" t="n"/>
-      <c r="B32" s="19" t="n"/>
-      <c r="C32" s="19" t="n"/>
-      <c r="D32" s="19" t="n"/>
-      <c r="E32" s="19" t="n">
-        <v>3</v>
-      </c>
-      <c r="F32" s="19" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G32" s="7" t="n"/>
-      <c r="H32" s="7" t="n"/>
-      <c r="I32" s="7" t="n"/>
-      <c r="J32" s="7" t="n"/>
-      <c r="K32" s="7" t="n">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="B33" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C33" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D33" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="E33" s="15" t="n">
-        <v>7</v>
-      </c>
-      <c r="F33" s="15" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="K33" t="n">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="B34" s="15" t="n"/>
-      <c r="C34" s="15" t="n"/>
-      <c r="D34" s="15" t="n"/>
-      <c r="E34" s="15" t="n">
-        <v>8</v>
-      </c>
-      <c r="F34" s="15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="J34" t="n">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="B35" s="19" t="n"/>
-      <c r="C35" s="19" t="n"/>
-      <c r="D35" s="19" t="n"/>
-      <c r="E35" s="19" t="n">
-        <v>9</v>
-      </c>
-      <c r="F35" s="19" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G35" s="7" t="n"/>
-      <c r="H35" s="7" t="n"/>
-      <c r="I35" s="7" t="n"/>
-      <c r="J35" s="7" t="n">
-        <v>390</v>
-      </c>
-      <c r="K35" s="7" t="n"/>
-    </row>
-    <row r="36">
-      <c r="B36" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="C36" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D36" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="E36" s="15" t="n">
-        <v>10</v>
-      </c>
-      <c r="F36" s="15" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="J36" t="n">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="B37" s="15" t="n"/>
-      <c r="C37" s="15" t="n"/>
-      <c r="D37" s="15" t="n"/>
-      <c r="E37" s="15" t="n">
-        <v>11</v>
-      </c>
-      <c r="F37" s="15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K37" t="n">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="B38" s="19" t="n"/>
-      <c r="C38" s="19" t="n"/>
-      <c r="D38" s="19" t="n"/>
-      <c r="E38" s="19" t="n">
-        <v>12</v>
-      </c>
-      <c r="F38" s="19" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="G38" s="7" t="n"/>
-      <c r="H38" s="7" t="n"/>
-      <c r="I38" s="7" t="n"/>
-      <c r="J38" s="7" t="n"/>
-      <c r="K38" s="7" t="n">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="B39" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="C39" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="D39" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" s="15" t="n">
-        <v>13</v>
-      </c>
-      <c r="F39" s="15" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="K39" t="n">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="B40" s="15" t="n"/>
-      <c r="C40" s="15" t="n"/>
-      <c r="D40" s="15" t="n"/>
-      <c r="E40" s="15" t="n">
-        <v>14</v>
-      </c>
-      <c r="F40" s="15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="J40" t="n">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="B41" s="19" t="n"/>
-      <c r="C41" s="19" t="n"/>
-      <c r="D41" s="19" t="n"/>
-      <c r="E41" s="19" t="n">
-        <v>15</v>
-      </c>
-      <c r="F41" s="19" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="G41" s="7" t="n"/>
-      <c r="H41" s="7" t="n"/>
-      <c r="I41" s="7" t="n"/>
-      <c r="J41" s="7" t="n"/>
-      <c r="K41" s="7" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="B42" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C42" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="D42" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="E42" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F42" s="15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K42" t="n">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="B43" s="15" t="n"/>
-      <c r="C43" s="15" t="n"/>
-      <c r="D43" s="15" t="n"/>
-      <c r="E43" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="F43" s="15" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="J43" t="n">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="B44" s="19" t="n"/>
-      <c r="C44" s="19" t="n"/>
-      <c r="D44" s="19" t="n"/>
-      <c r="E44" s="19" t="n">
-        <v>3</v>
-      </c>
-      <c r="F44" s="19" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G44" s="7" t="n"/>
-      <c r="H44" s="7" t="n"/>
-      <c r="I44" s="7" t="n"/>
-      <c r="J44" s="7" t="n"/>
-      <c r="K44" s="7" t="n">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="B45" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="C45" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="D45" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="E45" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="F45" s="15" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="J45" t="n">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="B46" s="15" t="n"/>
-      <c r="C46" s="15" t="n"/>
-      <c r="D46" s="15" t="n"/>
-      <c r="E46" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="F46" s="15" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>Avg</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>Avg</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="7" t="n"/>
-      <c r="B47" s="19" t="n"/>
-      <c r="C47" s="19" t="n"/>
-      <c r="D47" s="19" t="n"/>
-      <c r="E47" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F47" s="19" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G47" s="7" t="n"/>
-      <c r="H47" s="7" t="n"/>
-      <c r="I47" s="7" t="n"/>
-      <c r="J47" s="7" t="n"/>
-      <c r="K47" s="7" t="n">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="B48" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C48" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D48" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="E48" s="15" t="n">
-        <v>10</v>
-      </c>
-      <c r="F48" s="15" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="J48" t="n">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="B49" s="15" t="n"/>
-      <c r="C49" s="15" t="n"/>
-      <c r="D49" s="15" t="n"/>
-      <c r="E49" s="15" t="n">
-        <v>11</v>
-      </c>
-      <c r="F49" s="15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="J49" t="n">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="B50" s="19" t="n"/>
-      <c r="C50" s="19" t="n"/>
-      <c r="D50" s="19" t="n"/>
-      <c r="E50" s="19" t="n">
-        <v>12</v>
-      </c>
-      <c r="F50" s="19" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="G50" s="7" t="n"/>
-      <c r="H50" s="7" t="n"/>
-      <c r="I50" s="7" t="n"/>
-      <c r="J50" s="7" t="n"/>
-      <c r="K50" s="7" t="n">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="B51" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="C51" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D51" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="E51" s="15" t="n">
-        <v>13</v>
-      </c>
-      <c r="F51" s="15" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="K51" t="n">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="B52" s="15" t="n"/>
-      <c r="C52" s="15" t="n"/>
-      <c r="D52" s="15" t="n"/>
-      <c r="E52" s="15" t="n">
-        <v>14</v>
-      </c>
-      <c r="F52" s="15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="J52" t="n">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="B53" s="19" t="n"/>
-      <c r="C53" s="19" t="n"/>
-      <c r="D53" s="19" t="n"/>
-      <c r="E53" s="19" t="n">
-        <v>15</v>
-      </c>
-      <c r="F53" s="19" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="G53" s="7" t="n"/>
-      <c r="H53" s="7" t="n"/>
-      <c r="I53" s="7" t="n"/>
-      <c r="J53" s="7" t="n"/>
-      <c r="K53" s="7" t="n">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="B54" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="C54" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="D54" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="E54" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F54" s="15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Avg</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>Avg</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="B55" s="15" t="n"/>
-      <c r="C55" s="15" t="n"/>
-      <c r="D55" s="15" t="n"/>
-      <c r="E55" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="F55" s="15" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="K55" t="n">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="B56" s="19" t="n"/>
-      <c r="C56" s="19" t="n"/>
-      <c r="D56" s="19" t="n"/>
-      <c r="E56" s="19" t="n">
-        <v>3</v>
-      </c>
-      <c r="F56" s="19" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G56" s="7" t="n"/>
-      <c r="H56" s="7" t="n"/>
-      <c r="I56" s="7" t="n"/>
-      <c r="J56" s="7" t="n"/>
-      <c r="K56" s="7" t="n">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="B57" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C57" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="D57" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E57" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="F57" s="15" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="J57" t="n">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="B58" s="15" t="n"/>
-      <c r="C58" s="15" t="n"/>
-      <c r="D58" s="15" t="n"/>
-      <c r="E58" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="F58" s="15" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="J58" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="B59" s="19" t="n"/>
-      <c r="C59" s="19" t="n"/>
-      <c r="D59" s="19" t="n"/>
-      <c r="E59" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F59" s="19" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G59" s="7" t="n"/>
-      <c r="H59" s="7" t="n"/>
-      <c r="I59" s="7" t="n"/>
-      <c r="J59" s="7" t="inlineStr">
-        <is>
-          <t>Avg</t>
-        </is>
-      </c>
-      <c r="K59" s="7" t="inlineStr">
-        <is>
-          <t>Avg</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="B60" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="C60" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="D60" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="E60" s="15" t="n">
-        <v>7</v>
-      </c>
-      <c r="F60" s="15" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="K60" t="n">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="B61" s="15" t="n"/>
-      <c r="C61" s="15" t="n"/>
-      <c r="D61" s="15" t="n"/>
-      <c r="E61" s="15" t="n">
-        <v>8</v>
-      </c>
-      <c r="F61" s="15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Avg</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>Avg</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="7" t="n"/>
-      <c r="B62" s="19" t="n"/>
-      <c r="C62" s="19" t="n"/>
-      <c r="D62" s="19" t="n"/>
-      <c r="E62" s="19" t="n">
-        <v>9</v>
-      </c>
-      <c r="F62" s="19" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G62" s="7" t="n"/>
-      <c r="H62" s="7" t="n"/>
-      <c r="I62" s="7" t="n"/>
-      <c r="J62" s="7" t="n">
-        <v>170</v>
-      </c>
-      <c r="K62" s="7" t="n"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="B63" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C63" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D63" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="E63" s="15" t="n">
-        <v>13</v>
-      </c>
-      <c r="F63" s="15" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="K63" t="n">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="B64" s="15" t="n"/>
-      <c r="C64" s="15" t="n"/>
-      <c r="D64" s="15" t="n"/>
-      <c r="E64" s="15" t="n">
-        <v>14</v>
-      </c>
-      <c r="F64" s="15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="J64" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="B65" s="19" t="n"/>
-      <c r="C65" s="19" t="n"/>
-      <c r="D65" s="19" t="n"/>
-      <c r="E65" s="19" t="n">
-        <v>15</v>
-      </c>
-      <c r="F65" s="19" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="G65" s="7" t="n"/>
-      <c r="H65" s="7" t="n"/>
-      <c r="I65" s="7" t="n"/>
-      <c r="J65" s="7" t="n"/>
-      <c r="K65" s="7" t="n">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="B66" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="C66" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D66" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="E66" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F66" s="15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="J66" t="n">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="B67" s="15" t="n"/>
-      <c r="C67" s="15" t="n"/>
-      <c r="D67" s="15" t="n"/>
-      <c r="E67" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="F67" s="15" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="K67" t="n">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="B68" s="19" t="n"/>
-      <c r="C68" s="19" t="n"/>
-      <c r="D68" s="19" t="n"/>
-      <c r="E68" s="19" t="n">
-        <v>3</v>
-      </c>
-      <c r="F68" s="19" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G68" s="7" t="n"/>
-      <c r="H68" s="7" t="n"/>
-      <c r="I68" s="7" t="n"/>
-      <c r="J68" s="7" t="n"/>
-      <c r="K68" s="7" t="n">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="B69" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="C69" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="D69" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="E69" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="F69" s="15" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>Avg</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>Avg</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="B70" s="15" t="n"/>
-      <c r="C70" s="15" t="n"/>
-      <c r="D70" s="15" t="n"/>
-      <c r="E70" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="F70" s="15" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="J70" t="n">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="B71" s="19" t="n"/>
-      <c r="C71" s="19" t="n"/>
-      <c r="D71" s="19" t="n"/>
-      <c r="E71" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F71" s="19" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G71" s="7" t="n"/>
-      <c r="H71" s="7" t="n"/>
-      <c r="I71" s="7" t="n"/>
-      <c r="J71" s="7" t="n">
-        <v>560</v>
-      </c>
-      <c r="K71" s="7" t="n"/>
-    </row>
-    <row r="72">
-      <c r="B72" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C72" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="D72" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="E72" s="15" t="n">
-        <v>7</v>
-      </c>
-      <c r="F72" s="15" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="J72" t="n">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="B73" s="15" t="n"/>
-      <c r="C73" s="15" t="n"/>
-      <c r="D73" s="15" t="n"/>
-      <c r="E73" s="15" t="n">
-        <v>8</v>
-      </c>
-      <c r="F73" s="15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>Avg</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>Avg</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="B74" s="19" t="n"/>
-      <c r="C74" s="19" t="n"/>
-      <c r="D74" s="19" t="n"/>
-      <c r="E74" s="19" t="n">
-        <v>9</v>
-      </c>
-      <c r="F74" s="19" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G74" s="7" t="n"/>
-      <c r="H74" s="7" t="n"/>
-      <c r="I74" s="7" t="n"/>
-      <c r="J74" s="7" t="n">
-        <v>800</v>
-      </c>
-      <c r="K74" s="7" t="n"/>
-    </row>
-    <row r="75">
-      <c r="B75" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="C75" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="D75" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E75" s="15" t="n">
-        <v>10</v>
-      </c>
-      <c r="F75" s="15" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>Avg</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>Avg</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="B76" s="15" t="n"/>
-      <c r="C76" s="15" t="n"/>
-      <c r="D76" s="15" t="n"/>
-      <c r="E76" s="15" t="n">
-        <v>11</v>
-      </c>
-      <c r="F76" s="15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="J76" t="n">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="7" t="n"/>
-      <c r="B77" s="19" t="n"/>
-      <c r="C77" s="19" t="n"/>
-      <c r="D77" s="19" t="n"/>
-      <c r="E77" s="19" t="n">
-        <v>12</v>
-      </c>
-      <c r="F77" s="19" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="G77" s="7" t="n"/>
-      <c r="H77" s="7" t="n"/>
-      <c r="I77" s="7" t="n"/>
-      <c r="J77" s="7" t="n"/>
-      <c r="K77" s="7" t="n">
-        <v>780</v>
-      </c>
+      <c r="G76" s="7" t="n"/>
+      <c r="H76" s="7" t="n"/>
+      <c r="I76" s="7" t="n"/>
+      <c r="J76" s="7" t="n"/>
+      <c r="K76" s="7" t="n"/>
+      <c r="L76" s="7" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mitchell10x3.xlsx
+++ b/mitchell10x3.xlsx
@@ -568,12 +568,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Name 74</t>
+          <t>Name 17</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Name 30</t>
+          <t>Name 29</t>
         </is>
       </c>
       <c r="D8" s="4">
@@ -591,12 +591,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Name 23</t>
+          <t>Name 27</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Name 65</t>
+          <t>Name 40</t>
         </is>
       </c>
       <c r="D9" s="4">
@@ -614,12 +614,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Name 12</t>
+          <t>Name 77</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Name 58</t>
+          <t>Name 80</t>
         </is>
       </c>
       <c r="D10" s="4">
@@ -637,12 +637,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>Name 55</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>Name 70</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Name 25</t>
         </is>
       </c>
       <c r="D11" s="4">
@@ -660,12 +660,12 @@
       </c>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>Name 79</t>
+          <t>Name 61</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr">
         <is>
-          <t>Name 68</t>
+          <t>Name 56</t>
         </is>
       </c>
       <c r="D12" s="8">
@@ -716,12 +716,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Name 81</t>
+          <t>Name 89</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Name 67</t>
+          <t>Name 62</t>
         </is>
       </c>
       <c r="D16" s="4">
@@ -739,12 +739,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Name 68</t>
+          <t>Name 12</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Name 88</t>
+          <t>Name 36</t>
         </is>
       </c>
       <c r="D17" s="4">
@@ -762,12 +762,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Name 44</t>
+          <t>Name 22</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Name 84</t>
+          <t>Name 26</t>
         </is>
       </c>
       <c r="D18" s="4">
@@ -785,12 +785,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Name 28</t>
+          <t>Name 75</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Name 71</t>
+          <t>Name 79</t>
         </is>
       </c>
       <c r="D19" s="4">
@@ -808,12 +808,12 @@
       </c>
       <c r="B20" s="7" t="inlineStr">
         <is>
-          <t>Name 38</t>
+          <t>Name 15</t>
         </is>
       </c>
       <c r="C20" s="7" t="inlineStr">
         <is>
-          <t>Name 15</t>
+          <t>Name 42</t>
         </is>
       </c>
       <c r="D20" s="8">
@@ -11459,7 +11459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M76"/>
+  <dimension ref="A2:K77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11470,1367 +11470,1334 @@
     <col width="30" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Round</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>Table</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>Board</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>Vul</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>Contract</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>By</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="I2" s="2" t="inlineStr">
         <is>
           <t>Result</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="J2" s="2" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="K2" s="2" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
-        <is>
-          <t>Scores</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="15" t="n">
+    </row>
+    <row r="3">
+      <c r="A3" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="n">
+      <c r="B3" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="15" t="n">
+      <c r="C3" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="15" t="n">
+      <c r="D3" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="15" t="n">
+      <c r="E3" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="F2" s="15" t="inlineStr">
+      <c r="F3" s="15" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="B3" s="15" t="n"/>
-      <c r="C3" s="15" t="n"/>
-      <c r="D3" s="15" t="n"/>
-      <c r="E3" s="15" t="n">
+    <row r="4">
+      <c r="B4" s="15" t="n"/>
+      <c r="C4" s="15" t="n"/>
+      <c r="D4" s="15" t="n"/>
+      <c r="E4" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="F3" s="15" t="inlineStr">
+      <c r="F4" s="15" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="B4" s="19" t="n"/>
-      <c r="C4" s="19" t="n"/>
-      <c r="D4" s="19" t="n"/>
-      <c r="E4" s="19" t="n">
+    <row r="5">
+      <c r="B5" s="19" t="n"/>
+      <c r="C5" s="19" t="n"/>
+      <c r="D5" s="19" t="n"/>
+      <c r="E5" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="F4" s="19" t="inlineStr">
+      <c r="F5" s="19" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G4" s="7" t="n"/>
-      <c r="H4" s="7" t="n"/>
-      <c r="I4" s="7" t="n"/>
-      <c r="J4" s="7" t="n"/>
-      <c r="K4" s="7" t="n"/>
-      <c r="L4" s="7" t="n"/>
-    </row>
-    <row r="5">
-      <c r="B5" s="15" t="n">
+      <c r="G5" s="7" t="n"/>
+      <c r="H5" s="7" t="n"/>
+      <c r="I5" s="7" t="n"/>
+      <c r="J5" s="7" t="n"/>
+      <c r="K5" s="7" t="n"/>
+    </row>
+    <row r="6">
+      <c r="B6" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="C5" s="15" t="n">
+      <c r="C6" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="D5" s="15" t="n">
+      <c r="D6" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="E5" s="15" t="n">
+      <c r="E6" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="F5" s="15" t="inlineStr">
+      <c r="F6" s="15" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" s="15" t="n"/>
-      <c r="C6" s="15" t="n"/>
-      <c r="D6" s="15" t="n"/>
-      <c r="E6" s="15" t="n">
+    <row r="7">
+      <c r="B7" s="15" t="n"/>
+      <c r="C7" s="15" t="n"/>
+      <c r="D7" s="15" t="n"/>
+      <c r="E7" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="F6" s="15" t="inlineStr">
+      <c r="F7" s="15" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" s="19" t="n"/>
-      <c r="C7" s="19" t="n"/>
-      <c r="D7" s="19" t="n"/>
-      <c r="E7" s="19" t="n">
+    <row r="8">
+      <c r="B8" s="19" t="n"/>
+      <c r="C8" s="19" t="n"/>
+      <c r="D8" s="19" t="n"/>
+      <c r="E8" s="19" t="n">
         <v>6</v>
       </c>
-      <c r="F7" s="19" t="inlineStr">
+      <c r="F8" s="19" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G7" s="7" t="n"/>
-      <c r="H7" s="7" t="n"/>
-      <c r="I7" s="7" t="n"/>
-      <c r="J7" s="7" t="n"/>
-      <c r="K7" s="7" t="n"/>
-      <c r="L7" s="7" t="n"/>
-    </row>
-    <row r="8">
-      <c r="B8" s="15" t="n">
+      <c r="G8" s="7" t="n"/>
+      <c r="H8" s="7" t="n"/>
+      <c r="I8" s="7" t="n"/>
+      <c r="J8" s="7" t="n"/>
+      <c r="K8" s="7" t="n"/>
+    </row>
+    <row r="9">
+      <c r="B9" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="C8" s="15" t="n">
+      <c r="C9" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="D8" s="15" t="n">
+      <c r="D9" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="E8" s="15" t="n">
+      <c r="E9" s="15" t="n">
         <v>7</v>
       </c>
-      <c r="F8" s="15" t="inlineStr">
+      <c r="F9" s="15" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" s="15" t="n"/>
-      <c r="C9" s="15" t="n"/>
-      <c r="D9" s="15" t="n"/>
-      <c r="E9" s="15" t="n">
+    <row r="10">
+      <c r="B10" s="15" t="n"/>
+      <c r="C10" s="15" t="n"/>
+      <c r="D10" s="15" t="n"/>
+      <c r="E10" s="15" t="n">
         <v>8</v>
       </c>
-      <c r="F9" s="15" t="inlineStr">
+      <c r="F10" s="15" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="B10" s="19" t="n"/>
-      <c r="C10" s="19" t="n"/>
-      <c r="D10" s="19" t="n"/>
-      <c r="E10" s="19" t="n">
+    <row r="11">
+      <c r="B11" s="19" t="n"/>
+      <c r="C11" s="19" t="n"/>
+      <c r="D11" s="19" t="n"/>
+      <c r="E11" s="19" t="n">
         <v>9</v>
       </c>
-      <c r="F10" s="19" t="inlineStr">
+      <c r="F11" s="19" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G10" s="7" t="n"/>
-      <c r="H10" s="7" t="n"/>
-      <c r="I10" s="7" t="n"/>
-      <c r="J10" s="7" t="n"/>
-      <c r="K10" s="7" t="n"/>
-      <c r="L10" s="7" t="n"/>
-    </row>
-    <row r="11">
-      <c r="B11" s="15" t="n">
+      <c r="G11" s="7" t="n"/>
+      <c r="H11" s="7" t="n"/>
+      <c r="I11" s="7" t="n"/>
+      <c r="J11" s="7" t="n"/>
+      <c r="K11" s="7" t="n"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="C11" s="15" t="n">
+      <c r="C12" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="D11" s="15" t="n">
+      <c r="D12" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="E11" s="15" t="n">
+      <c r="E12" s="15" t="n">
         <v>10</v>
       </c>
-      <c r="F11" s="15" t="inlineStr">
+      <c r="F12" s="15" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="B12" s="15" t="n"/>
-      <c r="C12" s="15" t="n"/>
-      <c r="D12" s="15" t="n"/>
-      <c r="E12" s="15" t="n">
+    <row r="13">
+      <c r="B13" s="15" t="n"/>
+      <c r="C13" s="15" t="n"/>
+      <c r="D13" s="15" t="n"/>
+      <c r="E13" s="15" t="n">
         <v>11</v>
       </c>
-      <c r="F12" s="15" t="inlineStr">
+      <c r="F13" s="15" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="B13" s="19" t="n"/>
-      <c r="C13" s="19" t="n"/>
-      <c r="D13" s="19" t="n"/>
-      <c r="E13" s="19" t="n">
+    <row r="14">
+      <c r="B14" s="19" t="n"/>
+      <c r="C14" s="19" t="n"/>
+      <c r="D14" s="19" t="n"/>
+      <c r="E14" s="19" t="n">
         <v>12</v>
       </c>
-      <c r="F13" s="19" t="inlineStr">
+      <c r="F14" s="19" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G13" s="7" t="n"/>
-      <c r="H13" s="7" t="n"/>
-      <c r="I13" s="7" t="n"/>
-      <c r="J13" s="7" t="n"/>
-      <c r="K13" s="7" t="n"/>
-      <c r="L13" s="7" t="n"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="15" t="n">
+      <c r="G14" s="7" t="n"/>
+      <c r="H14" s="7" t="n"/>
+      <c r="I14" s="7" t="n"/>
+      <c r="J14" s="7" t="n"/>
+      <c r="K14" s="7" t="n"/>
+    </row>
+    <row r="15">
+      <c r="B15" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="C14" s="15" t="n">
+      <c r="C15" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="D14" s="15" t="n">
+      <c r="D15" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="E14" s="15" t="n">
+      <c r="E15" s="15" t="n">
         <v>13</v>
       </c>
-      <c r="F14" s="15" t="inlineStr">
+      <c r="F15" s="15" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="B15" s="15" t="n"/>
-      <c r="C15" s="15" t="n"/>
-      <c r="D15" s="15" t="n"/>
-      <c r="E15" s="15" t="n">
+    <row r="16">
+      <c r="B16" s="15" t="n"/>
+      <c r="C16" s="15" t="n"/>
+      <c r="D16" s="15" t="n"/>
+      <c r="E16" s="15" t="n">
         <v>14</v>
       </c>
-      <c r="F15" s="15" t="inlineStr">
+      <c r="F16" s="15" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="7" t="n"/>
-      <c r="B16" s="19" t="n"/>
-      <c r="C16" s="19" t="n"/>
-      <c r="D16" s="19" t="n"/>
-      <c r="E16" s="19" t="n">
+    <row r="17">
+      <c r="A17" s="7" t="n"/>
+      <c r="B17" s="19" t="n"/>
+      <c r="C17" s="19" t="n"/>
+      <c r="D17" s="19" t="n"/>
+      <c r="E17" s="19" t="n">
         <v>15</v>
       </c>
-      <c r="F16" s="19" t="inlineStr">
+      <c r="F17" s="19" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G16" s="7" t="n"/>
-      <c r="H16" s="7" t="n"/>
-      <c r="I16" s="7" t="n"/>
-      <c r="J16" s="7" t="n"/>
-      <c r="K16" s="7" t="n"/>
-      <c r="L16" s="7" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="15" t="n">
+      <c r="G17" s="7" t="n"/>
+      <c r="H17" s="7" t="n"/>
+      <c r="I17" s="7" t="n"/>
+      <c r="J17" s="7" t="n"/>
+      <c r="K17" s="7" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="B17" s="15" t="n">
+      <c r="B18" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="15" t="n">
+      <c r="C18" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="D17" s="15" t="n">
+      <c r="D18" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="E17" s="15" t="n">
+      <c r="E18" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="F17" s="15" t="inlineStr">
+      <c r="F18" s="15" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="B18" s="15" t="n"/>
-      <c r="C18" s="15" t="n"/>
-      <c r="D18" s="15" t="n"/>
-      <c r="E18" s="15" t="n">
+    <row r="19">
+      <c r="B19" s="15" t="n"/>
+      <c r="C19" s="15" t="n"/>
+      <c r="D19" s="15" t="n"/>
+      <c r="E19" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="F18" s="15" t="inlineStr">
+      <c r="F19" s="15" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="B19" s="19" t="n"/>
-      <c r="C19" s="19" t="n"/>
-      <c r="D19" s="19" t="n"/>
-      <c r="E19" s="19" t="n">
+    <row r="20">
+      <c r="B20" s="19" t="n"/>
+      <c r="C20" s="19" t="n"/>
+      <c r="D20" s="19" t="n"/>
+      <c r="E20" s="19" t="n">
         <v>6</v>
       </c>
-      <c r="F19" s="19" t="inlineStr">
+      <c r="F20" s="19" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G19" s="7" t="n"/>
-      <c r="H19" s="7" t="n"/>
-      <c r="I19" s="7" t="n"/>
-      <c r="J19" s="7" t="n"/>
-      <c r="K19" s="7" t="n"/>
-      <c r="L19" s="7" t="n"/>
-    </row>
-    <row r="20">
-      <c r="B20" s="15" t="n">
+      <c r="G20" s="7" t="n"/>
+      <c r="H20" s="7" t="n"/>
+      <c r="I20" s="7" t="n"/>
+      <c r="J20" s="7" t="n"/>
+      <c r="K20" s="7" t="n"/>
+    </row>
+    <row r="21">
+      <c r="B21" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="C20" s="15" t="n">
+      <c r="C21" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="D20" s="15" t="n">
+      <c r="D21" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="E20" s="15" t="n">
+      <c r="E21" s="15" t="n">
         <v>7</v>
       </c>
-      <c r="F20" s="15" t="inlineStr">
+      <c r="F21" s="15" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="B21" s="15" t="n"/>
-      <c r="C21" s="15" t="n"/>
-      <c r="D21" s="15" t="n"/>
-      <c r="E21" s="15" t="n">
+    <row r="22">
+      <c r="B22" s="15" t="n"/>
+      <c r="C22" s="15" t="n"/>
+      <c r="D22" s="15" t="n"/>
+      <c r="E22" s="15" t="n">
         <v>8</v>
       </c>
-      <c r="F21" s="15" t="inlineStr">
+      <c r="F22" s="15" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="B22" s="19" t="n"/>
-      <c r="C22" s="19" t="n"/>
-      <c r="D22" s="19" t="n"/>
-      <c r="E22" s="19" t="n">
+    <row r="23">
+      <c r="B23" s="19" t="n"/>
+      <c r="C23" s="19" t="n"/>
+      <c r="D23" s="19" t="n"/>
+      <c r="E23" s="19" t="n">
         <v>9</v>
       </c>
-      <c r="F22" s="19" t="inlineStr">
+      <c r="F23" s="19" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G22" s="7" t="n"/>
-      <c r="H22" s="7" t="n"/>
-      <c r="I22" s="7" t="n"/>
-      <c r="J22" s="7" t="n"/>
-      <c r="K22" s="7" t="n"/>
-      <c r="L22" s="7" t="n"/>
-    </row>
-    <row r="23">
-      <c r="B23" s="15" t="n">
+      <c r="G23" s="7" t="n"/>
+      <c r="H23" s="7" t="n"/>
+      <c r="I23" s="7" t="n"/>
+      <c r="J23" s="7" t="n"/>
+      <c r="K23" s="7" t="n"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="C23" s="15" t="n">
+      <c r="C24" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="D23" s="15" t="n">
+      <c r="D24" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="E23" s="15" t="n">
+      <c r="E24" s="15" t="n">
         <v>10</v>
       </c>
-      <c r="F23" s="15" t="inlineStr">
+      <c r="F24" s="15" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="B24" s="15" t="n"/>
-      <c r="C24" s="15" t="n"/>
-      <c r="D24" s="15" t="n"/>
-      <c r="E24" s="15" t="n">
+    <row r="25">
+      <c r="B25" s="15" t="n"/>
+      <c r="C25" s="15" t="n"/>
+      <c r="D25" s="15" t="n"/>
+      <c r="E25" s="15" t="n">
         <v>11</v>
       </c>
-      <c r="F24" s="15" t="inlineStr">
+      <c r="F25" s="15" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="B25" s="19" t="n"/>
-      <c r="C25" s="19" t="n"/>
-      <c r="D25" s="19" t="n"/>
-      <c r="E25" s="19" t="n">
+    <row r="26">
+      <c r="B26" s="19" t="n"/>
+      <c r="C26" s="19" t="n"/>
+      <c r="D26" s="19" t="n"/>
+      <c r="E26" s="19" t="n">
         <v>12</v>
       </c>
-      <c r="F25" s="19" t="inlineStr">
+      <c r="F26" s="19" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G25" s="7" t="n"/>
-      <c r="H25" s="7" t="n"/>
-      <c r="I25" s="7" t="n"/>
-      <c r="J25" s="7" t="n"/>
-      <c r="K25" s="7" t="n"/>
-      <c r="L25" s="7" t="n"/>
-    </row>
-    <row r="26">
-      <c r="B26" s="15" t="n">
+      <c r="G26" s="7" t="n"/>
+      <c r="H26" s="7" t="n"/>
+      <c r="I26" s="7" t="n"/>
+      <c r="J26" s="7" t="n"/>
+      <c r="K26" s="7" t="n"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="C26" s="15" t="n">
+      <c r="C27" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="D26" s="15" t="n">
+      <c r="D27" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="E26" s="15" t="n">
+      <c r="E27" s="15" t="n">
         <v>13</v>
       </c>
-      <c r="F26" s="15" t="inlineStr">
+      <c r="F27" s="15" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="B27" s="15" t="n"/>
-      <c r="C27" s="15" t="n"/>
-      <c r="D27" s="15" t="n"/>
-      <c r="E27" s="15" t="n">
+    <row r="28">
+      <c r="B28" s="15" t="n"/>
+      <c r="C28" s="15" t="n"/>
+      <c r="D28" s="15" t="n"/>
+      <c r="E28" s="15" t="n">
         <v>14</v>
       </c>
-      <c r="F27" s="15" t="inlineStr">
+      <c r="F28" s="15" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="B28" s="19" t="n"/>
-      <c r="C28" s="19" t="n"/>
-      <c r="D28" s="19" t="n"/>
-      <c r="E28" s="19" t="n">
+    <row r="29">
+      <c r="B29" s="19" t="n"/>
+      <c r="C29" s="19" t="n"/>
+      <c r="D29" s="19" t="n"/>
+      <c r="E29" s="19" t="n">
         <v>15</v>
       </c>
-      <c r="F28" s="19" t="inlineStr">
+      <c r="F29" s="19" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G28" s="7" t="n"/>
-      <c r="H28" s="7" t="n"/>
-      <c r="I28" s="7" t="n"/>
-      <c r="J28" s="7" t="n"/>
-      <c r="K28" s="7" t="n"/>
-      <c r="L28" s="7" t="n"/>
-    </row>
-    <row r="29">
-      <c r="B29" s="15" t="n">
+      <c r="G29" s="7" t="n"/>
+      <c r="H29" s="7" t="n"/>
+      <c r="I29" s="7" t="n"/>
+      <c r="J29" s="7" t="n"/>
+      <c r="K29" s="7" t="n"/>
+    </row>
+    <row r="30">
+      <c r="B30" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="C29" s="15" t="n">
+      <c r="C30" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="D29" s="15" t="n">
+      <c r="D30" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="E29" s="15" t="n">
+      <c r="E30" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="F29" s="15" t="inlineStr">
+      <c r="F30" s="15" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="B30" s="15" t="n"/>
-      <c r="C30" s="15" t="n"/>
-      <c r="D30" s="15" t="n"/>
-      <c r="E30" s="15" t="n">
+    <row r="31">
+      <c r="B31" s="15" t="n"/>
+      <c r="C31" s="15" t="n"/>
+      <c r="D31" s="15" t="n"/>
+      <c r="E31" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="F30" s="15" t="inlineStr">
+      <c r="F31" s="15" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="7" t="n"/>
-      <c r="B31" s="19" t="n"/>
-      <c r="C31" s="19" t="n"/>
-      <c r="D31" s="19" t="n"/>
-      <c r="E31" s="19" t="n">
+    <row r="32">
+      <c r="A32" s="7" t="n"/>
+      <c r="B32" s="19" t="n"/>
+      <c r="C32" s="19" t="n"/>
+      <c r="D32" s="19" t="n"/>
+      <c r="E32" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="F31" s="19" t="inlineStr">
+      <c r="F32" s="19" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G31" s="7" t="n"/>
-      <c r="H31" s="7" t="n"/>
-      <c r="I31" s="7" t="n"/>
-      <c r="J31" s="7" t="n"/>
-      <c r="K31" s="7" t="n"/>
-      <c r="L31" s="7" t="n"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="15" t="n">
+      <c r="G32" s="7" t="n"/>
+      <c r="H32" s="7" t="n"/>
+      <c r="I32" s="7" t="n"/>
+      <c r="J32" s="7" t="n"/>
+      <c r="K32" s="7" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="B32" s="15" t="n">
+      <c r="B33" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="C32" s="15" t="n">
+      <c r="C33" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="D32" s="15" t="n">
+      <c r="D33" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="E32" s="15" t="n">
+      <c r="E33" s="15" t="n">
         <v>7</v>
       </c>
-      <c r="F32" s="15" t="inlineStr">
+      <c r="F33" s="15" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="B33" s="15" t="n"/>
-      <c r="C33" s="15" t="n"/>
-      <c r="D33" s="15" t="n"/>
-      <c r="E33" s="15" t="n">
+    <row r="34">
+      <c r="B34" s="15" t="n"/>
+      <c r="C34" s="15" t="n"/>
+      <c r="D34" s="15" t="n"/>
+      <c r="E34" s="15" t="n">
         <v>8</v>
       </c>
-      <c r="F33" s="15" t="inlineStr">
+      <c r="F34" s="15" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="B34" s="19" t="n"/>
-      <c r="C34" s="19" t="n"/>
-      <c r="D34" s="19" t="n"/>
-      <c r="E34" s="19" t="n">
+    <row r="35">
+      <c r="B35" s="19" t="n"/>
+      <c r="C35" s="19" t="n"/>
+      <c r="D35" s="19" t="n"/>
+      <c r="E35" s="19" t="n">
         <v>9</v>
       </c>
-      <c r="F34" s="19" t="inlineStr">
+      <c r="F35" s="19" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G34" s="7" t="n"/>
-      <c r="H34" s="7" t="n"/>
-      <c r="I34" s="7" t="n"/>
-      <c r="J34" s="7" t="n"/>
-      <c r="K34" s="7" t="n"/>
-      <c r="L34" s="7" t="n"/>
-    </row>
-    <row r="35">
-      <c r="B35" s="15" t="n">
+      <c r="G35" s="7" t="n"/>
+      <c r="H35" s="7" t="n"/>
+      <c r="I35" s="7" t="n"/>
+      <c r="J35" s="7" t="n"/>
+      <c r="K35" s="7" t="n"/>
+    </row>
+    <row r="36">
+      <c r="B36" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="C35" s="15" t="n">
+      <c r="C36" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="D35" s="15" t="n">
+      <c r="D36" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="E35" s="15" t="n">
+      <c r="E36" s="15" t="n">
         <v>10</v>
       </c>
-      <c r="F35" s="15" t="inlineStr">
+      <c r="F36" s="15" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="B36" s="15" t="n"/>
-      <c r="C36" s="15" t="n"/>
-      <c r="D36" s="15" t="n"/>
-      <c r="E36" s="15" t="n">
+    <row r="37">
+      <c r="B37" s="15" t="n"/>
+      <c r="C37" s="15" t="n"/>
+      <c r="D37" s="15" t="n"/>
+      <c r="E37" s="15" t="n">
         <v>11</v>
       </c>
-      <c r="F36" s="15" t="inlineStr">
+      <c r="F37" s="15" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="B37" s="19" t="n"/>
-      <c r="C37" s="19" t="n"/>
-      <c r="D37" s="19" t="n"/>
-      <c r="E37" s="19" t="n">
+    <row r="38">
+      <c r="B38" s="19" t="n"/>
+      <c r="C38" s="19" t="n"/>
+      <c r="D38" s="19" t="n"/>
+      <c r="E38" s="19" t="n">
         <v>12</v>
       </c>
-      <c r="F37" s="19" t="inlineStr">
+      <c r="F38" s="19" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G37" s="7" t="n"/>
-      <c r="H37" s="7" t="n"/>
-      <c r="I37" s="7" t="n"/>
-      <c r="J37" s="7" t="n"/>
-      <c r="K37" s="7" t="n"/>
-      <c r="L37" s="7" t="n"/>
-    </row>
-    <row r="38">
-      <c r="B38" s="15" t="n">
+      <c r="G38" s="7" t="n"/>
+      <c r="H38" s="7" t="n"/>
+      <c r="I38" s="7" t="n"/>
+      <c r="J38" s="7" t="n"/>
+      <c r="K38" s="7" t="n"/>
+    </row>
+    <row r="39">
+      <c r="B39" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="C38" s="15" t="n">
+      <c r="C39" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="D38" s="15" t="n">
+      <c r="D39" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="E38" s="15" t="n">
+      <c r="E39" s="15" t="n">
         <v>13</v>
       </c>
-      <c r="F38" s="15" t="inlineStr">
+      <c r="F39" s="15" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="B39" s="15" t="n"/>
-      <c r="C39" s="15" t="n"/>
-      <c r="D39" s="15" t="n"/>
-      <c r="E39" s="15" t="n">
+    <row r="40">
+      <c r="B40" s="15" t="n"/>
+      <c r="C40" s="15" t="n"/>
+      <c r="D40" s="15" t="n"/>
+      <c r="E40" s="15" t="n">
         <v>14</v>
       </c>
-      <c r="F39" s="15" t="inlineStr">
+      <c r="F40" s="15" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="B40" s="19" t="n"/>
-      <c r="C40" s="19" t="n"/>
-      <c r="D40" s="19" t="n"/>
-      <c r="E40" s="19" t="n">
+    <row r="41">
+      <c r="B41" s="19" t="n"/>
+      <c r="C41" s="19" t="n"/>
+      <c r="D41" s="19" t="n"/>
+      <c r="E41" s="19" t="n">
         <v>15</v>
       </c>
-      <c r="F40" s="19" t="inlineStr">
+      <c r="F41" s="19" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G40" s="7" t="n"/>
-      <c r="H40" s="7" t="n"/>
-      <c r="I40" s="7" t="n"/>
-      <c r="J40" s="7" t="n"/>
-      <c r="K40" s="7" t="n"/>
-      <c r="L40" s="7" t="n"/>
-    </row>
-    <row r="41">
-      <c r="B41" s="15" t="n">
+      <c r="G41" s="7" t="n"/>
+      <c r="H41" s="7" t="n"/>
+      <c r="I41" s="7" t="n"/>
+      <c r="J41" s="7" t="n"/>
+      <c r="K41" s="7" t="n"/>
+    </row>
+    <row r="42">
+      <c r="B42" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="C41" s="15" t="n">
+      <c r="C42" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="D41" s="15" t="n">
+      <c r="D42" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="E41" s="15" t="n">
+      <c r="E42" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="F41" s="15" t="inlineStr">
+      <c r="F42" s="15" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="B42" s="15" t="n"/>
-      <c r="C42" s="15" t="n"/>
-      <c r="D42" s="15" t="n"/>
-      <c r="E42" s="15" t="n">
+    <row r="43">
+      <c r="B43" s="15" t="n"/>
+      <c r="C43" s="15" t="n"/>
+      <c r="D43" s="15" t="n"/>
+      <c r="E43" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="F42" s="15" t="inlineStr">
+      <c r="F43" s="15" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="B43" s="19" t="n"/>
-      <c r="C43" s="19" t="n"/>
-      <c r="D43" s="19" t="n"/>
-      <c r="E43" s="19" t="n">
+    <row r="44">
+      <c r="B44" s="19" t="n"/>
+      <c r="C44" s="19" t="n"/>
+      <c r="D44" s="19" t="n"/>
+      <c r="E44" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="F43" s="19" t="inlineStr">
+      <c r="F44" s="19" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G43" s="7" t="n"/>
-      <c r="H43" s="7" t="n"/>
-      <c r="I43" s="7" t="n"/>
-      <c r="J43" s="7" t="n"/>
-      <c r="K43" s="7" t="n"/>
-      <c r="L43" s="7" t="n"/>
-    </row>
-    <row r="44">
-      <c r="B44" s="15" t="n">
+      <c r="G44" s="7" t="n"/>
+      <c r="H44" s="7" t="n"/>
+      <c r="I44" s="7" t="n"/>
+      <c r="J44" s="7" t="n"/>
+      <c r="K44" s="7" t="n"/>
+    </row>
+    <row r="45">
+      <c r="B45" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="C44" s="15" t="n">
+      <c r="C45" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="D44" s="15" t="n">
+      <c r="D45" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="E44" s="15" t="n">
+      <c r="E45" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="F44" s="15" t="inlineStr">
+      <c r="F45" s="15" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="B45" s="15" t="n"/>
-      <c r="C45" s="15" t="n"/>
-      <c r="D45" s="15" t="n"/>
-      <c r="E45" s="15" t="n">
+    <row r="46">
+      <c r="B46" s="15" t="n"/>
+      <c r="C46" s="15" t="n"/>
+      <c r="D46" s="15" t="n"/>
+      <c r="E46" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="F45" s="15" t="inlineStr">
+      <c r="F46" s="15" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="7" t="n"/>
-      <c r="B46" s="19" t="n"/>
-      <c r="C46" s="19" t="n"/>
-      <c r="D46" s="19" t="n"/>
-      <c r="E46" s="19" t="n">
+    <row r="47">
+      <c r="A47" s="7" t="n"/>
+      <c r="B47" s="19" t="n"/>
+      <c r="C47" s="19" t="n"/>
+      <c r="D47" s="19" t="n"/>
+      <c r="E47" s="19" t="n">
         <v>6</v>
       </c>
-      <c r="F46" s="19" t="inlineStr">
+      <c r="F47" s="19" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G46" s="7" t="n"/>
-      <c r="H46" s="7" t="n"/>
-      <c r="I46" s="7" t="n"/>
-      <c r="J46" s="7" t="n"/>
-      <c r="K46" s="7" t="n"/>
-      <c r="L46" s="7" t="n"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="15" t="n">
+      <c r="G47" s="7" t="n"/>
+      <c r="H47" s="7" t="n"/>
+      <c r="I47" s="7" t="n"/>
+      <c r="J47" s="7" t="n"/>
+      <c r="K47" s="7" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="B47" s="15" t="n">
+      <c r="B48" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="C47" s="15" t="n">
+      <c r="C48" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="D47" s="15" t="n">
+      <c r="D48" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="E47" s="15" t="n">
+      <c r="E48" s="15" t="n">
         <v>10</v>
       </c>
-      <c r="F47" s="15" t="inlineStr">
+      <c r="F48" s="15" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="B48" s="15" t="n"/>
-      <c r="C48" s="15" t="n"/>
-      <c r="D48" s="15" t="n"/>
-      <c r="E48" s="15" t="n">
+    <row r="49">
+      <c r="B49" s="15" t="n"/>
+      <c r="C49" s="15" t="n"/>
+      <c r="D49" s="15" t="n"/>
+      <c r="E49" s="15" t="n">
         <v>11</v>
       </c>
-      <c r="F48" s="15" t="inlineStr">
+      <c r="F49" s="15" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="B49" s="19" t="n"/>
-      <c r="C49" s="19" t="n"/>
-      <c r="D49" s="19" t="n"/>
-      <c r="E49" s="19" t="n">
+    <row r="50">
+      <c r="B50" s="19" t="n"/>
+      <c r="C50" s="19" t="n"/>
+      <c r="D50" s="19" t="n"/>
+      <c r="E50" s="19" t="n">
         <v>12</v>
       </c>
-      <c r="F49" s="19" t="inlineStr">
+      <c r="F50" s="19" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G49" s="7" t="n"/>
-      <c r="H49" s="7" t="n"/>
-      <c r="I49" s="7" t="n"/>
-      <c r="J49" s="7" t="n"/>
-      <c r="K49" s="7" t="n"/>
-      <c r="L49" s="7" t="n"/>
-    </row>
-    <row r="50">
-      <c r="B50" s="15" t="n">
+      <c r="G50" s="7" t="n"/>
+      <c r="H50" s="7" t="n"/>
+      <c r="I50" s="7" t="n"/>
+      <c r="J50" s="7" t="n"/>
+      <c r="K50" s="7" t="n"/>
+    </row>
+    <row r="51">
+      <c r="B51" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="C50" s="15" t="n">
+      <c r="C51" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="D50" s="15" t="n">
+      <c r="D51" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="E50" s="15" t="n">
+      <c r="E51" s="15" t="n">
         <v>13</v>
       </c>
-      <c r="F50" s="15" t="inlineStr">
+      <c r="F51" s="15" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="B51" s="15" t="n"/>
-      <c r="C51" s="15" t="n"/>
-      <c r="D51" s="15" t="n"/>
-      <c r="E51" s="15" t="n">
+    <row r="52">
+      <c r="B52" s="15" t="n"/>
+      <c r="C52" s="15" t="n"/>
+      <c r="D52" s="15" t="n"/>
+      <c r="E52" s="15" t="n">
         <v>14</v>
       </c>
-      <c r="F51" s="15" t="inlineStr">
+      <c r="F52" s="15" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="B52" s="19" t="n"/>
-      <c r="C52" s="19" t="n"/>
-      <c r="D52" s="19" t="n"/>
-      <c r="E52" s="19" t="n">
+    <row r="53">
+      <c r="B53" s="19" t="n"/>
+      <c r="C53" s="19" t="n"/>
+      <c r="D53" s="19" t="n"/>
+      <c r="E53" s="19" t="n">
         <v>15</v>
       </c>
-      <c r="F52" s="19" t="inlineStr">
+      <c r="F53" s="19" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G52" s="7" t="n"/>
-      <c r="H52" s="7" t="n"/>
-      <c r="I52" s="7" t="n"/>
-      <c r="J52" s="7" t="n"/>
-      <c r="K52" s="7" t="n"/>
-      <c r="L52" s="7" t="n"/>
-    </row>
-    <row r="53">
-      <c r="B53" s="15" t="n">
+      <c r="G53" s="7" t="n"/>
+      <c r="H53" s="7" t="n"/>
+      <c r="I53" s="7" t="n"/>
+      <c r="J53" s="7" t="n"/>
+      <c r="K53" s="7" t="n"/>
+    </row>
+    <row r="54">
+      <c r="B54" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="C53" s="15" t="n">
+      <c r="C54" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="D53" s="15" t="n">
+      <c r="D54" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="E53" s="15" t="n">
+      <c r="E54" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="F53" s="15" t="inlineStr">
+      <c r="F54" s="15" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="54">
-      <c r="B54" s="15" t="n"/>
-      <c r="C54" s="15" t="n"/>
-      <c r="D54" s="15" t="n"/>
-      <c r="E54" s="15" t="n">
+    <row r="55">
+      <c r="B55" s="15" t="n"/>
+      <c r="C55" s="15" t="n"/>
+      <c r="D55" s="15" t="n"/>
+      <c r="E55" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="F54" s="15" t="inlineStr">
+      <c r="F55" s="15" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="55">
-      <c r="B55" s="19" t="n"/>
-      <c r="C55" s="19" t="n"/>
-      <c r="D55" s="19" t="n"/>
-      <c r="E55" s="19" t="n">
+    <row r="56">
+      <c r="B56" s="19" t="n"/>
+      <c r="C56" s="19" t="n"/>
+      <c r="D56" s="19" t="n"/>
+      <c r="E56" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="F55" s="19" t="inlineStr">
+      <c r="F56" s="19" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G55" s="7" t="n"/>
-      <c r="H55" s="7" t="n"/>
-      <c r="I55" s="7" t="n"/>
-      <c r="J55" s="7" t="n"/>
-      <c r="K55" s="7" t="n"/>
-      <c r="L55" s="7" t="n"/>
-    </row>
-    <row r="56">
-      <c r="B56" s="15" t="n">
+      <c r="G56" s="7" t="n"/>
+      <c r="H56" s="7" t="n"/>
+      <c r="I56" s="7" t="n"/>
+      <c r="J56" s="7" t="n"/>
+      <c r="K56" s="7" t="n"/>
+    </row>
+    <row r="57">
+      <c r="B57" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="C56" s="15" t="n">
+      <c r="C57" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="D56" s="15" t="n">
+      <c r="D57" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="E56" s="15" t="n">
+      <c r="E57" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="F56" s="15" t="inlineStr">
+      <c r="F57" s="15" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="57">
-      <c r="B57" s="15" t="n"/>
-      <c r="C57" s="15" t="n"/>
-      <c r="D57" s="15" t="n"/>
-      <c r="E57" s="15" t="n">
+    <row r="58">
+      <c r="B58" s="15" t="n"/>
+      <c r="C58" s="15" t="n"/>
+      <c r="D58" s="15" t="n"/>
+      <c r="E58" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="F57" s="15" t="inlineStr">
+      <c r="F58" s="15" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="58">
-      <c r="B58" s="19" t="n"/>
-      <c r="C58" s="19" t="n"/>
-      <c r="D58" s="19" t="n"/>
-      <c r="E58" s="19" t="n">
+    <row r="59">
+      <c r="B59" s="19" t="n"/>
+      <c r="C59" s="19" t="n"/>
+      <c r="D59" s="19" t="n"/>
+      <c r="E59" s="19" t="n">
         <v>6</v>
       </c>
-      <c r="F58" s="19" t="inlineStr">
+      <c r="F59" s="19" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G58" s="7" t="n"/>
-      <c r="H58" s="7" t="n"/>
-      <c r="I58" s="7" t="n"/>
-      <c r="J58" s="7" t="n"/>
-      <c r="K58" s="7" t="n"/>
-      <c r="L58" s="7" t="n"/>
-    </row>
-    <row r="59">
-      <c r="B59" s="15" t="n">
+      <c r="G59" s="7" t="n"/>
+      <c r="H59" s="7" t="n"/>
+      <c r="I59" s="7" t="n"/>
+      <c r="J59" s="7" t="n"/>
+      <c r="K59" s="7" t="n"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="C59" s="15" t="n">
+      <c r="C60" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="D59" s="15" t="n">
+      <c r="D60" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="E59" s="15" t="n">
+      <c r="E60" s="15" t="n">
         <v>7</v>
       </c>
-      <c r="F59" s="15" t="inlineStr">
+      <c r="F60" s="15" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="60">
-      <c r="B60" s="15" t="n"/>
-      <c r="C60" s="15" t="n"/>
-      <c r="D60" s="15" t="n"/>
-      <c r="E60" s="15" t="n">
+    <row r="61">
+      <c r="B61" s="15" t="n"/>
+      <c r="C61" s="15" t="n"/>
+      <c r="D61" s="15" t="n"/>
+      <c r="E61" s="15" t="n">
         <v>8</v>
       </c>
-      <c r="F60" s="15" t="inlineStr">
+      <c r="F61" s="15" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="7" t="n"/>
-      <c r="B61" s="19" t="n"/>
-      <c r="C61" s="19" t="n"/>
-      <c r="D61" s="19" t="n"/>
-      <c r="E61" s="19" t="n">
+    <row r="62">
+      <c r="A62" s="7" t="n"/>
+      <c r="B62" s="19" t="n"/>
+      <c r="C62" s="19" t="n"/>
+      <c r="D62" s="19" t="n"/>
+      <c r="E62" s="19" t="n">
         <v>9</v>
       </c>
-      <c r="F61" s="19" t="inlineStr">
+      <c r="F62" s="19" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G61" s="7" t="n"/>
-      <c r="H61" s="7" t="n"/>
-      <c r="I61" s="7" t="n"/>
-      <c r="J61" s="7" t="n"/>
-      <c r="K61" s="7" t="n"/>
-      <c r="L61" s="7" t="n"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="15" t="n">
+      <c r="G62" s="7" t="n"/>
+      <c r="H62" s="7" t="n"/>
+      <c r="I62" s="7" t="n"/>
+      <c r="J62" s="7" t="n"/>
+      <c r="K62" s="7" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="B62" s="15" t="n">
+      <c r="B63" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="C62" s="15" t="n">
+      <c r="C63" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="D62" s="15" t="n">
+      <c r="D63" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="E62" s="15" t="n">
+      <c r="E63" s="15" t="n">
         <v>13</v>
       </c>
-      <c r="F62" s="15" t="inlineStr">
+      <c r="F63" s="15" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="63">
-      <c r="B63" s="15" t="n"/>
-      <c r="C63" s="15" t="n"/>
-      <c r="D63" s="15" t="n"/>
-      <c r="E63" s="15" t="n">
+    <row r="64">
+      <c r="B64" s="15" t="n"/>
+      <c r="C64" s="15" t="n"/>
+      <c r="D64" s="15" t="n"/>
+      <c r="E64" s="15" t="n">
         <v>14</v>
       </c>
-      <c r="F63" s="15" t="inlineStr">
+      <c r="F64" s="15" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="64">
-      <c r="B64" s="19" t="n"/>
-      <c r="C64" s="19" t="n"/>
-      <c r="D64" s="19" t="n"/>
-      <c r="E64" s="19" t="n">
+    <row r="65">
+      <c r="B65" s="19" t="n"/>
+      <c r="C65" s="19" t="n"/>
+      <c r="D65" s="19" t="n"/>
+      <c r="E65" s="19" t="n">
         <v>15</v>
       </c>
-      <c r="F64" s="19" t="inlineStr">
+      <c r="F65" s="19" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G64" s="7" t="n"/>
-      <c r="H64" s="7" t="n"/>
-      <c r="I64" s="7" t="n"/>
-      <c r="J64" s="7" t="n"/>
-      <c r="K64" s="7" t="n"/>
-      <c r="L64" s="7" t="n"/>
-    </row>
-    <row r="65">
-      <c r="B65" s="15" t="n">
+      <c r="G65" s="7" t="n"/>
+      <c r="H65" s="7" t="n"/>
+      <c r="I65" s="7" t="n"/>
+      <c r="J65" s="7" t="n"/>
+      <c r="K65" s="7" t="n"/>
+    </row>
+    <row r="66">
+      <c r="B66" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="C65" s="15" t="n">
+      <c r="C66" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="D65" s="15" t="n">
+      <c r="D66" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="E65" s="15" t="n">
+      <c r="E66" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="F65" s="15" t="inlineStr">
+      <c r="F66" s="15" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="66">
-      <c r="B66" s="15" t="n"/>
-      <c r="C66" s="15" t="n"/>
-      <c r="D66" s="15" t="n"/>
-      <c r="E66" s="15" t="n">
+    <row r="67">
+      <c r="B67" s="15" t="n"/>
+      <c r="C67" s="15" t="n"/>
+      <c r="D67" s="15" t="n"/>
+      <c r="E67" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="F66" s="15" t="inlineStr">
+      <c r="F67" s="15" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="67">
-      <c r="B67" s="19" t="n"/>
-      <c r="C67" s="19" t="n"/>
-      <c r="D67" s="19" t="n"/>
-      <c r="E67" s="19" t="n">
+    <row r="68">
+      <c r="B68" s="19" t="n"/>
+      <c r="C68" s="19" t="n"/>
+      <c r="D68" s="19" t="n"/>
+      <c r="E68" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="F67" s="19" t="inlineStr">
+      <c r="F68" s="19" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G67" s="7" t="n"/>
-      <c r="H67" s="7" t="n"/>
-      <c r="I67" s="7" t="n"/>
-      <c r="J67" s="7" t="n"/>
-      <c r="K67" s="7" t="n"/>
-      <c r="L67" s="7" t="n"/>
-    </row>
-    <row r="68">
-      <c r="B68" s="15" t="n">
+      <c r="G68" s="7" t="n"/>
+      <c r="H68" s="7" t="n"/>
+      <c r="I68" s="7" t="n"/>
+      <c r="J68" s="7" t="n"/>
+      <c r="K68" s="7" t="n"/>
+    </row>
+    <row r="69">
+      <c r="B69" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="C68" s="15" t="n">
+      <c r="C69" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="D68" s="15" t="n">
+      <c r="D69" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="E68" s="15" t="n">
+      <c r="E69" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="F68" s="15" t="inlineStr">
+      <c r="F69" s="15" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="69">
-      <c r="B69" s="15" t="n"/>
-      <c r="C69" s="15" t="n"/>
-      <c r="D69" s="15" t="n"/>
-      <c r="E69" s="15" t="n">
+    <row r="70">
+      <c r="B70" s="15" t="n"/>
+      <c r="C70" s="15" t="n"/>
+      <c r="D70" s="15" t="n"/>
+      <c r="E70" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="F69" s="15" t="inlineStr">
+      <c r="F70" s="15" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="70">
-      <c r="B70" s="19" t="n"/>
-      <c r="C70" s="19" t="n"/>
-      <c r="D70" s="19" t="n"/>
-      <c r="E70" s="19" t="n">
+    <row r="71">
+      <c r="B71" s="19" t="n"/>
+      <c r="C71" s="19" t="n"/>
+      <c r="D71" s="19" t="n"/>
+      <c r="E71" s="19" t="n">
         <v>6</v>
       </c>
-      <c r="F70" s="19" t="inlineStr">
+      <c r="F71" s="19" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G70" s="7" t="n"/>
-      <c r="H70" s="7" t="n"/>
-      <c r="I70" s="7" t="n"/>
-      <c r="J70" s="7" t="n"/>
-      <c r="K70" s="7" t="n"/>
-      <c r="L70" s="7" t="n"/>
-    </row>
-    <row r="71">
-      <c r="B71" s="15" t="n">
+      <c r="G71" s="7" t="n"/>
+      <c r="H71" s="7" t="n"/>
+      <c r="I71" s="7" t="n"/>
+      <c r="J71" s="7" t="n"/>
+      <c r="K71" s="7" t="n"/>
+    </row>
+    <row r="72">
+      <c r="B72" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="C71" s="15" t="n">
+      <c r="C72" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="D71" s="15" t="n">
+      <c r="D72" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="E71" s="15" t="n">
+      <c r="E72" s="15" t="n">
         <v>7</v>
       </c>
-      <c r="F71" s="15" t="inlineStr">
+      <c r="F72" s="15" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="72">
-      <c r="B72" s="15" t="n"/>
-      <c r="C72" s="15" t="n"/>
-      <c r="D72" s="15" t="n"/>
-      <c r="E72" s="15" t="n">
+    <row r="73">
+      <c r="B73" s="15" t="n"/>
+      <c r="C73" s="15" t="n"/>
+      <c r="D73" s="15" t="n"/>
+      <c r="E73" s="15" t="n">
         <v>8</v>
       </c>
-      <c r="F72" s="15" t="inlineStr">
+      <c r="F73" s="15" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="73">
-      <c r="B73" s="19" t="n"/>
-      <c r="C73" s="19" t="n"/>
-      <c r="D73" s="19" t="n"/>
-      <c r="E73" s="19" t="n">
+    <row r="74">
+      <c r="B74" s="19" t="n"/>
+      <c r="C74" s="19" t="n"/>
+      <c r="D74" s="19" t="n"/>
+      <c r="E74" s="19" t="n">
         <v>9</v>
       </c>
-      <c r="F73" s="19" t="inlineStr">
+      <c r="F74" s="19" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G73" s="7" t="n"/>
-      <c r="H73" s="7" t="n"/>
-      <c r="I73" s="7" t="n"/>
-      <c r="J73" s="7" t="n"/>
-      <c r="K73" s="7" t="n"/>
-      <c r="L73" s="7" t="n"/>
-    </row>
-    <row r="74">
-      <c r="B74" s="15" t="n">
+      <c r="G74" s="7" t="n"/>
+      <c r="H74" s="7" t="n"/>
+      <c r="I74" s="7" t="n"/>
+      <c r="J74" s="7" t="n"/>
+      <c r="K74" s="7" t="n"/>
+    </row>
+    <row r="75">
+      <c r="B75" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="C74" s="15" t="n">
+      <c r="C75" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="D74" s="15" t="n">
+      <c r="D75" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="E74" s="15" t="n">
+      <c r="E75" s="15" t="n">
         <v>10</v>
       </c>
-      <c r="F74" s="15" t="inlineStr">
+      <c r="F75" s="15" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="75">
-      <c r="B75" s="15" t="n"/>
-      <c r="C75" s="15" t="n"/>
-      <c r="D75" s="15" t="n"/>
-      <c r="E75" s="15" t="n">
+    <row r="76">
+      <c r="B76" s="15" t="n"/>
+      <c r="C76" s="15" t="n"/>
+      <c r="D76" s="15" t="n"/>
+      <c r="E76" s="15" t="n">
         <v>11</v>
       </c>
-      <c r="F75" s="15" t="inlineStr">
+      <c r="F76" s="15" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="7" t="n"/>
-      <c r="B76" s="19" t="n"/>
-      <c r="C76" s="19" t="n"/>
-      <c r="D76" s="19" t="n"/>
-      <c r="E76" s="19" t="n">
+    <row r="77">
+      <c r="A77" s="7" t="n"/>
+      <c r="B77" s="19" t="n"/>
+      <c r="C77" s="19" t="n"/>
+      <c r="D77" s="19" t="n"/>
+      <c r="E77" s="19" t="n">
         <v>12</v>
       </c>
-      <c r="F76" s="19" t="inlineStr">
+      <c r="F77" s="19" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G76" s="7" t="n"/>
-      <c r="H76" s="7" t="n"/>
-      <c r="I76" s="7" t="n"/>
-      <c r="J76" s="7" t="n"/>
-      <c r="K76" s="7" t="n"/>
-      <c r="L76" s="7" t="n"/>
+      <c r="G77" s="7" t="n"/>
+      <c r="H77" s="7" t="n"/>
+      <c r="I77" s="7" t="n"/>
+      <c r="J77" s="7" t="n"/>
+      <c r="K77" s="7" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="L1:M1"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/mitchell10x3.xlsx
+++ b/mitchell10x3.xlsx
@@ -87,21 +87,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -121,6 +125,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -489,7 +495,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,14 +510,14 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>For public domain. No rights reserved. 2026.</t>
+          <t>For public domain. No rights reserved. Generated on Feb 08, 2026.</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Mitchell Tournament Scoring</t>
+          <t>Mitchell Tournament</t>
         </is>
       </c>
     </row>
@@ -538,42 +544,27 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>Boards per Round</t>
+          <t>Rounds</t>
         </is>
       </c>
       <c r="C5" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Boards per round</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>NS Pairs</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>IMP</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Name 17</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Name 29</t>
         </is>
       </c>
       <c r="D8" s="4">
@@ -587,141 +578,133 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Name 27</t>
+          <t>Name 83</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Name 40</t>
-        </is>
-      </c>
-      <c r="D9" s="4">
+          <t>Name 13</t>
+        </is>
+      </c>
+      <c r="D9" s="6">
         <f>SUMIF('By Board'!D3:D78,"="&amp;A9,'By Board'!N3:N78)/15</f>
         <v/>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="7">
         <f>SUMIF('By Board'!D3:D78,"="&amp;A9,'By Board'!L3:L78)</f>
         <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Name 77</t>
+          <t>Name 62</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Name 80</t>
-        </is>
-      </c>
-      <c r="D10" s="4">
+          <t>Name 78</t>
+        </is>
+      </c>
+      <c r="D10" s="6">
         <f>SUMIF('By Board'!D3:D78,"="&amp;A10,'By Board'!N3:N78)/15</f>
         <v/>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="7">
         <f>SUMIF('By Board'!D3:D78,"="&amp;A10,'By Board'!L3:L78)</f>
         <v/>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Name 64</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Name 58</t>
+        </is>
+      </c>
+      <c r="D11" s="6">
+        <f>SUMIF('By Board'!D3:D78,"="&amp;A11,'By Board'!N3:N78)/15</f>
+        <v/>
+      </c>
+      <c r="E11" s="7">
+        <f>SUMIF('By Board'!D3:D78,"="&amp;A11,'By Board'!L3:L78)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Name 55</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Name 70</t>
-        </is>
-      </c>
-      <c r="D11" s="4">
-        <f>SUMIF('By Board'!D3:D78,"="&amp;A11,'By Board'!N3:N78)/15</f>
-        <v/>
-      </c>
-      <c r="E11" s="5">
-        <f>SUMIF('By Board'!D3:D78,"="&amp;A11,'By Board'!L3:L78)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="6" t="n">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Name 20</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Name 51</t>
+        </is>
+      </c>
+      <c r="D12" s="6">
+        <f>SUMIF('By Board'!D3:D78,"="&amp;A12,'By Board'!N3:N78)/15</f>
+        <v/>
+      </c>
+      <c r="E12" s="7">
+        <f>SUMIF('By Board'!D3:D78,"="&amp;A12,'By Board'!L3:L78)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="B12" s="7" t="inlineStr">
+      <c r="B13" s="9" t="inlineStr">
+        <is>
+          <t>Name 81</t>
+        </is>
+      </c>
+      <c r="C13" s="9" t="inlineStr">
         <is>
           <t>Name 61</t>
         </is>
       </c>
-      <c r="C12" s="7" t="inlineStr">
-        <is>
-          <t>Name 56</t>
-        </is>
-      </c>
-      <c r="D12" s="8">
-        <f>SUMIF('By Board'!D3:D78,"="&amp;A12,'By Board'!N3:N78)/15</f>
-        <v/>
-      </c>
-      <c r="E12" s="9">
-        <f>SUMIF('By Board'!D3:D78,"="&amp;A12,'By Board'!L3:L78)</f>
-        <v/>
-      </c>
-      <c r="F12" s="7" t="n"/>
-    </row>
-    <row r="13">
-      <c r="C13" s="10" t="inlineStr">
+      <c r="D13" s="9" t="n"/>
+      <c r="E13" s="9" t="n"/>
+      <c r="F13" s="9" t="n"/>
+    </row>
+    <row r="14">
+      <c r="C14" s="10" t="inlineStr">
         <is>
           <t>Average</t>
         </is>
       </c>
-      <c r="D13" s="11">
-        <f>AVERAGE(D8:D12)</f>
-        <v/>
-      </c>
-      <c r="E13" s="12">
-        <f>SUM(F8:F12)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="inlineStr">
+      <c r="D14" s="11">
+        <f>AVERAGE(D9:D13)</f>
+        <v/>
+      </c>
+      <c r="E14" s="12">
+        <f>SUM(F9:F13)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
         <is>
           <t>EW Pairs</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>IMP</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Name 89</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Name 62</t>
         </is>
       </c>
       <c r="D16" s="4">
@@ -735,120 +718,138 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Name 12</t>
+          <t>Name 82</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Name 36</t>
-        </is>
-      </c>
-      <c r="D17" s="4">
+          <t>Name 63</t>
+        </is>
+      </c>
+      <c r="D17" s="6">
         <f>SUMIF('By Board'!E3:E78,"="&amp;A17,'By Board'!O3:O78)/15</f>
         <v/>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="7">
         <f>SUMIF('By Board'!E3:E78,"="&amp;A17,'By Board'!M3:M78)</f>
         <v/>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Name 22</t>
+          <t>Name 29</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Name 26</t>
-        </is>
-      </c>
-      <c r="D18" s="4">
+          <t>Name 73</t>
+        </is>
+      </c>
+      <c r="D18" s="6">
         <f>SUMIF('By Board'!E3:E78,"="&amp;A18,'By Board'!O3:O78)/15</f>
         <v/>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="7">
         <f>SUMIF('By Board'!E3:E78,"="&amp;A18,'By Board'!M3:M78)</f>
         <v/>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Name 24</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Name 52</t>
+        </is>
+      </c>
+      <c r="D19" s="6">
+        <f>SUMIF('By Board'!E3:E78,"="&amp;A19,'By Board'!O3:O78)/15</f>
+        <v/>
+      </c>
+      <c r="E19" s="7">
+        <f>SUMIF('By Board'!E3:E78,"="&amp;A19,'By Board'!M3:M78)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Name 75</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Name 79</t>
-        </is>
-      </c>
-      <c r="D19" s="4">
-        <f>SUMIF('By Board'!E3:E78,"="&amp;A19,'By Board'!O3:O78)/15</f>
-        <v/>
-      </c>
-      <c r="E19" s="5">
-        <f>SUMIF('By Board'!E3:E78,"="&amp;A19,'By Board'!M3:M78)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="6" t="n">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Name 63</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Name 61</t>
+        </is>
+      </c>
+      <c r="D20" s="6">
+        <f>SUMIF('By Board'!E3:E78,"="&amp;A20,'By Board'!O3:O78)/15</f>
+        <v/>
+      </c>
+      <c r="E20" s="7">
+        <f>SUMIF('By Board'!E3:E78,"="&amp;A20,'By Board'!M3:M78)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="B20" s="7" t="inlineStr">
-        <is>
-          <t>Name 15</t>
-        </is>
-      </c>
-      <c r="C20" s="7" t="inlineStr">
-        <is>
-          <t>Name 42</t>
-        </is>
-      </c>
-      <c r="D20" s="8">
-        <f>SUMIF('By Board'!E3:E78,"="&amp;A20,'By Board'!O3:O78)/15</f>
-        <v/>
-      </c>
-      <c r="E20" s="9">
-        <f>SUMIF('By Board'!E3:E78,"="&amp;A20,'By Board'!M3:M78)</f>
-        <v/>
-      </c>
-      <c r="F20" s="7" t="n"/>
-    </row>
-    <row r="21">
-      <c r="C21" s="10" t="inlineStr">
+      <c r="B21" s="9" t="inlineStr">
+        <is>
+          <t>Name 31</t>
+        </is>
+      </c>
+      <c r="C21" s="9" t="inlineStr">
+        <is>
+          <t>Name 83</t>
+        </is>
+      </c>
+      <c r="D21" s="9" t="n"/>
+      <c r="E21" s="9" t="n"/>
+      <c r="F21" s="9" t="n"/>
+    </row>
+    <row r="22">
+      <c r="C22" s="10" t="inlineStr">
         <is>
           <t>Average</t>
         </is>
       </c>
-      <c r="D21" s="11">
-        <f>AVERAGE(D16:D20)</f>
-        <v/>
-      </c>
-      <c r="E21" s="12">
-        <f>SUM(F16:F20)</f>
+      <c r="D22" s="11">
+        <f>AVERAGE(D17:D21)</f>
+        <v/>
+      </c>
+      <c r="E22" s="12">
+        <f>SUM(F17:F21)</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A8:C8"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A7:C7"/>
     <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A16:C16"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1073,15 +1074,15 @@
         <f>SUM(AB3:AE3)</f>
         <v/>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="7">
         <f>SUM(AF3:AI3)</f>
         <v/>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="6">
         <f>IF(COUNT(T3:W3)&gt;0,P3/COUNT(T3:W3),0.5)</f>
         <v/>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="6">
         <f>IF(COUNT(X3:AA3)&gt;0,Q3/COUNT(X3:AA3),0.5)</f>
         <v/>
       </c>
@@ -1211,15 +1212,15 @@
         <f>SUM(AB4:AE4)</f>
         <v/>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="7">
         <f>SUM(AF4:AI4)</f>
         <v/>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="6">
         <f>IF(COUNT(T4:W4)&gt;0,P4/COUNT(T4:W4),0.5)</f>
         <v/>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="6">
         <f>IF(COUNT(X4:AA4)&gt;0,Q4/COUNT(X4:AA4),0.5)</f>
         <v/>
       </c>
@@ -1349,15 +1350,15 @@
         <f>SUM(AB5:AE5)</f>
         <v/>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="7">
         <f>SUM(AF5:AI5)</f>
         <v/>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="6">
         <f>IF(COUNT(T5:W5)&gt;0,P5/COUNT(T5:W5),0.5)</f>
         <v/>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="6">
         <f>IF(COUNT(X5:AA5)&gt;0,Q5/COUNT(X5:AA5),0.5)</f>
         <v/>
       </c>
@@ -1487,15 +1488,15 @@
         <f>SUM(AB6:AE6)</f>
         <v/>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="7">
         <f>SUM(AF6:AI6)</f>
         <v/>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="6">
         <f>IF(COUNT(T6:W6)&gt;0,P6/COUNT(T6:W6),0.5)</f>
         <v/>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="6">
         <f>IF(COUNT(X6:AA6)&gt;0,Q6/COUNT(X6:AA6),0.5)</f>
         <v/>
       </c>
@@ -1581,7 +1582,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="7" t="n"/>
+      <c r="A7" s="9" t="n"/>
       <c r="B7" s="19">
         <f>'By Round'!A63</f>
         <v/>
@@ -1602,23 +1603,23 @@
         <f>IF(ISBLANK('By Round'!F66),"",'By Round'!F66)</f>
         <v/>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="9">
         <f>IF(ISBLANK('By Round'!G66),"",'By Round'!G66)</f>
         <v/>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="9">
         <f>IF(ISBLANK('By Round'!H66),"",'By Round'!H66)</f>
         <v/>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="9">
         <f>IF(ISBLANK('By Round'!I66),"",'By Round'!I66)</f>
         <v/>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="9">
         <f>IF(ISBLANK('By Round'!J66),"",'By Round'!J66)</f>
         <v/>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="9">
         <f>IF(ISBLANK('By Round'!K66),"",'By Round'!K66)</f>
         <v/>
       </c>
@@ -1626,95 +1627,95 @@
         <f>SUM(AB7:AE7)</f>
         <v/>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="21">
         <f>SUM(AF7:AI7)</f>
         <v/>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="22">
         <f>IF(COUNT(T7:W7)&gt;0,P7/COUNT(T7:W7),0.5)</f>
         <v/>
       </c>
-      <c r="O7" s="8">
+      <c r="O7" s="22">
         <f>IF(COUNT(X7:AA7)&gt;0,Q7/COUNT(X7:AA7),0.5)</f>
         <v/>
       </c>
-      <c r="P7" s="21">
+      <c r="P7" s="23">
         <f>SUM(T7:W7)</f>
         <v/>
       </c>
-      <c r="Q7" s="21">
+      <c r="Q7" s="23">
         <f>SUM(X7:AA7)</f>
         <v/>
       </c>
-      <c r="R7" s="22">
+      <c r="R7" s="24">
         <f>IF(ISNUMBER(J7),J7,IF(ISNUMBER(K7),-K7,""))</f>
         <v/>
       </c>
-      <c r="S7" s="7">
+      <c r="S7" s="9">
         <f>IF(ISNUMBER(K7),K7,IF(ISNUMBER(J7),-J7,""))</f>
         <v/>
       </c>
-      <c r="T7" s="22">
+      <c r="T7" s="24">
         <f>IF(ISNUMBER(R7),IF(ISNUMBER(R3),IF(R7&gt;R3,1.0,IF(R7=R3,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="U7" s="7">
+      <c r="U7" s="9">
         <f>IF(ISNUMBER(R7),IF(ISNUMBER(R4),IF(R7&gt;R4,1.0,IF(R7=R4,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="V7" s="7">
+      <c r="V7" s="9">
         <f>IF(ISNUMBER(R7),IF(ISNUMBER(R5),IF(R7&gt;R5,1.0,IF(R7=R5,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="W7" s="7">
+      <c r="W7" s="9">
         <f>IF(ISNUMBER(R7),IF(ISNUMBER(R6),IF(R7&gt;R6,1.0,IF(R7=R6,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="X7" s="7">
+      <c r="X7" s="9">
         <f>IF(ISNUMBER(S7),IF(ISNUMBER(S3),IF(S7&gt;S3,1.0,IF(S7=S3,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="Y7" s="7">
+      <c r="Y7" s="9">
         <f>IF(ISNUMBER(S7),IF(ISNUMBER(S4),IF(S7&gt;S4,1.0,IF(S7=S4,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="Z7" s="7">
+      <c r="Z7" s="9">
         <f>IF(ISNUMBER(S7),IF(ISNUMBER(S5),IF(S7&gt;S5,1.0,IF(S7=S5,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="AA7" s="7">
+      <c r="AA7" s="9">
         <f>IF(ISNUMBER(S7),IF(ISNUMBER(S6),IF(S7&gt;S6,1.0,IF(S7=S6,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="AB7" s="22">
+      <c r="AB7" s="24">
         <f>IF(AND(ISNUMBER(R7),ISNUMBER(R3)),VLOOKUP(ABS(R7-R3),'IMP Table'!$A$2:$C$26,3)*SIGN(R7-R3),0)</f>
         <v/>
       </c>
-      <c r="AC7" s="7">
+      <c r="AC7" s="9">
         <f>IF(AND(ISNUMBER(R7),ISNUMBER(R4)),VLOOKUP(ABS(R7-R4),'IMP Table'!$A$2:$C$26,3)*SIGN(R7-R4),0)</f>
         <v/>
       </c>
-      <c r="AD7" s="7">
+      <c r="AD7" s="9">
         <f>IF(AND(ISNUMBER(R7),ISNUMBER(R5)),VLOOKUP(ABS(R7-R5),'IMP Table'!$A$2:$C$26,3)*SIGN(R7-R5),0)</f>
         <v/>
       </c>
-      <c r="AE7" s="7">
+      <c r="AE7" s="9">
         <f>IF(AND(ISNUMBER(R7),ISNUMBER(R6)),VLOOKUP(ABS(R7-R6),'IMP Table'!$A$2:$C$26,3)*SIGN(R7-R6),0)</f>
         <v/>
       </c>
-      <c r="AF7" s="7">
+      <c r="AF7" s="9">
         <f>IF(AND(ISNUMBER(S7),ISNUMBER(S3)),VLOOKUP(ABS(S7-S3),'IMP Table'!$A$2:$C$26,3)*SIGN(S7-S3),0)</f>
         <v/>
       </c>
-      <c r="AG7" s="7">
+      <c r="AG7" s="9">
         <f>IF(AND(ISNUMBER(S7),ISNUMBER(S4)),VLOOKUP(ABS(S7-S4),'IMP Table'!$A$2:$C$26,3)*SIGN(S7-S4),0)</f>
         <v/>
       </c>
-      <c r="AH7" s="7">
+      <c r="AH7" s="9">
         <f>IF(AND(ISNUMBER(S7),ISNUMBER(S5)),VLOOKUP(ABS(S7-S5),'IMP Table'!$A$2:$C$26,3)*SIGN(S7-S5),0)</f>
         <v/>
       </c>
-      <c r="AI7" s="7">
+      <c r="AI7" s="9">
         <f>IF(AND(ISNUMBER(S7),ISNUMBER(S6)),VLOOKUP(ABS(S7-S6),'IMP Table'!$A$2:$C$26,3)*SIGN(S7-S6),0)</f>
         <v/>
       </c>
@@ -1767,15 +1768,15 @@
         <f>SUM(AB8:AE8)</f>
         <v/>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="7">
         <f>SUM(AF8:AI8)</f>
         <v/>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="6">
         <f>IF(COUNT(T8:W8)&gt;0,P8/COUNT(T8:W8),0.5)</f>
         <v/>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="6">
         <f>IF(COUNT(X8:AA8)&gt;0,Q8/COUNT(X8:AA8),0.5)</f>
         <v/>
       </c>
@@ -1905,15 +1906,15 @@
         <f>SUM(AB9:AE9)</f>
         <v/>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="7">
         <f>SUM(AF9:AI9)</f>
         <v/>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="6">
         <f>IF(COUNT(T9:W9)&gt;0,P9/COUNT(T9:W9),0.5)</f>
         <v/>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="6">
         <f>IF(COUNT(X9:AA9)&gt;0,Q9/COUNT(X9:AA9),0.5)</f>
         <v/>
       </c>
@@ -2043,15 +2044,15 @@
         <f>SUM(AB10:AE10)</f>
         <v/>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="7">
         <f>SUM(AF10:AI10)</f>
         <v/>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="6">
         <f>IF(COUNT(T10:W10)&gt;0,P10/COUNT(T10:W10),0.5)</f>
         <v/>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="6">
         <f>IF(COUNT(X10:AA10)&gt;0,Q10/COUNT(X10:AA10),0.5)</f>
         <v/>
       </c>
@@ -2181,15 +2182,15 @@
         <f>SUM(AB11:AE11)</f>
         <v/>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="7">
         <f>SUM(AF11:AI11)</f>
         <v/>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="6">
         <f>IF(COUNT(T11:W11)&gt;0,P11/COUNT(T11:W11),0.5)</f>
         <v/>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="6">
         <f>IF(COUNT(X11:AA11)&gt;0,Q11/COUNT(X11:AA11),0.5)</f>
         <v/>
       </c>
@@ -2275,7 +2276,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="7" t="n"/>
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="19">
         <f>'By Round'!A63</f>
         <v/>
@@ -2296,23 +2297,23 @@
         <f>IF(ISBLANK('By Round'!F67),"",'By Round'!F67)</f>
         <v/>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="9">
         <f>IF(ISBLANK('By Round'!G67),"",'By Round'!G67)</f>
         <v/>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="9">
         <f>IF(ISBLANK('By Round'!H67),"",'By Round'!H67)</f>
         <v/>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="9">
         <f>IF(ISBLANK('By Round'!I67),"",'By Round'!I67)</f>
         <v/>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="9">
         <f>IF(ISBLANK('By Round'!J67),"",'By Round'!J67)</f>
         <v/>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="9">
         <f>IF(ISBLANK('By Round'!K67),"",'By Round'!K67)</f>
         <v/>
       </c>
@@ -2320,95 +2321,95 @@
         <f>SUM(AB12:AE12)</f>
         <v/>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="21">
         <f>SUM(AF12:AI12)</f>
         <v/>
       </c>
-      <c r="N12" s="8">
+      <c r="N12" s="22">
         <f>IF(COUNT(T12:W12)&gt;0,P12/COUNT(T12:W12),0.5)</f>
         <v/>
       </c>
-      <c r="O12" s="8">
+      <c r="O12" s="22">
         <f>IF(COUNT(X12:AA12)&gt;0,Q12/COUNT(X12:AA12),0.5)</f>
         <v/>
       </c>
-      <c r="P12" s="21">
+      <c r="P12" s="23">
         <f>SUM(T12:W12)</f>
         <v/>
       </c>
-      <c r="Q12" s="21">
+      <c r="Q12" s="23">
         <f>SUM(X12:AA12)</f>
         <v/>
       </c>
-      <c r="R12" s="22">
+      <c r="R12" s="24">
         <f>IF(ISNUMBER(J12),J12,IF(ISNUMBER(K12),-K12,""))</f>
         <v/>
       </c>
-      <c r="S12" s="7">
+      <c r="S12" s="9">
         <f>IF(ISNUMBER(K12),K12,IF(ISNUMBER(J12),-J12,""))</f>
         <v/>
       </c>
-      <c r="T12" s="22">
+      <c r="T12" s="24">
         <f>IF(ISNUMBER(R12),IF(ISNUMBER(R8),IF(R12&gt;R8,1.0,IF(R12=R8,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="U12" s="7">
+      <c r="U12" s="9">
         <f>IF(ISNUMBER(R12),IF(ISNUMBER(R9),IF(R12&gt;R9,1.0,IF(R12=R9,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="V12" s="7">
+      <c r="V12" s="9">
         <f>IF(ISNUMBER(R12),IF(ISNUMBER(R10),IF(R12&gt;R10,1.0,IF(R12=R10,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="W12" s="7">
+      <c r="W12" s="9">
         <f>IF(ISNUMBER(R12),IF(ISNUMBER(R11),IF(R12&gt;R11,1.0,IF(R12=R11,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="X12" s="7">
+      <c r="X12" s="9">
         <f>IF(ISNUMBER(S12),IF(ISNUMBER(S8),IF(S12&gt;S8,1.0,IF(S12=S8,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="Y12" s="7">
+      <c r="Y12" s="9">
         <f>IF(ISNUMBER(S12),IF(ISNUMBER(S9),IF(S12&gt;S9,1.0,IF(S12=S9,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="Z12" s="7">
+      <c r="Z12" s="9">
         <f>IF(ISNUMBER(S12),IF(ISNUMBER(S10),IF(S12&gt;S10,1.0,IF(S12=S10,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="AA12" s="7">
+      <c r="AA12" s="9">
         <f>IF(ISNUMBER(S12),IF(ISNUMBER(S11),IF(S12&gt;S11,1.0,IF(S12=S11,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="AB12" s="22">
+      <c r="AB12" s="24">
         <f>IF(AND(ISNUMBER(R12),ISNUMBER(R8)),VLOOKUP(ABS(R12-R8),'IMP Table'!$A$2:$C$26,3)*SIGN(R12-R8),0)</f>
         <v/>
       </c>
-      <c r="AC12" s="7">
+      <c r="AC12" s="9">
         <f>IF(AND(ISNUMBER(R12),ISNUMBER(R9)),VLOOKUP(ABS(R12-R9),'IMP Table'!$A$2:$C$26,3)*SIGN(R12-R9),0)</f>
         <v/>
       </c>
-      <c r="AD12" s="7">
+      <c r="AD12" s="9">
         <f>IF(AND(ISNUMBER(R12),ISNUMBER(R10)),VLOOKUP(ABS(R12-R10),'IMP Table'!$A$2:$C$26,3)*SIGN(R12-R10),0)</f>
         <v/>
       </c>
-      <c r="AE12" s="7">
+      <c r="AE12" s="9">
         <f>IF(AND(ISNUMBER(R12),ISNUMBER(R11)),VLOOKUP(ABS(R12-R11),'IMP Table'!$A$2:$C$26,3)*SIGN(R12-R11),0)</f>
         <v/>
       </c>
-      <c r="AF12" s="7">
+      <c r="AF12" s="9">
         <f>IF(AND(ISNUMBER(S12),ISNUMBER(S8)),VLOOKUP(ABS(S12-S8),'IMP Table'!$A$2:$C$26,3)*SIGN(S12-S8),0)</f>
         <v/>
       </c>
-      <c r="AG12" s="7">
+      <c r="AG12" s="9">
         <f>IF(AND(ISNUMBER(S12),ISNUMBER(S9)),VLOOKUP(ABS(S12-S9),'IMP Table'!$A$2:$C$26,3)*SIGN(S12-S9),0)</f>
         <v/>
       </c>
-      <c r="AH12" s="7">
+      <c r="AH12" s="9">
         <f>IF(AND(ISNUMBER(S12),ISNUMBER(S10)),VLOOKUP(ABS(S12-S10),'IMP Table'!$A$2:$C$26,3)*SIGN(S12-S10),0)</f>
         <v/>
       </c>
-      <c r="AI12" s="7">
+      <c r="AI12" s="9">
         <f>IF(AND(ISNUMBER(S12),ISNUMBER(S11)),VLOOKUP(ABS(S12-S11),'IMP Table'!$A$2:$C$26,3)*SIGN(S12-S11),0)</f>
         <v/>
       </c>
@@ -2461,15 +2462,15 @@
         <f>SUM(AB13:AE13)</f>
         <v/>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="7">
         <f>SUM(AF13:AI13)</f>
         <v/>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="6">
         <f>IF(COUNT(T13:W13)&gt;0,P13/COUNT(T13:W13),0.5)</f>
         <v/>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" s="6">
         <f>IF(COUNT(X13:AA13)&gt;0,Q13/COUNT(X13:AA13),0.5)</f>
         <v/>
       </c>
@@ -2599,15 +2600,15 @@
         <f>SUM(AB14:AE14)</f>
         <v/>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="7">
         <f>SUM(AF14:AI14)</f>
         <v/>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="6">
         <f>IF(COUNT(T14:W14)&gt;0,P14/COUNT(T14:W14),0.5)</f>
         <v/>
       </c>
-      <c r="O14" s="4">
+      <c r="O14" s="6">
         <f>IF(COUNT(X14:AA14)&gt;0,Q14/COUNT(X14:AA14),0.5)</f>
         <v/>
       </c>
@@ -2737,15 +2738,15 @@
         <f>SUM(AB15:AE15)</f>
         <v/>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="7">
         <f>SUM(AF15:AI15)</f>
         <v/>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="6">
         <f>IF(COUNT(T15:W15)&gt;0,P15/COUNT(T15:W15),0.5)</f>
         <v/>
       </c>
-      <c r="O15" s="4">
+      <c r="O15" s="6">
         <f>IF(COUNT(X15:AA15)&gt;0,Q15/COUNT(X15:AA15),0.5)</f>
         <v/>
       </c>
@@ -2875,15 +2876,15 @@
         <f>SUM(AB16:AE16)</f>
         <v/>
       </c>
-      <c r="M16" s="5">
+      <c r="M16" s="7">
         <f>SUM(AF16:AI16)</f>
         <v/>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="6">
         <f>IF(COUNT(T16:W16)&gt;0,P16/COUNT(T16:W16),0.5)</f>
         <v/>
       </c>
-      <c r="O16" s="4">
+      <c r="O16" s="6">
         <f>IF(COUNT(X16:AA16)&gt;0,Q16/COUNT(X16:AA16),0.5)</f>
         <v/>
       </c>
@@ -2969,7 +2970,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="7" t="n"/>
+      <c r="A17" s="9" t="n"/>
       <c r="B17" s="19">
         <f>'By Round'!A63</f>
         <v/>
@@ -2990,23 +2991,23 @@
         <f>IF(ISBLANK('By Round'!F68),"",'By Round'!F68)</f>
         <v/>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="9">
         <f>IF(ISBLANK('By Round'!G68),"",'By Round'!G68)</f>
         <v/>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="9">
         <f>IF(ISBLANK('By Round'!H68),"",'By Round'!H68)</f>
         <v/>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="9">
         <f>IF(ISBLANK('By Round'!I68),"",'By Round'!I68)</f>
         <v/>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="9">
         <f>IF(ISBLANK('By Round'!J68),"",'By Round'!J68)</f>
         <v/>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="9">
         <f>IF(ISBLANK('By Round'!K68),"",'By Round'!K68)</f>
         <v/>
       </c>
@@ -3014,95 +3015,95 @@
         <f>SUM(AB17:AE17)</f>
         <v/>
       </c>
-      <c r="M17" s="9">
+      <c r="M17" s="21">
         <f>SUM(AF17:AI17)</f>
         <v/>
       </c>
-      <c r="N17" s="8">
+      <c r="N17" s="22">
         <f>IF(COUNT(T17:W17)&gt;0,P17/COUNT(T17:W17),0.5)</f>
         <v/>
       </c>
-      <c r="O17" s="8">
+      <c r="O17" s="22">
         <f>IF(COUNT(X17:AA17)&gt;0,Q17/COUNT(X17:AA17),0.5)</f>
         <v/>
       </c>
-      <c r="P17" s="21">
+      <c r="P17" s="23">
         <f>SUM(T17:W17)</f>
         <v/>
       </c>
-      <c r="Q17" s="21">
+      <c r="Q17" s="23">
         <f>SUM(X17:AA17)</f>
         <v/>
       </c>
-      <c r="R17" s="22">
+      <c r="R17" s="24">
         <f>IF(ISNUMBER(J17),J17,IF(ISNUMBER(K17),-K17,""))</f>
         <v/>
       </c>
-      <c r="S17" s="7">
+      <c r="S17" s="9">
         <f>IF(ISNUMBER(K17),K17,IF(ISNUMBER(J17),-J17,""))</f>
         <v/>
       </c>
-      <c r="T17" s="22">
+      <c r="T17" s="24">
         <f>IF(ISNUMBER(R17),IF(ISNUMBER(R13),IF(R17&gt;R13,1.0,IF(R17=R13,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="U17" s="7">
+      <c r="U17" s="9">
         <f>IF(ISNUMBER(R17),IF(ISNUMBER(R14),IF(R17&gt;R14,1.0,IF(R17=R14,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="V17" s="7">
+      <c r="V17" s="9">
         <f>IF(ISNUMBER(R17),IF(ISNUMBER(R15),IF(R17&gt;R15,1.0,IF(R17=R15,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="W17" s="7">
+      <c r="W17" s="9">
         <f>IF(ISNUMBER(R17),IF(ISNUMBER(R16),IF(R17&gt;R16,1.0,IF(R17=R16,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="X17" s="7">
+      <c r="X17" s="9">
         <f>IF(ISNUMBER(S17),IF(ISNUMBER(S13),IF(S17&gt;S13,1.0,IF(S17=S13,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="Y17" s="7">
+      <c r="Y17" s="9">
         <f>IF(ISNUMBER(S17),IF(ISNUMBER(S14),IF(S17&gt;S14,1.0,IF(S17=S14,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="Z17" s="7">
+      <c r="Z17" s="9">
         <f>IF(ISNUMBER(S17),IF(ISNUMBER(S15),IF(S17&gt;S15,1.0,IF(S17=S15,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="AA17" s="7">
+      <c r="AA17" s="9">
         <f>IF(ISNUMBER(S17),IF(ISNUMBER(S16),IF(S17&gt;S16,1.0,IF(S17=S16,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="AB17" s="22">
+      <c r="AB17" s="24">
         <f>IF(AND(ISNUMBER(R17),ISNUMBER(R13)),VLOOKUP(ABS(R17-R13),'IMP Table'!$A$2:$C$26,3)*SIGN(R17-R13),0)</f>
         <v/>
       </c>
-      <c r="AC17" s="7">
+      <c r="AC17" s="9">
         <f>IF(AND(ISNUMBER(R17),ISNUMBER(R14)),VLOOKUP(ABS(R17-R14),'IMP Table'!$A$2:$C$26,3)*SIGN(R17-R14),0)</f>
         <v/>
       </c>
-      <c r="AD17" s="7">
+      <c r="AD17" s="9">
         <f>IF(AND(ISNUMBER(R17),ISNUMBER(R15)),VLOOKUP(ABS(R17-R15),'IMP Table'!$A$2:$C$26,3)*SIGN(R17-R15),0)</f>
         <v/>
       </c>
-      <c r="AE17" s="7">
+      <c r="AE17" s="9">
         <f>IF(AND(ISNUMBER(R17),ISNUMBER(R16)),VLOOKUP(ABS(R17-R16),'IMP Table'!$A$2:$C$26,3)*SIGN(R17-R16),0)</f>
         <v/>
       </c>
-      <c r="AF17" s="7">
+      <c r="AF17" s="9">
         <f>IF(AND(ISNUMBER(S17),ISNUMBER(S13)),VLOOKUP(ABS(S17-S13),'IMP Table'!$A$2:$C$26,3)*SIGN(S17-S13),0)</f>
         <v/>
       </c>
-      <c r="AG17" s="7">
+      <c r="AG17" s="9">
         <f>IF(AND(ISNUMBER(S17),ISNUMBER(S14)),VLOOKUP(ABS(S17-S14),'IMP Table'!$A$2:$C$26,3)*SIGN(S17-S14),0)</f>
         <v/>
       </c>
-      <c r="AH17" s="7">
+      <c r="AH17" s="9">
         <f>IF(AND(ISNUMBER(S17),ISNUMBER(S15)),VLOOKUP(ABS(S17-S15),'IMP Table'!$A$2:$C$26,3)*SIGN(S17-S15),0)</f>
         <v/>
       </c>
-      <c r="AI17" s="7">
+      <c r="AI17" s="9">
         <f>IF(AND(ISNUMBER(S17),ISNUMBER(S16)),VLOOKUP(ABS(S17-S16),'IMP Table'!$A$2:$C$26,3)*SIGN(S17-S16),0)</f>
         <v/>
       </c>
@@ -3155,15 +3156,15 @@
         <f>SUM(AB18:AE18)</f>
         <v/>
       </c>
-      <c r="M18" s="5">
+      <c r="M18" s="7">
         <f>SUM(AF18:AI18)</f>
         <v/>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="6">
         <f>IF(COUNT(T18:W18)&gt;0,P18/COUNT(T18:W18),0.5)</f>
         <v/>
       </c>
-      <c r="O18" s="4">
+      <c r="O18" s="6">
         <f>IF(COUNT(X18:AA18)&gt;0,Q18/COUNT(X18:AA18),0.5)</f>
         <v/>
       </c>
@@ -3293,15 +3294,15 @@
         <f>SUM(AB19:AE19)</f>
         <v/>
       </c>
-      <c r="M19" s="5">
+      <c r="M19" s="7">
         <f>SUM(AF19:AI19)</f>
         <v/>
       </c>
-      <c r="N19" s="4">
+      <c r="N19" s="6">
         <f>IF(COUNT(T19:W19)&gt;0,P19/COUNT(T19:W19),0.5)</f>
         <v/>
       </c>
-      <c r="O19" s="4">
+      <c r="O19" s="6">
         <f>IF(COUNT(X19:AA19)&gt;0,Q19/COUNT(X19:AA19),0.5)</f>
         <v/>
       </c>
@@ -3431,15 +3432,15 @@
         <f>SUM(AB20:AE20)</f>
         <v/>
       </c>
-      <c r="M20" s="5">
+      <c r="M20" s="7">
         <f>SUM(AF20:AI20)</f>
         <v/>
       </c>
-      <c r="N20" s="4">
+      <c r="N20" s="6">
         <f>IF(COUNT(T20:W20)&gt;0,P20/COUNT(T20:W20),0.5)</f>
         <v/>
       </c>
-      <c r="O20" s="4">
+      <c r="O20" s="6">
         <f>IF(COUNT(X20:AA20)&gt;0,Q20/COUNT(X20:AA20),0.5)</f>
         <v/>
       </c>
@@ -3569,15 +3570,15 @@
         <f>SUM(AB21:AE21)</f>
         <v/>
       </c>
-      <c r="M21" s="5">
+      <c r="M21" s="7">
         <f>SUM(AF21:AI21)</f>
         <v/>
       </c>
-      <c r="N21" s="4">
+      <c r="N21" s="6">
         <f>IF(COUNT(T21:W21)&gt;0,P21/COUNT(T21:W21),0.5)</f>
         <v/>
       </c>
-      <c r="O21" s="4">
+      <c r="O21" s="6">
         <f>IF(COUNT(X21:AA21)&gt;0,Q21/COUNT(X21:AA21),0.5)</f>
         <v/>
       </c>
@@ -3663,7 +3664,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="7" t="n"/>
+      <c r="A22" s="9" t="n"/>
       <c r="B22" s="19">
         <f>'By Round'!A63</f>
         <v/>
@@ -3684,23 +3685,23 @@
         <f>IF(ISBLANK('By Round'!F69),"",'By Round'!F69)</f>
         <v/>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="9">
         <f>IF(ISBLANK('By Round'!G69),"",'By Round'!G69)</f>
         <v/>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="9">
         <f>IF(ISBLANK('By Round'!H69),"",'By Round'!H69)</f>
         <v/>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="9">
         <f>IF(ISBLANK('By Round'!I69),"",'By Round'!I69)</f>
         <v/>
       </c>
-      <c r="J22" s="7">
+      <c r="J22" s="9">
         <f>IF(ISBLANK('By Round'!J69),"",'By Round'!J69)</f>
         <v/>
       </c>
-      <c r="K22" s="7">
+      <c r="K22" s="9">
         <f>IF(ISBLANK('By Round'!K69),"",'By Round'!K69)</f>
         <v/>
       </c>
@@ -3708,95 +3709,95 @@
         <f>SUM(AB22:AE22)</f>
         <v/>
       </c>
-      <c r="M22" s="9">
+      <c r="M22" s="21">
         <f>SUM(AF22:AI22)</f>
         <v/>
       </c>
-      <c r="N22" s="8">
+      <c r="N22" s="22">
         <f>IF(COUNT(T22:W22)&gt;0,P22/COUNT(T22:W22),0.5)</f>
         <v/>
       </c>
-      <c r="O22" s="8">
+      <c r="O22" s="22">
         <f>IF(COUNT(X22:AA22)&gt;0,Q22/COUNT(X22:AA22),0.5)</f>
         <v/>
       </c>
-      <c r="P22" s="21">
+      <c r="P22" s="23">
         <f>SUM(T22:W22)</f>
         <v/>
       </c>
-      <c r="Q22" s="21">
+      <c r="Q22" s="23">
         <f>SUM(X22:AA22)</f>
         <v/>
       </c>
-      <c r="R22" s="22">
+      <c r="R22" s="24">
         <f>IF(ISNUMBER(J22),J22,IF(ISNUMBER(K22),-K22,""))</f>
         <v/>
       </c>
-      <c r="S22" s="7">
+      <c r="S22" s="9">
         <f>IF(ISNUMBER(K22),K22,IF(ISNUMBER(J22),-J22,""))</f>
         <v/>
       </c>
-      <c r="T22" s="22">
+      <c r="T22" s="24">
         <f>IF(ISNUMBER(R22),IF(ISNUMBER(R18),IF(R22&gt;R18,1.0,IF(R22=R18,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="U22" s="7">
+      <c r="U22" s="9">
         <f>IF(ISNUMBER(R22),IF(ISNUMBER(R19),IF(R22&gt;R19,1.0,IF(R22=R19,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="V22" s="7">
+      <c r="V22" s="9">
         <f>IF(ISNUMBER(R22),IF(ISNUMBER(R20),IF(R22&gt;R20,1.0,IF(R22=R20,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="W22" s="7">
+      <c r="W22" s="9">
         <f>IF(ISNUMBER(R22),IF(ISNUMBER(R21),IF(R22&gt;R21,1.0,IF(R22=R21,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="X22" s="7">
+      <c r="X22" s="9">
         <f>IF(ISNUMBER(S22),IF(ISNUMBER(S18),IF(S22&gt;S18,1.0,IF(S22=S18,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="Y22" s="7">
+      <c r="Y22" s="9">
         <f>IF(ISNUMBER(S22),IF(ISNUMBER(S19),IF(S22&gt;S19,1.0,IF(S22=S19,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="Z22" s="7">
+      <c r="Z22" s="9">
         <f>IF(ISNUMBER(S22),IF(ISNUMBER(S20),IF(S22&gt;S20,1.0,IF(S22=S20,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="AA22" s="7">
+      <c r="AA22" s="9">
         <f>IF(ISNUMBER(S22),IF(ISNUMBER(S21),IF(S22&gt;S21,1.0,IF(S22=S21,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="AB22" s="22">
+      <c r="AB22" s="24">
         <f>IF(AND(ISNUMBER(R22),ISNUMBER(R18)),VLOOKUP(ABS(R22-R18),'IMP Table'!$A$2:$C$26,3)*SIGN(R22-R18),0)</f>
         <v/>
       </c>
-      <c r="AC22" s="7">
+      <c r="AC22" s="9">
         <f>IF(AND(ISNUMBER(R22),ISNUMBER(R19)),VLOOKUP(ABS(R22-R19),'IMP Table'!$A$2:$C$26,3)*SIGN(R22-R19),0)</f>
         <v/>
       </c>
-      <c r="AD22" s="7">
+      <c r="AD22" s="9">
         <f>IF(AND(ISNUMBER(R22),ISNUMBER(R20)),VLOOKUP(ABS(R22-R20),'IMP Table'!$A$2:$C$26,3)*SIGN(R22-R20),0)</f>
         <v/>
       </c>
-      <c r="AE22" s="7">
+      <c r="AE22" s="9">
         <f>IF(AND(ISNUMBER(R22),ISNUMBER(R21)),VLOOKUP(ABS(R22-R21),'IMP Table'!$A$2:$C$26,3)*SIGN(R22-R21),0)</f>
         <v/>
       </c>
-      <c r="AF22" s="7">
+      <c r="AF22" s="9">
         <f>IF(AND(ISNUMBER(S22),ISNUMBER(S18)),VLOOKUP(ABS(S22-S18),'IMP Table'!$A$2:$C$26,3)*SIGN(S22-S18),0)</f>
         <v/>
       </c>
-      <c r="AG22" s="7">
+      <c r="AG22" s="9">
         <f>IF(AND(ISNUMBER(S22),ISNUMBER(S19)),VLOOKUP(ABS(S22-S19),'IMP Table'!$A$2:$C$26,3)*SIGN(S22-S19),0)</f>
         <v/>
       </c>
-      <c r="AH22" s="7">
+      <c r="AH22" s="9">
         <f>IF(AND(ISNUMBER(S22),ISNUMBER(S20)),VLOOKUP(ABS(S22-S20),'IMP Table'!$A$2:$C$26,3)*SIGN(S22-S20),0)</f>
         <v/>
       </c>
-      <c r="AI22" s="7">
+      <c r="AI22" s="9">
         <f>IF(AND(ISNUMBER(S22),ISNUMBER(S21)),VLOOKUP(ABS(S22-S21),'IMP Table'!$A$2:$C$26,3)*SIGN(S22-S21),0)</f>
         <v/>
       </c>
@@ -3849,15 +3850,15 @@
         <f>SUM(AB23:AE23)</f>
         <v/>
       </c>
-      <c r="M23" s="5">
+      <c r="M23" s="7">
         <f>SUM(AF23:AI23)</f>
         <v/>
       </c>
-      <c r="N23" s="4">
+      <c r="N23" s="6">
         <f>IF(COUNT(T23:W23)&gt;0,P23/COUNT(T23:W23),0.5)</f>
         <v/>
       </c>
-      <c r="O23" s="4">
+      <c r="O23" s="6">
         <f>IF(COUNT(X23:AA23)&gt;0,Q23/COUNT(X23:AA23),0.5)</f>
         <v/>
       </c>
@@ -3987,15 +3988,15 @@
         <f>SUM(AB24:AE24)</f>
         <v/>
       </c>
-      <c r="M24" s="5">
+      <c r="M24" s="7">
         <f>SUM(AF24:AI24)</f>
         <v/>
       </c>
-      <c r="N24" s="4">
+      <c r="N24" s="6">
         <f>IF(COUNT(T24:W24)&gt;0,P24/COUNT(T24:W24),0.5)</f>
         <v/>
       </c>
-      <c r="O24" s="4">
+      <c r="O24" s="6">
         <f>IF(COUNT(X24:AA24)&gt;0,Q24/COUNT(X24:AA24),0.5)</f>
         <v/>
       </c>
@@ -4125,15 +4126,15 @@
         <f>SUM(AB25:AE25)</f>
         <v/>
       </c>
-      <c r="M25" s="5">
+      <c r="M25" s="7">
         <f>SUM(AF25:AI25)</f>
         <v/>
       </c>
-      <c r="N25" s="4">
+      <c r="N25" s="6">
         <f>IF(COUNT(T25:W25)&gt;0,P25/COUNT(T25:W25),0.5)</f>
         <v/>
       </c>
-      <c r="O25" s="4">
+      <c r="O25" s="6">
         <f>IF(COUNT(X25:AA25)&gt;0,Q25/COUNT(X25:AA25),0.5)</f>
         <v/>
       </c>
@@ -4263,15 +4264,15 @@
         <f>SUM(AB26:AE26)</f>
         <v/>
       </c>
-      <c r="M26" s="5">
+      <c r="M26" s="7">
         <f>SUM(AF26:AI26)</f>
         <v/>
       </c>
-      <c r="N26" s="4">
+      <c r="N26" s="6">
         <f>IF(COUNT(T26:W26)&gt;0,P26/COUNT(T26:W26),0.5)</f>
         <v/>
       </c>
-      <c r="O26" s="4">
+      <c r="O26" s="6">
         <f>IF(COUNT(X26:AA26)&gt;0,Q26/COUNT(X26:AA26),0.5)</f>
         <v/>
       </c>
@@ -4357,7 +4358,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="7" t="n"/>
+      <c r="A27" s="9" t="n"/>
       <c r="B27" s="19">
         <f>'By Round'!A63</f>
         <v/>
@@ -4378,23 +4379,23 @@
         <f>IF(ISBLANK('By Round'!F70),"",'By Round'!F70)</f>
         <v/>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="9">
         <f>IF(ISBLANK('By Round'!G70),"",'By Round'!G70)</f>
         <v/>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="9">
         <f>IF(ISBLANK('By Round'!H70),"",'By Round'!H70)</f>
         <v/>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="9">
         <f>IF(ISBLANK('By Round'!I70),"",'By Round'!I70)</f>
         <v/>
       </c>
-      <c r="J27" s="7">
+      <c r="J27" s="9">
         <f>IF(ISBLANK('By Round'!J70),"",'By Round'!J70)</f>
         <v/>
       </c>
-      <c r="K27" s="7">
+      <c r="K27" s="9">
         <f>IF(ISBLANK('By Round'!K70),"",'By Round'!K70)</f>
         <v/>
       </c>
@@ -4402,95 +4403,95 @@
         <f>SUM(AB27:AE27)</f>
         <v/>
       </c>
-      <c r="M27" s="9">
+      <c r="M27" s="21">
         <f>SUM(AF27:AI27)</f>
         <v/>
       </c>
-      <c r="N27" s="8">
+      <c r="N27" s="22">
         <f>IF(COUNT(T27:W27)&gt;0,P27/COUNT(T27:W27),0.5)</f>
         <v/>
       </c>
-      <c r="O27" s="8">
+      <c r="O27" s="22">
         <f>IF(COUNT(X27:AA27)&gt;0,Q27/COUNT(X27:AA27),0.5)</f>
         <v/>
       </c>
-      <c r="P27" s="21">
+      <c r="P27" s="23">
         <f>SUM(T27:W27)</f>
         <v/>
       </c>
-      <c r="Q27" s="21">
+      <c r="Q27" s="23">
         <f>SUM(X27:AA27)</f>
         <v/>
       </c>
-      <c r="R27" s="22">
+      <c r="R27" s="24">
         <f>IF(ISNUMBER(J27),J27,IF(ISNUMBER(K27),-K27,""))</f>
         <v/>
       </c>
-      <c r="S27" s="7">
+      <c r="S27" s="9">
         <f>IF(ISNUMBER(K27),K27,IF(ISNUMBER(J27),-J27,""))</f>
         <v/>
       </c>
-      <c r="T27" s="22">
+      <c r="T27" s="24">
         <f>IF(ISNUMBER(R27),IF(ISNUMBER(R23),IF(R27&gt;R23,1.0,IF(R27=R23,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="U27" s="7">
+      <c r="U27" s="9">
         <f>IF(ISNUMBER(R27),IF(ISNUMBER(R24),IF(R27&gt;R24,1.0,IF(R27=R24,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="V27" s="7">
+      <c r="V27" s="9">
         <f>IF(ISNUMBER(R27),IF(ISNUMBER(R25),IF(R27&gt;R25,1.0,IF(R27=R25,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="W27" s="7">
+      <c r="W27" s="9">
         <f>IF(ISNUMBER(R27),IF(ISNUMBER(R26),IF(R27&gt;R26,1.0,IF(R27=R26,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="X27" s="7">
+      <c r="X27" s="9">
         <f>IF(ISNUMBER(S27),IF(ISNUMBER(S23),IF(S27&gt;S23,1.0,IF(S27=S23,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="Y27" s="7">
+      <c r="Y27" s="9">
         <f>IF(ISNUMBER(S27),IF(ISNUMBER(S24),IF(S27&gt;S24,1.0,IF(S27=S24,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="Z27" s="7">
+      <c r="Z27" s="9">
         <f>IF(ISNUMBER(S27),IF(ISNUMBER(S25),IF(S27&gt;S25,1.0,IF(S27=S25,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="AA27" s="7">
+      <c r="AA27" s="9">
         <f>IF(ISNUMBER(S27),IF(ISNUMBER(S26),IF(S27&gt;S26,1.0,IF(S27=S26,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="AB27" s="22">
+      <c r="AB27" s="24">
         <f>IF(AND(ISNUMBER(R27),ISNUMBER(R23)),VLOOKUP(ABS(R27-R23),'IMP Table'!$A$2:$C$26,3)*SIGN(R27-R23),0)</f>
         <v/>
       </c>
-      <c r="AC27" s="7">
+      <c r="AC27" s="9">
         <f>IF(AND(ISNUMBER(R27),ISNUMBER(R24)),VLOOKUP(ABS(R27-R24),'IMP Table'!$A$2:$C$26,3)*SIGN(R27-R24),0)</f>
         <v/>
       </c>
-      <c r="AD27" s="7">
+      <c r="AD27" s="9">
         <f>IF(AND(ISNUMBER(R27),ISNUMBER(R25)),VLOOKUP(ABS(R27-R25),'IMP Table'!$A$2:$C$26,3)*SIGN(R27-R25),0)</f>
         <v/>
       </c>
-      <c r="AE27" s="7">
+      <c r="AE27" s="9">
         <f>IF(AND(ISNUMBER(R27),ISNUMBER(R26)),VLOOKUP(ABS(R27-R26),'IMP Table'!$A$2:$C$26,3)*SIGN(R27-R26),0)</f>
         <v/>
       </c>
-      <c r="AF27" s="7">
+      <c r="AF27" s="9">
         <f>IF(AND(ISNUMBER(S27),ISNUMBER(S23)),VLOOKUP(ABS(S27-S23),'IMP Table'!$A$2:$C$26,3)*SIGN(S27-S23),0)</f>
         <v/>
       </c>
-      <c r="AG27" s="7">
+      <c r="AG27" s="9">
         <f>IF(AND(ISNUMBER(S27),ISNUMBER(S24)),VLOOKUP(ABS(S27-S24),'IMP Table'!$A$2:$C$26,3)*SIGN(S27-S24),0)</f>
         <v/>
       </c>
-      <c r="AH27" s="7">
+      <c r="AH27" s="9">
         <f>IF(AND(ISNUMBER(S27),ISNUMBER(S25)),VLOOKUP(ABS(S27-S25),'IMP Table'!$A$2:$C$26,3)*SIGN(S27-S25),0)</f>
         <v/>
       </c>
-      <c r="AI27" s="7">
+      <c r="AI27" s="9">
         <f>IF(AND(ISNUMBER(S27),ISNUMBER(S26)),VLOOKUP(ABS(S27-S26),'IMP Table'!$A$2:$C$26,3)*SIGN(S27-S26),0)</f>
         <v/>
       </c>
@@ -4543,15 +4544,15 @@
         <f>SUM(AB28:AE28)</f>
         <v/>
       </c>
-      <c r="M28" s="5">
+      <c r="M28" s="7">
         <f>SUM(AF28:AI28)</f>
         <v/>
       </c>
-      <c r="N28" s="4">
+      <c r="N28" s="6">
         <f>IF(COUNT(T28:W28)&gt;0,P28/COUNT(T28:W28),0.5)</f>
         <v/>
       </c>
-      <c r="O28" s="4">
+      <c r="O28" s="6">
         <f>IF(COUNT(X28:AA28)&gt;0,Q28/COUNT(X28:AA28),0.5)</f>
         <v/>
       </c>
@@ -4681,15 +4682,15 @@
         <f>SUM(AB29:AE29)</f>
         <v/>
       </c>
-      <c r="M29" s="5">
+      <c r="M29" s="7">
         <f>SUM(AF29:AI29)</f>
         <v/>
       </c>
-      <c r="N29" s="4">
+      <c r="N29" s="6">
         <f>IF(COUNT(T29:W29)&gt;0,P29/COUNT(T29:W29),0.5)</f>
         <v/>
       </c>
-      <c r="O29" s="4">
+      <c r="O29" s="6">
         <f>IF(COUNT(X29:AA29)&gt;0,Q29/COUNT(X29:AA29),0.5)</f>
         <v/>
       </c>
@@ -4819,15 +4820,15 @@
         <f>SUM(AB30:AE30)</f>
         <v/>
       </c>
-      <c r="M30" s="5">
+      <c r="M30" s="7">
         <f>SUM(AF30:AI30)</f>
         <v/>
       </c>
-      <c r="N30" s="4">
+      <c r="N30" s="6">
         <f>IF(COUNT(T30:W30)&gt;0,P30/COUNT(T30:W30),0.5)</f>
         <v/>
       </c>
-      <c r="O30" s="4">
+      <c r="O30" s="6">
         <f>IF(COUNT(X30:AA30)&gt;0,Q30/COUNT(X30:AA30),0.5)</f>
         <v/>
       </c>
@@ -4957,15 +4958,15 @@
         <f>SUM(AB31:AE31)</f>
         <v/>
       </c>
-      <c r="M31" s="5">
+      <c r="M31" s="7">
         <f>SUM(AF31:AI31)</f>
         <v/>
       </c>
-      <c r="N31" s="4">
+      <c r="N31" s="6">
         <f>IF(COUNT(T31:W31)&gt;0,P31/COUNT(T31:W31),0.5)</f>
         <v/>
       </c>
-      <c r="O31" s="4">
+      <c r="O31" s="6">
         <f>IF(COUNT(X31:AA31)&gt;0,Q31/COUNT(X31:AA31),0.5)</f>
         <v/>
       </c>
@@ -5051,7 +5052,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="7" t="n"/>
+      <c r="A32" s="9" t="n"/>
       <c r="B32" s="19">
         <f>'By Round'!A63</f>
         <v/>
@@ -5072,23 +5073,23 @@
         <f>IF(ISBLANK('By Round'!F71),"",'By Round'!F71)</f>
         <v/>
       </c>
-      <c r="G32" s="7">
+      <c r="G32" s="9">
         <f>IF(ISBLANK('By Round'!G71),"",'By Round'!G71)</f>
         <v/>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="9">
         <f>IF(ISBLANK('By Round'!H71),"",'By Round'!H71)</f>
         <v/>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="9">
         <f>IF(ISBLANK('By Round'!I71),"",'By Round'!I71)</f>
         <v/>
       </c>
-      <c r="J32" s="7">
+      <c r="J32" s="9">
         <f>IF(ISBLANK('By Round'!J71),"",'By Round'!J71)</f>
         <v/>
       </c>
-      <c r="K32" s="7">
+      <c r="K32" s="9">
         <f>IF(ISBLANK('By Round'!K71),"",'By Round'!K71)</f>
         <v/>
       </c>
@@ -5096,95 +5097,95 @@
         <f>SUM(AB32:AE32)</f>
         <v/>
       </c>
-      <c r="M32" s="9">
+      <c r="M32" s="21">
         <f>SUM(AF32:AI32)</f>
         <v/>
       </c>
-      <c r="N32" s="8">
+      <c r="N32" s="22">
         <f>IF(COUNT(T32:W32)&gt;0,P32/COUNT(T32:W32),0.5)</f>
         <v/>
       </c>
-      <c r="O32" s="8">
+      <c r="O32" s="22">
         <f>IF(COUNT(X32:AA32)&gt;0,Q32/COUNT(X32:AA32),0.5)</f>
         <v/>
       </c>
-      <c r="P32" s="21">
+      <c r="P32" s="23">
         <f>SUM(T32:W32)</f>
         <v/>
       </c>
-      <c r="Q32" s="21">
+      <c r="Q32" s="23">
         <f>SUM(X32:AA32)</f>
         <v/>
       </c>
-      <c r="R32" s="22">
+      <c r="R32" s="24">
         <f>IF(ISNUMBER(J32),J32,IF(ISNUMBER(K32),-K32,""))</f>
         <v/>
       </c>
-      <c r="S32" s="7">
+      <c r="S32" s="9">
         <f>IF(ISNUMBER(K32),K32,IF(ISNUMBER(J32),-J32,""))</f>
         <v/>
       </c>
-      <c r="T32" s="22">
+      <c r="T32" s="24">
         <f>IF(ISNUMBER(R32),IF(ISNUMBER(R28),IF(R32&gt;R28,1.0,IF(R32=R28,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="U32" s="7">
+      <c r="U32" s="9">
         <f>IF(ISNUMBER(R32),IF(ISNUMBER(R29),IF(R32&gt;R29,1.0,IF(R32=R29,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="V32" s="7">
+      <c r="V32" s="9">
         <f>IF(ISNUMBER(R32),IF(ISNUMBER(R30),IF(R32&gt;R30,1.0,IF(R32=R30,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="W32" s="7">
+      <c r="W32" s="9">
         <f>IF(ISNUMBER(R32),IF(ISNUMBER(R31),IF(R32&gt;R31,1.0,IF(R32=R31,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="X32" s="7">
+      <c r="X32" s="9">
         <f>IF(ISNUMBER(S32),IF(ISNUMBER(S28),IF(S32&gt;S28,1.0,IF(S32=S28,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="Y32" s="7">
+      <c r="Y32" s="9">
         <f>IF(ISNUMBER(S32),IF(ISNUMBER(S29),IF(S32&gt;S29,1.0,IF(S32=S29,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="Z32" s="7">
+      <c r="Z32" s="9">
         <f>IF(ISNUMBER(S32),IF(ISNUMBER(S30),IF(S32&gt;S30,1.0,IF(S32=S30,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="AA32" s="7">
+      <c r="AA32" s="9">
         <f>IF(ISNUMBER(S32),IF(ISNUMBER(S31),IF(S32&gt;S31,1.0,IF(S32=S31,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="AB32" s="22">
+      <c r="AB32" s="24">
         <f>IF(AND(ISNUMBER(R32),ISNUMBER(R28)),VLOOKUP(ABS(R32-R28),'IMP Table'!$A$2:$C$26,3)*SIGN(R32-R28),0)</f>
         <v/>
       </c>
-      <c r="AC32" s="7">
+      <c r="AC32" s="9">
         <f>IF(AND(ISNUMBER(R32),ISNUMBER(R29)),VLOOKUP(ABS(R32-R29),'IMP Table'!$A$2:$C$26,3)*SIGN(R32-R29),0)</f>
         <v/>
       </c>
-      <c r="AD32" s="7">
+      <c r="AD32" s="9">
         <f>IF(AND(ISNUMBER(R32),ISNUMBER(R30)),VLOOKUP(ABS(R32-R30),'IMP Table'!$A$2:$C$26,3)*SIGN(R32-R30),0)</f>
         <v/>
       </c>
-      <c r="AE32" s="7">
+      <c r="AE32" s="9">
         <f>IF(AND(ISNUMBER(R32),ISNUMBER(R31)),VLOOKUP(ABS(R32-R31),'IMP Table'!$A$2:$C$26,3)*SIGN(R32-R31),0)</f>
         <v/>
       </c>
-      <c r="AF32" s="7">
+      <c r="AF32" s="9">
         <f>IF(AND(ISNUMBER(S32),ISNUMBER(S28)),VLOOKUP(ABS(S32-S28),'IMP Table'!$A$2:$C$26,3)*SIGN(S32-S28),0)</f>
         <v/>
       </c>
-      <c r="AG32" s="7">
+      <c r="AG32" s="9">
         <f>IF(AND(ISNUMBER(S32),ISNUMBER(S29)),VLOOKUP(ABS(S32-S29),'IMP Table'!$A$2:$C$26,3)*SIGN(S32-S29),0)</f>
         <v/>
       </c>
-      <c r="AH32" s="7">
+      <c r="AH32" s="9">
         <f>IF(AND(ISNUMBER(S32),ISNUMBER(S30)),VLOOKUP(ABS(S32-S30),'IMP Table'!$A$2:$C$26,3)*SIGN(S32-S30),0)</f>
         <v/>
       </c>
-      <c r="AI32" s="7">
+      <c r="AI32" s="9">
         <f>IF(AND(ISNUMBER(S32),ISNUMBER(S31)),VLOOKUP(ABS(S32-S31),'IMP Table'!$A$2:$C$26,3)*SIGN(S32-S31),0)</f>
         <v/>
       </c>
@@ -5237,15 +5238,15 @@
         <f>SUM(AB33:AE33)</f>
         <v/>
       </c>
-      <c r="M33" s="5">
+      <c r="M33" s="7">
         <f>SUM(AF33:AI33)</f>
         <v/>
       </c>
-      <c r="N33" s="4">
+      <c r="N33" s="6">
         <f>IF(COUNT(T33:W33)&gt;0,P33/COUNT(T33:W33),0.5)</f>
         <v/>
       </c>
-      <c r="O33" s="4">
+      <c r="O33" s="6">
         <f>IF(COUNT(X33:AA33)&gt;0,Q33/COUNT(X33:AA33),0.5)</f>
         <v/>
       </c>
@@ -5375,15 +5376,15 @@
         <f>SUM(AB34:AE34)</f>
         <v/>
       </c>
-      <c r="M34" s="5">
+      <c r="M34" s="7">
         <f>SUM(AF34:AI34)</f>
         <v/>
       </c>
-      <c r="N34" s="4">
+      <c r="N34" s="6">
         <f>IF(COUNT(T34:W34)&gt;0,P34/COUNT(T34:W34),0.5)</f>
         <v/>
       </c>
-      <c r="O34" s="4">
+      <c r="O34" s="6">
         <f>IF(COUNT(X34:AA34)&gt;0,Q34/COUNT(X34:AA34),0.5)</f>
         <v/>
       </c>
@@ -5513,15 +5514,15 @@
         <f>SUM(AB35:AE35)</f>
         <v/>
       </c>
-      <c r="M35" s="5">
+      <c r="M35" s="7">
         <f>SUM(AF35:AI35)</f>
         <v/>
       </c>
-      <c r="N35" s="4">
+      <c r="N35" s="6">
         <f>IF(COUNT(T35:W35)&gt;0,P35/COUNT(T35:W35),0.5)</f>
         <v/>
       </c>
-      <c r="O35" s="4">
+      <c r="O35" s="6">
         <f>IF(COUNT(X35:AA35)&gt;0,Q35/COUNT(X35:AA35),0.5)</f>
         <v/>
       </c>
@@ -5651,15 +5652,15 @@
         <f>SUM(AB36:AE36)</f>
         <v/>
       </c>
-      <c r="M36" s="5">
+      <c r="M36" s="7">
         <f>SUM(AF36:AI36)</f>
         <v/>
       </c>
-      <c r="N36" s="4">
+      <c r="N36" s="6">
         <f>IF(COUNT(T36:W36)&gt;0,P36/COUNT(T36:W36),0.5)</f>
         <v/>
       </c>
-      <c r="O36" s="4">
+      <c r="O36" s="6">
         <f>IF(COUNT(X36:AA36)&gt;0,Q36/COUNT(X36:AA36),0.5)</f>
         <v/>
       </c>
@@ -5745,7 +5746,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="7" t="n"/>
+      <c r="A37" s="9" t="n"/>
       <c r="B37" s="19">
         <f>'By Round'!A63</f>
         <v/>
@@ -5766,23 +5767,23 @@
         <f>IF(ISBLANK('By Round'!F72),"",'By Round'!F72)</f>
         <v/>
       </c>
-      <c r="G37" s="7">
+      <c r="G37" s="9">
         <f>IF(ISBLANK('By Round'!G72),"",'By Round'!G72)</f>
         <v/>
       </c>
-      <c r="H37" s="7">
+      <c r="H37" s="9">
         <f>IF(ISBLANK('By Round'!H72),"",'By Round'!H72)</f>
         <v/>
       </c>
-      <c r="I37" s="7">
+      <c r="I37" s="9">
         <f>IF(ISBLANK('By Round'!I72),"",'By Round'!I72)</f>
         <v/>
       </c>
-      <c r="J37" s="7">
+      <c r="J37" s="9">
         <f>IF(ISBLANK('By Round'!J72),"",'By Round'!J72)</f>
         <v/>
       </c>
-      <c r="K37" s="7">
+      <c r="K37" s="9">
         <f>IF(ISBLANK('By Round'!K72),"",'By Round'!K72)</f>
         <v/>
       </c>
@@ -5790,95 +5791,95 @@
         <f>SUM(AB37:AE37)</f>
         <v/>
       </c>
-      <c r="M37" s="9">
+      <c r="M37" s="21">
         <f>SUM(AF37:AI37)</f>
         <v/>
       </c>
-      <c r="N37" s="8">
+      <c r="N37" s="22">
         <f>IF(COUNT(T37:W37)&gt;0,P37/COUNT(T37:W37),0.5)</f>
         <v/>
       </c>
-      <c r="O37" s="8">
+      <c r="O37" s="22">
         <f>IF(COUNT(X37:AA37)&gt;0,Q37/COUNT(X37:AA37),0.5)</f>
         <v/>
       </c>
-      <c r="P37" s="21">
+      <c r="P37" s="23">
         <f>SUM(T37:W37)</f>
         <v/>
       </c>
-      <c r="Q37" s="21">
+      <c r="Q37" s="23">
         <f>SUM(X37:AA37)</f>
         <v/>
       </c>
-      <c r="R37" s="22">
+      <c r="R37" s="24">
         <f>IF(ISNUMBER(J37),J37,IF(ISNUMBER(K37),-K37,""))</f>
         <v/>
       </c>
-      <c r="S37" s="7">
+      <c r="S37" s="9">
         <f>IF(ISNUMBER(K37),K37,IF(ISNUMBER(J37),-J37,""))</f>
         <v/>
       </c>
-      <c r="T37" s="22">
+      <c r="T37" s="24">
         <f>IF(ISNUMBER(R37),IF(ISNUMBER(R33),IF(R37&gt;R33,1.0,IF(R37=R33,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="U37" s="7">
+      <c r="U37" s="9">
         <f>IF(ISNUMBER(R37),IF(ISNUMBER(R34),IF(R37&gt;R34,1.0,IF(R37=R34,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="V37" s="7">
+      <c r="V37" s="9">
         <f>IF(ISNUMBER(R37),IF(ISNUMBER(R35),IF(R37&gt;R35,1.0,IF(R37=R35,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="W37" s="7">
+      <c r="W37" s="9">
         <f>IF(ISNUMBER(R37),IF(ISNUMBER(R36),IF(R37&gt;R36,1.0,IF(R37=R36,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="X37" s="7">
+      <c r="X37" s="9">
         <f>IF(ISNUMBER(S37),IF(ISNUMBER(S33),IF(S37&gt;S33,1.0,IF(S37=S33,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="Y37" s="7">
+      <c r="Y37" s="9">
         <f>IF(ISNUMBER(S37),IF(ISNUMBER(S34),IF(S37&gt;S34,1.0,IF(S37=S34,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="Z37" s="7">
+      <c r="Z37" s="9">
         <f>IF(ISNUMBER(S37),IF(ISNUMBER(S35),IF(S37&gt;S35,1.0,IF(S37=S35,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="AA37" s="7">
+      <c r="AA37" s="9">
         <f>IF(ISNUMBER(S37),IF(ISNUMBER(S36),IF(S37&gt;S36,1.0,IF(S37=S36,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="AB37" s="22">
+      <c r="AB37" s="24">
         <f>IF(AND(ISNUMBER(R37),ISNUMBER(R33)),VLOOKUP(ABS(R37-R33),'IMP Table'!$A$2:$C$26,3)*SIGN(R37-R33),0)</f>
         <v/>
       </c>
-      <c r="AC37" s="7">
+      <c r="AC37" s="9">
         <f>IF(AND(ISNUMBER(R37),ISNUMBER(R34)),VLOOKUP(ABS(R37-R34),'IMP Table'!$A$2:$C$26,3)*SIGN(R37-R34),0)</f>
         <v/>
       </c>
-      <c r="AD37" s="7">
+      <c r="AD37" s="9">
         <f>IF(AND(ISNUMBER(R37),ISNUMBER(R35)),VLOOKUP(ABS(R37-R35),'IMP Table'!$A$2:$C$26,3)*SIGN(R37-R35),0)</f>
         <v/>
       </c>
-      <c r="AE37" s="7">
+      <c r="AE37" s="9">
         <f>IF(AND(ISNUMBER(R37),ISNUMBER(R36)),VLOOKUP(ABS(R37-R36),'IMP Table'!$A$2:$C$26,3)*SIGN(R37-R36),0)</f>
         <v/>
       </c>
-      <c r="AF37" s="7">
+      <c r="AF37" s="9">
         <f>IF(AND(ISNUMBER(S37),ISNUMBER(S33)),VLOOKUP(ABS(S37-S33),'IMP Table'!$A$2:$C$26,3)*SIGN(S37-S33),0)</f>
         <v/>
       </c>
-      <c r="AG37" s="7">
+      <c r="AG37" s="9">
         <f>IF(AND(ISNUMBER(S37),ISNUMBER(S34)),VLOOKUP(ABS(S37-S34),'IMP Table'!$A$2:$C$26,3)*SIGN(S37-S34),0)</f>
         <v/>
       </c>
-      <c r="AH37" s="7">
+      <c r="AH37" s="9">
         <f>IF(AND(ISNUMBER(S37),ISNUMBER(S35)),VLOOKUP(ABS(S37-S35),'IMP Table'!$A$2:$C$26,3)*SIGN(S37-S35),0)</f>
         <v/>
       </c>
-      <c r="AI37" s="7">
+      <c r="AI37" s="9">
         <f>IF(AND(ISNUMBER(S37),ISNUMBER(S36)),VLOOKUP(ABS(S37-S36),'IMP Table'!$A$2:$C$26,3)*SIGN(S37-S36),0)</f>
         <v/>
       </c>
@@ -5931,15 +5932,15 @@
         <f>SUM(AB38:AE38)</f>
         <v/>
       </c>
-      <c r="M38" s="5">
+      <c r="M38" s="7">
         <f>SUM(AF38:AI38)</f>
         <v/>
       </c>
-      <c r="N38" s="4">
+      <c r="N38" s="6">
         <f>IF(COUNT(T38:W38)&gt;0,P38/COUNT(T38:W38),0.5)</f>
         <v/>
       </c>
-      <c r="O38" s="4">
+      <c r="O38" s="6">
         <f>IF(COUNT(X38:AA38)&gt;0,Q38/COUNT(X38:AA38),0.5)</f>
         <v/>
       </c>
@@ -6069,15 +6070,15 @@
         <f>SUM(AB39:AE39)</f>
         <v/>
       </c>
-      <c r="M39" s="5">
+      <c r="M39" s="7">
         <f>SUM(AF39:AI39)</f>
         <v/>
       </c>
-      <c r="N39" s="4">
+      <c r="N39" s="6">
         <f>IF(COUNT(T39:W39)&gt;0,P39/COUNT(T39:W39),0.5)</f>
         <v/>
       </c>
-      <c r="O39" s="4">
+      <c r="O39" s="6">
         <f>IF(COUNT(X39:AA39)&gt;0,Q39/COUNT(X39:AA39),0.5)</f>
         <v/>
       </c>
@@ -6207,15 +6208,15 @@
         <f>SUM(AB40:AE40)</f>
         <v/>
       </c>
-      <c r="M40" s="5">
+      <c r="M40" s="7">
         <f>SUM(AF40:AI40)</f>
         <v/>
       </c>
-      <c r="N40" s="4">
+      <c r="N40" s="6">
         <f>IF(COUNT(T40:W40)&gt;0,P40/COUNT(T40:W40),0.5)</f>
         <v/>
       </c>
-      <c r="O40" s="4">
+      <c r="O40" s="6">
         <f>IF(COUNT(X40:AA40)&gt;0,Q40/COUNT(X40:AA40),0.5)</f>
         <v/>
       </c>
@@ -6345,15 +6346,15 @@
         <f>SUM(AB41:AE41)</f>
         <v/>
       </c>
-      <c r="M41" s="5">
+      <c r="M41" s="7">
         <f>SUM(AF41:AI41)</f>
         <v/>
       </c>
-      <c r="N41" s="4">
+      <c r="N41" s="6">
         <f>IF(COUNT(T41:W41)&gt;0,P41/COUNT(T41:W41),0.5)</f>
         <v/>
       </c>
-      <c r="O41" s="4">
+      <c r="O41" s="6">
         <f>IF(COUNT(X41:AA41)&gt;0,Q41/COUNT(X41:AA41),0.5)</f>
         <v/>
       </c>
@@ -6439,7 +6440,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="7" t="n"/>
+      <c r="A42" s="9" t="n"/>
       <c r="B42" s="19">
         <f>'By Round'!A63</f>
         <v/>
@@ -6460,23 +6461,23 @@
         <f>IF(ISBLANK('By Round'!F73),"",'By Round'!F73)</f>
         <v/>
       </c>
-      <c r="G42" s="7">
+      <c r="G42" s="9">
         <f>IF(ISBLANK('By Round'!G73),"",'By Round'!G73)</f>
         <v/>
       </c>
-      <c r="H42" s="7">
+      <c r="H42" s="9">
         <f>IF(ISBLANK('By Round'!H73),"",'By Round'!H73)</f>
         <v/>
       </c>
-      <c r="I42" s="7">
+      <c r="I42" s="9">
         <f>IF(ISBLANK('By Round'!I73),"",'By Round'!I73)</f>
         <v/>
       </c>
-      <c r="J42" s="7">
+      <c r="J42" s="9">
         <f>IF(ISBLANK('By Round'!J73),"",'By Round'!J73)</f>
         <v/>
       </c>
-      <c r="K42" s="7">
+      <c r="K42" s="9">
         <f>IF(ISBLANK('By Round'!K73),"",'By Round'!K73)</f>
         <v/>
       </c>
@@ -6484,95 +6485,95 @@
         <f>SUM(AB42:AE42)</f>
         <v/>
       </c>
-      <c r="M42" s="9">
+      <c r="M42" s="21">
         <f>SUM(AF42:AI42)</f>
         <v/>
       </c>
-      <c r="N42" s="8">
+      <c r="N42" s="22">
         <f>IF(COUNT(T42:W42)&gt;0,P42/COUNT(T42:W42),0.5)</f>
         <v/>
       </c>
-      <c r="O42" s="8">
+      <c r="O42" s="22">
         <f>IF(COUNT(X42:AA42)&gt;0,Q42/COUNT(X42:AA42),0.5)</f>
         <v/>
       </c>
-      <c r="P42" s="21">
+      <c r="P42" s="23">
         <f>SUM(T42:W42)</f>
         <v/>
       </c>
-      <c r="Q42" s="21">
+      <c r="Q42" s="23">
         <f>SUM(X42:AA42)</f>
         <v/>
       </c>
-      <c r="R42" s="22">
+      <c r="R42" s="24">
         <f>IF(ISNUMBER(J42),J42,IF(ISNUMBER(K42),-K42,""))</f>
         <v/>
       </c>
-      <c r="S42" s="7">
+      <c r="S42" s="9">
         <f>IF(ISNUMBER(K42),K42,IF(ISNUMBER(J42),-J42,""))</f>
         <v/>
       </c>
-      <c r="T42" s="22">
+      <c r="T42" s="24">
         <f>IF(ISNUMBER(R42),IF(ISNUMBER(R38),IF(R42&gt;R38,1.0,IF(R42=R38,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="U42" s="7">
+      <c r="U42" s="9">
         <f>IF(ISNUMBER(R42),IF(ISNUMBER(R39),IF(R42&gt;R39,1.0,IF(R42=R39,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="V42" s="7">
+      <c r="V42" s="9">
         <f>IF(ISNUMBER(R42),IF(ISNUMBER(R40),IF(R42&gt;R40,1.0,IF(R42=R40,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="W42" s="7">
+      <c r="W42" s="9">
         <f>IF(ISNUMBER(R42),IF(ISNUMBER(R41),IF(R42&gt;R41,1.0,IF(R42=R41,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="X42" s="7">
+      <c r="X42" s="9">
         <f>IF(ISNUMBER(S42),IF(ISNUMBER(S38),IF(S42&gt;S38,1.0,IF(S42=S38,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="Y42" s="7">
+      <c r="Y42" s="9">
         <f>IF(ISNUMBER(S42),IF(ISNUMBER(S39),IF(S42&gt;S39,1.0,IF(S42=S39,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="Z42" s="7">
+      <c r="Z42" s="9">
         <f>IF(ISNUMBER(S42),IF(ISNUMBER(S40),IF(S42&gt;S40,1.0,IF(S42=S40,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="AA42" s="7">
+      <c r="AA42" s="9">
         <f>IF(ISNUMBER(S42),IF(ISNUMBER(S41),IF(S42&gt;S41,1.0,IF(S42=S41,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="AB42" s="22">
+      <c r="AB42" s="24">
         <f>IF(AND(ISNUMBER(R42),ISNUMBER(R38)),VLOOKUP(ABS(R42-R38),'IMP Table'!$A$2:$C$26,3)*SIGN(R42-R38),0)</f>
         <v/>
       </c>
-      <c r="AC42" s="7">
+      <c r="AC42" s="9">
         <f>IF(AND(ISNUMBER(R42),ISNUMBER(R39)),VLOOKUP(ABS(R42-R39),'IMP Table'!$A$2:$C$26,3)*SIGN(R42-R39),0)</f>
         <v/>
       </c>
-      <c r="AD42" s="7">
+      <c r="AD42" s="9">
         <f>IF(AND(ISNUMBER(R42),ISNUMBER(R40)),VLOOKUP(ABS(R42-R40),'IMP Table'!$A$2:$C$26,3)*SIGN(R42-R40),0)</f>
         <v/>
       </c>
-      <c r="AE42" s="7">
+      <c r="AE42" s="9">
         <f>IF(AND(ISNUMBER(R42),ISNUMBER(R41)),VLOOKUP(ABS(R42-R41),'IMP Table'!$A$2:$C$26,3)*SIGN(R42-R41),0)</f>
         <v/>
       </c>
-      <c r="AF42" s="7">
+      <c r="AF42" s="9">
         <f>IF(AND(ISNUMBER(S42),ISNUMBER(S38)),VLOOKUP(ABS(S42-S38),'IMP Table'!$A$2:$C$26,3)*SIGN(S42-S38),0)</f>
         <v/>
       </c>
-      <c r="AG42" s="7">
+      <c r="AG42" s="9">
         <f>IF(AND(ISNUMBER(S42),ISNUMBER(S39)),VLOOKUP(ABS(S42-S39),'IMP Table'!$A$2:$C$26,3)*SIGN(S42-S39),0)</f>
         <v/>
       </c>
-      <c r="AH42" s="7">
+      <c r="AH42" s="9">
         <f>IF(AND(ISNUMBER(S42),ISNUMBER(S40)),VLOOKUP(ABS(S42-S40),'IMP Table'!$A$2:$C$26,3)*SIGN(S42-S40),0)</f>
         <v/>
       </c>
-      <c r="AI42" s="7">
+      <c r="AI42" s="9">
         <f>IF(AND(ISNUMBER(S42),ISNUMBER(S41)),VLOOKUP(ABS(S42-S41),'IMP Table'!$A$2:$C$26,3)*SIGN(S42-S41),0)</f>
         <v/>
       </c>
@@ -6625,15 +6626,15 @@
         <f>SUM(AB43:AE43)</f>
         <v/>
       </c>
-      <c r="M43" s="5">
+      <c r="M43" s="7">
         <f>SUM(AF43:AI43)</f>
         <v/>
       </c>
-      <c r="N43" s="4">
+      <c r="N43" s="6">
         <f>IF(COUNT(T43:W43)&gt;0,P43/COUNT(T43:W43),0.5)</f>
         <v/>
       </c>
-      <c r="O43" s="4">
+      <c r="O43" s="6">
         <f>IF(COUNT(X43:AA43)&gt;0,Q43/COUNT(X43:AA43),0.5)</f>
         <v/>
       </c>
@@ -6763,15 +6764,15 @@
         <f>SUM(AB44:AE44)</f>
         <v/>
       </c>
-      <c r="M44" s="5">
+      <c r="M44" s="7">
         <f>SUM(AF44:AI44)</f>
         <v/>
       </c>
-      <c r="N44" s="4">
+      <c r="N44" s="6">
         <f>IF(COUNT(T44:W44)&gt;0,P44/COUNT(T44:W44),0.5)</f>
         <v/>
       </c>
-      <c r="O44" s="4">
+      <c r="O44" s="6">
         <f>IF(COUNT(X44:AA44)&gt;0,Q44/COUNT(X44:AA44),0.5)</f>
         <v/>
       </c>
@@ -6901,15 +6902,15 @@
         <f>SUM(AB45:AE45)</f>
         <v/>
       </c>
-      <c r="M45" s="5">
+      <c r="M45" s="7">
         <f>SUM(AF45:AI45)</f>
         <v/>
       </c>
-      <c r="N45" s="4">
+      <c r="N45" s="6">
         <f>IF(COUNT(T45:W45)&gt;0,P45/COUNT(T45:W45),0.5)</f>
         <v/>
       </c>
-      <c r="O45" s="4">
+      <c r="O45" s="6">
         <f>IF(COUNT(X45:AA45)&gt;0,Q45/COUNT(X45:AA45),0.5)</f>
         <v/>
       </c>
@@ -7039,15 +7040,15 @@
         <f>SUM(AB46:AE46)</f>
         <v/>
       </c>
-      <c r="M46" s="5">
+      <c r="M46" s="7">
         <f>SUM(AF46:AI46)</f>
         <v/>
       </c>
-      <c r="N46" s="4">
+      <c r="N46" s="6">
         <f>IF(COUNT(T46:W46)&gt;0,P46/COUNT(T46:W46),0.5)</f>
         <v/>
       </c>
-      <c r="O46" s="4">
+      <c r="O46" s="6">
         <f>IF(COUNT(X46:AA46)&gt;0,Q46/COUNT(X46:AA46),0.5)</f>
         <v/>
       </c>
@@ -7133,7 +7134,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="7" t="n"/>
+      <c r="A47" s="9" t="n"/>
       <c r="B47" s="19">
         <f>'By Round'!A63</f>
         <v/>
@@ -7154,23 +7155,23 @@
         <f>IF(ISBLANK('By Round'!F74),"",'By Round'!F74)</f>
         <v/>
       </c>
-      <c r="G47" s="7">
+      <c r="G47" s="9">
         <f>IF(ISBLANK('By Round'!G74),"",'By Round'!G74)</f>
         <v/>
       </c>
-      <c r="H47" s="7">
+      <c r="H47" s="9">
         <f>IF(ISBLANK('By Round'!H74),"",'By Round'!H74)</f>
         <v/>
       </c>
-      <c r="I47" s="7">
+      <c r="I47" s="9">
         <f>IF(ISBLANK('By Round'!I74),"",'By Round'!I74)</f>
         <v/>
       </c>
-      <c r="J47" s="7">
+      <c r="J47" s="9">
         <f>IF(ISBLANK('By Round'!J74),"",'By Round'!J74)</f>
         <v/>
       </c>
-      <c r="K47" s="7">
+      <c r="K47" s="9">
         <f>IF(ISBLANK('By Round'!K74),"",'By Round'!K74)</f>
         <v/>
       </c>
@@ -7178,95 +7179,95 @@
         <f>SUM(AB47:AE47)</f>
         <v/>
       </c>
-      <c r="M47" s="9">
+      <c r="M47" s="21">
         <f>SUM(AF47:AI47)</f>
         <v/>
       </c>
-      <c r="N47" s="8">
+      <c r="N47" s="22">
         <f>IF(COUNT(T47:W47)&gt;0,P47/COUNT(T47:W47),0.5)</f>
         <v/>
       </c>
-      <c r="O47" s="8">
+      <c r="O47" s="22">
         <f>IF(COUNT(X47:AA47)&gt;0,Q47/COUNT(X47:AA47),0.5)</f>
         <v/>
       </c>
-      <c r="P47" s="21">
+      <c r="P47" s="23">
         <f>SUM(T47:W47)</f>
         <v/>
       </c>
-      <c r="Q47" s="21">
+      <c r="Q47" s="23">
         <f>SUM(X47:AA47)</f>
         <v/>
       </c>
-      <c r="R47" s="22">
+      <c r="R47" s="24">
         <f>IF(ISNUMBER(J47),J47,IF(ISNUMBER(K47),-K47,""))</f>
         <v/>
       </c>
-      <c r="S47" s="7">
+      <c r="S47" s="9">
         <f>IF(ISNUMBER(K47),K47,IF(ISNUMBER(J47),-J47,""))</f>
         <v/>
       </c>
-      <c r="T47" s="22">
+      <c r="T47" s="24">
         <f>IF(ISNUMBER(R47),IF(ISNUMBER(R43),IF(R47&gt;R43,1.0,IF(R47=R43,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="U47" s="7">
+      <c r="U47" s="9">
         <f>IF(ISNUMBER(R47),IF(ISNUMBER(R44),IF(R47&gt;R44,1.0,IF(R47=R44,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="V47" s="7">
+      <c r="V47" s="9">
         <f>IF(ISNUMBER(R47),IF(ISNUMBER(R45),IF(R47&gt;R45,1.0,IF(R47=R45,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="W47" s="7">
+      <c r="W47" s="9">
         <f>IF(ISNUMBER(R47),IF(ISNUMBER(R46),IF(R47&gt;R46,1.0,IF(R47=R46,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="X47" s="7">
+      <c r="X47" s="9">
         <f>IF(ISNUMBER(S47),IF(ISNUMBER(S43),IF(S47&gt;S43,1.0,IF(S47=S43,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="Y47" s="7">
+      <c r="Y47" s="9">
         <f>IF(ISNUMBER(S47),IF(ISNUMBER(S44),IF(S47&gt;S44,1.0,IF(S47=S44,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="Z47" s="7">
+      <c r="Z47" s="9">
         <f>IF(ISNUMBER(S47),IF(ISNUMBER(S45),IF(S47&gt;S45,1.0,IF(S47=S45,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="AA47" s="7">
+      <c r="AA47" s="9">
         <f>IF(ISNUMBER(S47),IF(ISNUMBER(S46),IF(S47&gt;S46,1.0,IF(S47=S46,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="AB47" s="22">
+      <c r="AB47" s="24">
         <f>IF(AND(ISNUMBER(R47),ISNUMBER(R43)),VLOOKUP(ABS(R47-R43),'IMP Table'!$A$2:$C$26,3)*SIGN(R47-R43),0)</f>
         <v/>
       </c>
-      <c r="AC47" s="7">
+      <c r="AC47" s="9">
         <f>IF(AND(ISNUMBER(R47),ISNUMBER(R44)),VLOOKUP(ABS(R47-R44),'IMP Table'!$A$2:$C$26,3)*SIGN(R47-R44),0)</f>
         <v/>
       </c>
-      <c r="AD47" s="7">
+      <c r="AD47" s="9">
         <f>IF(AND(ISNUMBER(R47),ISNUMBER(R45)),VLOOKUP(ABS(R47-R45),'IMP Table'!$A$2:$C$26,3)*SIGN(R47-R45),0)</f>
         <v/>
       </c>
-      <c r="AE47" s="7">
+      <c r="AE47" s="9">
         <f>IF(AND(ISNUMBER(R47),ISNUMBER(R46)),VLOOKUP(ABS(R47-R46),'IMP Table'!$A$2:$C$26,3)*SIGN(R47-R46),0)</f>
         <v/>
       </c>
-      <c r="AF47" s="7">
+      <c r="AF47" s="9">
         <f>IF(AND(ISNUMBER(S47),ISNUMBER(S43)),VLOOKUP(ABS(S47-S43),'IMP Table'!$A$2:$C$26,3)*SIGN(S47-S43),0)</f>
         <v/>
       </c>
-      <c r="AG47" s="7">
+      <c r="AG47" s="9">
         <f>IF(AND(ISNUMBER(S47),ISNUMBER(S44)),VLOOKUP(ABS(S47-S44),'IMP Table'!$A$2:$C$26,3)*SIGN(S47-S44),0)</f>
         <v/>
       </c>
-      <c r="AH47" s="7">
+      <c r="AH47" s="9">
         <f>IF(AND(ISNUMBER(S47),ISNUMBER(S45)),VLOOKUP(ABS(S47-S45),'IMP Table'!$A$2:$C$26,3)*SIGN(S47-S45),0)</f>
         <v/>
       </c>
-      <c r="AI47" s="7">
+      <c r="AI47" s="9">
         <f>IF(AND(ISNUMBER(S47),ISNUMBER(S46)),VLOOKUP(ABS(S47-S46),'IMP Table'!$A$2:$C$26,3)*SIGN(S47-S46),0)</f>
         <v/>
       </c>
@@ -7319,15 +7320,15 @@
         <f>SUM(AB48:AE48)</f>
         <v/>
       </c>
-      <c r="M48" s="5">
+      <c r="M48" s="7">
         <f>SUM(AF48:AI48)</f>
         <v/>
       </c>
-      <c r="N48" s="4">
+      <c r="N48" s="6">
         <f>IF(COUNT(T48:W48)&gt;0,P48/COUNT(T48:W48),0.5)</f>
         <v/>
       </c>
-      <c r="O48" s="4">
+      <c r="O48" s="6">
         <f>IF(COUNT(X48:AA48)&gt;0,Q48/COUNT(X48:AA48),0.5)</f>
         <v/>
       </c>
@@ -7457,15 +7458,15 @@
         <f>SUM(AB49:AE49)</f>
         <v/>
       </c>
-      <c r="M49" s="5">
+      <c r="M49" s="7">
         <f>SUM(AF49:AI49)</f>
         <v/>
       </c>
-      <c r="N49" s="4">
+      <c r="N49" s="6">
         <f>IF(COUNT(T49:W49)&gt;0,P49/COUNT(T49:W49),0.5)</f>
         <v/>
       </c>
-      <c r="O49" s="4">
+      <c r="O49" s="6">
         <f>IF(COUNT(X49:AA49)&gt;0,Q49/COUNT(X49:AA49),0.5)</f>
         <v/>
       </c>
@@ -7595,15 +7596,15 @@
         <f>SUM(AB50:AE50)</f>
         <v/>
       </c>
-      <c r="M50" s="5">
+      <c r="M50" s="7">
         <f>SUM(AF50:AI50)</f>
         <v/>
       </c>
-      <c r="N50" s="4">
+      <c r="N50" s="6">
         <f>IF(COUNT(T50:W50)&gt;0,P50/COUNT(T50:W50),0.5)</f>
         <v/>
       </c>
-      <c r="O50" s="4">
+      <c r="O50" s="6">
         <f>IF(COUNT(X50:AA50)&gt;0,Q50/COUNT(X50:AA50),0.5)</f>
         <v/>
       </c>
@@ -7733,15 +7734,15 @@
         <f>SUM(AB51:AE51)</f>
         <v/>
       </c>
-      <c r="M51" s="5">
+      <c r="M51" s="7">
         <f>SUM(AF51:AI51)</f>
         <v/>
       </c>
-      <c r="N51" s="4">
+      <c r="N51" s="6">
         <f>IF(COUNT(T51:W51)&gt;0,P51/COUNT(T51:W51),0.5)</f>
         <v/>
       </c>
-      <c r="O51" s="4">
+      <c r="O51" s="6">
         <f>IF(COUNT(X51:AA51)&gt;0,Q51/COUNT(X51:AA51),0.5)</f>
         <v/>
       </c>
@@ -7827,7 +7828,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="7" t="n"/>
+      <c r="A52" s="9" t="n"/>
       <c r="B52" s="19">
         <f>'By Round'!A63</f>
         <v/>
@@ -7848,23 +7849,23 @@
         <f>IF(ISBLANK('By Round'!F75),"",'By Round'!F75)</f>
         <v/>
       </c>
-      <c r="G52" s="7">
+      <c r="G52" s="9">
         <f>IF(ISBLANK('By Round'!G75),"",'By Round'!G75)</f>
         <v/>
       </c>
-      <c r="H52" s="7">
+      <c r="H52" s="9">
         <f>IF(ISBLANK('By Round'!H75),"",'By Round'!H75)</f>
         <v/>
       </c>
-      <c r="I52" s="7">
+      <c r="I52" s="9">
         <f>IF(ISBLANK('By Round'!I75),"",'By Round'!I75)</f>
         <v/>
       </c>
-      <c r="J52" s="7">
+      <c r="J52" s="9">
         <f>IF(ISBLANK('By Round'!J75),"",'By Round'!J75)</f>
         <v/>
       </c>
-      <c r="K52" s="7">
+      <c r="K52" s="9">
         <f>IF(ISBLANK('By Round'!K75),"",'By Round'!K75)</f>
         <v/>
       </c>
@@ -7872,95 +7873,95 @@
         <f>SUM(AB52:AE52)</f>
         <v/>
       </c>
-      <c r="M52" s="9">
+      <c r="M52" s="21">
         <f>SUM(AF52:AI52)</f>
         <v/>
       </c>
-      <c r="N52" s="8">
+      <c r="N52" s="22">
         <f>IF(COUNT(T52:W52)&gt;0,P52/COUNT(T52:W52),0.5)</f>
         <v/>
       </c>
-      <c r="O52" s="8">
+      <c r="O52" s="22">
         <f>IF(COUNT(X52:AA52)&gt;0,Q52/COUNT(X52:AA52),0.5)</f>
         <v/>
       </c>
-      <c r="P52" s="21">
+      <c r="P52" s="23">
         <f>SUM(T52:W52)</f>
         <v/>
       </c>
-      <c r="Q52" s="21">
+      <c r="Q52" s="23">
         <f>SUM(X52:AA52)</f>
         <v/>
       </c>
-      <c r="R52" s="22">
+      <c r="R52" s="24">
         <f>IF(ISNUMBER(J52),J52,IF(ISNUMBER(K52),-K52,""))</f>
         <v/>
       </c>
-      <c r="S52" s="7">
+      <c r="S52" s="9">
         <f>IF(ISNUMBER(K52),K52,IF(ISNUMBER(J52),-J52,""))</f>
         <v/>
       </c>
-      <c r="T52" s="22">
+      <c r="T52" s="24">
         <f>IF(ISNUMBER(R52),IF(ISNUMBER(R48),IF(R52&gt;R48,1.0,IF(R52=R48,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="U52" s="7">
+      <c r="U52" s="9">
         <f>IF(ISNUMBER(R52),IF(ISNUMBER(R49),IF(R52&gt;R49,1.0,IF(R52=R49,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="V52" s="7">
+      <c r="V52" s="9">
         <f>IF(ISNUMBER(R52),IF(ISNUMBER(R50),IF(R52&gt;R50,1.0,IF(R52=R50,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="W52" s="7">
+      <c r="W52" s="9">
         <f>IF(ISNUMBER(R52),IF(ISNUMBER(R51),IF(R52&gt;R51,1.0,IF(R52=R51,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="X52" s="7">
+      <c r="X52" s="9">
         <f>IF(ISNUMBER(S52),IF(ISNUMBER(S48),IF(S52&gt;S48,1.0,IF(S52=S48,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="Y52" s="7">
+      <c r="Y52" s="9">
         <f>IF(ISNUMBER(S52),IF(ISNUMBER(S49),IF(S52&gt;S49,1.0,IF(S52=S49,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="Z52" s="7">
+      <c r="Z52" s="9">
         <f>IF(ISNUMBER(S52),IF(ISNUMBER(S50),IF(S52&gt;S50,1.0,IF(S52=S50,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="AA52" s="7">
+      <c r="AA52" s="9">
         <f>IF(ISNUMBER(S52),IF(ISNUMBER(S51),IF(S52&gt;S51,1.0,IF(S52=S51,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="AB52" s="22">
+      <c r="AB52" s="24">
         <f>IF(AND(ISNUMBER(R52),ISNUMBER(R48)),VLOOKUP(ABS(R52-R48),'IMP Table'!$A$2:$C$26,3)*SIGN(R52-R48),0)</f>
         <v/>
       </c>
-      <c r="AC52" s="7">
+      <c r="AC52" s="9">
         <f>IF(AND(ISNUMBER(R52),ISNUMBER(R49)),VLOOKUP(ABS(R52-R49),'IMP Table'!$A$2:$C$26,3)*SIGN(R52-R49),0)</f>
         <v/>
       </c>
-      <c r="AD52" s="7">
+      <c r="AD52" s="9">
         <f>IF(AND(ISNUMBER(R52),ISNUMBER(R50)),VLOOKUP(ABS(R52-R50),'IMP Table'!$A$2:$C$26,3)*SIGN(R52-R50),0)</f>
         <v/>
       </c>
-      <c r="AE52" s="7">
+      <c r="AE52" s="9">
         <f>IF(AND(ISNUMBER(R52),ISNUMBER(R51)),VLOOKUP(ABS(R52-R51),'IMP Table'!$A$2:$C$26,3)*SIGN(R52-R51),0)</f>
         <v/>
       </c>
-      <c r="AF52" s="7">
+      <c r="AF52" s="9">
         <f>IF(AND(ISNUMBER(S52),ISNUMBER(S48)),VLOOKUP(ABS(S52-S48),'IMP Table'!$A$2:$C$26,3)*SIGN(S52-S48),0)</f>
         <v/>
       </c>
-      <c r="AG52" s="7">
+      <c r="AG52" s="9">
         <f>IF(AND(ISNUMBER(S52),ISNUMBER(S49)),VLOOKUP(ABS(S52-S49),'IMP Table'!$A$2:$C$26,3)*SIGN(S52-S49),0)</f>
         <v/>
       </c>
-      <c r="AH52" s="7">
+      <c r="AH52" s="9">
         <f>IF(AND(ISNUMBER(S52),ISNUMBER(S50)),VLOOKUP(ABS(S52-S50),'IMP Table'!$A$2:$C$26,3)*SIGN(S52-S50),0)</f>
         <v/>
       </c>
-      <c r="AI52" s="7">
+      <c r="AI52" s="9">
         <f>IF(AND(ISNUMBER(S52),ISNUMBER(S51)),VLOOKUP(ABS(S52-S51),'IMP Table'!$A$2:$C$26,3)*SIGN(S52-S51),0)</f>
         <v/>
       </c>
@@ -8013,15 +8014,15 @@
         <f>SUM(AB53:AE53)</f>
         <v/>
       </c>
-      <c r="M53" s="5">
+      <c r="M53" s="7">
         <f>SUM(AF53:AI53)</f>
         <v/>
       </c>
-      <c r="N53" s="4">
+      <c r="N53" s="6">
         <f>IF(COUNT(T53:W53)&gt;0,P53/COUNT(T53:W53),0.5)</f>
         <v/>
       </c>
-      <c r="O53" s="4">
+      <c r="O53" s="6">
         <f>IF(COUNT(X53:AA53)&gt;0,Q53/COUNT(X53:AA53),0.5)</f>
         <v/>
       </c>
@@ -8151,15 +8152,15 @@
         <f>SUM(AB54:AE54)</f>
         <v/>
       </c>
-      <c r="M54" s="5">
+      <c r="M54" s="7">
         <f>SUM(AF54:AI54)</f>
         <v/>
       </c>
-      <c r="N54" s="4">
+      <c r="N54" s="6">
         <f>IF(COUNT(T54:W54)&gt;0,P54/COUNT(T54:W54),0.5)</f>
         <v/>
       </c>
-      <c r="O54" s="4">
+      <c r="O54" s="6">
         <f>IF(COUNT(X54:AA54)&gt;0,Q54/COUNT(X54:AA54),0.5)</f>
         <v/>
       </c>
@@ -8289,15 +8290,15 @@
         <f>SUM(AB55:AE55)</f>
         <v/>
       </c>
-      <c r="M55" s="5">
+      <c r="M55" s="7">
         <f>SUM(AF55:AI55)</f>
         <v/>
       </c>
-      <c r="N55" s="4">
+      <c r="N55" s="6">
         <f>IF(COUNT(T55:W55)&gt;0,P55/COUNT(T55:W55),0.5)</f>
         <v/>
       </c>
-      <c r="O55" s="4">
+      <c r="O55" s="6">
         <f>IF(COUNT(X55:AA55)&gt;0,Q55/COUNT(X55:AA55),0.5)</f>
         <v/>
       </c>
@@ -8427,15 +8428,15 @@
         <f>SUM(AB56:AE56)</f>
         <v/>
       </c>
-      <c r="M56" s="5">
+      <c r="M56" s="7">
         <f>SUM(AF56:AI56)</f>
         <v/>
       </c>
-      <c r="N56" s="4">
+      <c r="N56" s="6">
         <f>IF(COUNT(T56:W56)&gt;0,P56/COUNT(T56:W56),0.5)</f>
         <v/>
       </c>
-      <c r="O56" s="4">
+      <c r="O56" s="6">
         <f>IF(COUNT(X56:AA56)&gt;0,Q56/COUNT(X56:AA56),0.5)</f>
         <v/>
       </c>
@@ -8521,7 +8522,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="7" t="n"/>
+      <c r="A57" s="9" t="n"/>
       <c r="B57" s="19">
         <f>'By Round'!A63</f>
         <v/>
@@ -8542,23 +8543,23 @@
         <f>IF(ISBLANK('By Round'!F76),"",'By Round'!F76)</f>
         <v/>
       </c>
-      <c r="G57" s="7">
+      <c r="G57" s="9">
         <f>IF(ISBLANK('By Round'!G76),"",'By Round'!G76)</f>
         <v/>
       </c>
-      <c r="H57" s="7">
+      <c r="H57" s="9">
         <f>IF(ISBLANK('By Round'!H76),"",'By Round'!H76)</f>
         <v/>
       </c>
-      <c r="I57" s="7">
+      <c r="I57" s="9">
         <f>IF(ISBLANK('By Round'!I76),"",'By Round'!I76)</f>
         <v/>
       </c>
-      <c r="J57" s="7">
+      <c r="J57" s="9">
         <f>IF(ISBLANK('By Round'!J76),"",'By Round'!J76)</f>
         <v/>
       </c>
-      <c r="K57" s="7">
+      <c r="K57" s="9">
         <f>IF(ISBLANK('By Round'!K76),"",'By Round'!K76)</f>
         <v/>
       </c>
@@ -8566,95 +8567,95 @@
         <f>SUM(AB57:AE57)</f>
         <v/>
       </c>
-      <c r="M57" s="9">
+      <c r="M57" s="21">
         <f>SUM(AF57:AI57)</f>
         <v/>
       </c>
-      <c r="N57" s="8">
+      <c r="N57" s="22">
         <f>IF(COUNT(T57:W57)&gt;0,P57/COUNT(T57:W57),0.5)</f>
         <v/>
       </c>
-      <c r="O57" s="8">
+      <c r="O57" s="22">
         <f>IF(COUNT(X57:AA57)&gt;0,Q57/COUNT(X57:AA57),0.5)</f>
         <v/>
       </c>
-      <c r="P57" s="21">
+      <c r="P57" s="23">
         <f>SUM(T57:W57)</f>
         <v/>
       </c>
-      <c r="Q57" s="21">
+      <c r="Q57" s="23">
         <f>SUM(X57:AA57)</f>
         <v/>
       </c>
-      <c r="R57" s="22">
+      <c r="R57" s="24">
         <f>IF(ISNUMBER(J57),J57,IF(ISNUMBER(K57),-K57,""))</f>
         <v/>
       </c>
-      <c r="S57" s="7">
+      <c r="S57" s="9">
         <f>IF(ISNUMBER(K57),K57,IF(ISNUMBER(J57),-J57,""))</f>
         <v/>
       </c>
-      <c r="T57" s="22">
+      <c r="T57" s="24">
         <f>IF(ISNUMBER(R57),IF(ISNUMBER(R53),IF(R57&gt;R53,1.0,IF(R57=R53,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="U57" s="7">
+      <c r="U57" s="9">
         <f>IF(ISNUMBER(R57),IF(ISNUMBER(R54),IF(R57&gt;R54,1.0,IF(R57=R54,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="V57" s="7">
+      <c r="V57" s="9">
         <f>IF(ISNUMBER(R57),IF(ISNUMBER(R55),IF(R57&gt;R55,1.0,IF(R57=R55,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="W57" s="7">
+      <c r="W57" s="9">
         <f>IF(ISNUMBER(R57),IF(ISNUMBER(R56),IF(R57&gt;R56,1.0,IF(R57=R56,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="X57" s="7">
+      <c r="X57" s="9">
         <f>IF(ISNUMBER(S57),IF(ISNUMBER(S53),IF(S57&gt;S53,1.0,IF(S57=S53,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="Y57" s="7">
+      <c r="Y57" s="9">
         <f>IF(ISNUMBER(S57),IF(ISNUMBER(S54),IF(S57&gt;S54,1.0,IF(S57=S54,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="Z57" s="7">
+      <c r="Z57" s="9">
         <f>IF(ISNUMBER(S57),IF(ISNUMBER(S55),IF(S57&gt;S55,1.0,IF(S57=S55,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="AA57" s="7">
+      <c r="AA57" s="9">
         <f>IF(ISNUMBER(S57),IF(ISNUMBER(S56),IF(S57&gt;S56,1.0,IF(S57=S56,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="AB57" s="22">
+      <c r="AB57" s="24">
         <f>IF(AND(ISNUMBER(R57),ISNUMBER(R53)),VLOOKUP(ABS(R57-R53),'IMP Table'!$A$2:$C$26,3)*SIGN(R57-R53),0)</f>
         <v/>
       </c>
-      <c r="AC57" s="7">
+      <c r="AC57" s="9">
         <f>IF(AND(ISNUMBER(R57),ISNUMBER(R54)),VLOOKUP(ABS(R57-R54),'IMP Table'!$A$2:$C$26,3)*SIGN(R57-R54),0)</f>
         <v/>
       </c>
-      <c r="AD57" s="7">
+      <c r="AD57" s="9">
         <f>IF(AND(ISNUMBER(R57),ISNUMBER(R55)),VLOOKUP(ABS(R57-R55),'IMP Table'!$A$2:$C$26,3)*SIGN(R57-R55),0)</f>
         <v/>
       </c>
-      <c r="AE57" s="7">
+      <c r="AE57" s="9">
         <f>IF(AND(ISNUMBER(R57),ISNUMBER(R56)),VLOOKUP(ABS(R57-R56),'IMP Table'!$A$2:$C$26,3)*SIGN(R57-R56),0)</f>
         <v/>
       </c>
-      <c r="AF57" s="7">
+      <c r="AF57" s="9">
         <f>IF(AND(ISNUMBER(S57),ISNUMBER(S53)),VLOOKUP(ABS(S57-S53),'IMP Table'!$A$2:$C$26,3)*SIGN(S57-S53),0)</f>
         <v/>
       </c>
-      <c r="AG57" s="7">
+      <c r="AG57" s="9">
         <f>IF(AND(ISNUMBER(S57),ISNUMBER(S54)),VLOOKUP(ABS(S57-S54),'IMP Table'!$A$2:$C$26,3)*SIGN(S57-S54),0)</f>
         <v/>
       </c>
-      <c r="AH57" s="7">
+      <c r="AH57" s="9">
         <f>IF(AND(ISNUMBER(S57),ISNUMBER(S55)),VLOOKUP(ABS(S57-S55),'IMP Table'!$A$2:$C$26,3)*SIGN(S57-S55),0)</f>
         <v/>
       </c>
-      <c r="AI57" s="7">
+      <c r="AI57" s="9">
         <f>IF(AND(ISNUMBER(S57),ISNUMBER(S56)),VLOOKUP(ABS(S57-S56),'IMP Table'!$A$2:$C$26,3)*SIGN(S57-S56),0)</f>
         <v/>
       </c>
@@ -8707,15 +8708,15 @@
         <f>SUM(AB58:AE58)</f>
         <v/>
       </c>
-      <c r="M58" s="5">
+      <c r="M58" s="7">
         <f>SUM(AF58:AI58)</f>
         <v/>
       </c>
-      <c r="N58" s="4">
+      <c r="N58" s="6">
         <f>IF(COUNT(T58:W58)&gt;0,P58/COUNT(T58:W58),0.5)</f>
         <v/>
       </c>
-      <c r="O58" s="4">
+      <c r="O58" s="6">
         <f>IF(COUNT(X58:AA58)&gt;0,Q58/COUNT(X58:AA58),0.5)</f>
         <v/>
       </c>
@@ -8845,15 +8846,15 @@
         <f>SUM(AB59:AE59)</f>
         <v/>
       </c>
-      <c r="M59" s="5">
+      <c r="M59" s="7">
         <f>SUM(AF59:AI59)</f>
         <v/>
       </c>
-      <c r="N59" s="4">
+      <c r="N59" s="6">
         <f>IF(COUNT(T59:W59)&gt;0,P59/COUNT(T59:W59),0.5)</f>
         <v/>
       </c>
-      <c r="O59" s="4">
+      <c r="O59" s="6">
         <f>IF(COUNT(X59:AA59)&gt;0,Q59/COUNT(X59:AA59),0.5)</f>
         <v/>
       </c>
@@ -8983,15 +8984,15 @@
         <f>SUM(AB60:AE60)</f>
         <v/>
       </c>
-      <c r="M60" s="5">
+      <c r="M60" s="7">
         <f>SUM(AF60:AI60)</f>
         <v/>
       </c>
-      <c r="N60" s="4">
+      <c r="N60" s="6">
         <f>IF(COUNT(T60:W60)&gt;0,P60/COUNT(T60:W60),0.5)</f>
         <v/>
       </c>
-      <c r="O60" s="4">
+      <c r="O60" s="6">
         <f>IF(COUNT(X60:AA60)&gt;0,Q60/COUNT(X60:AA60),0.5)</f>
         <v/>
       </c>
@@ -9121,15 +9122,15 @@
         <f>SUM(AB61:AE61)</f>
         <v/>
       </c>
-      <c r="M61" s="5">
+      <c r="M61" s="7">
         <f>SUM(AF61:AI61)</f>
         <v/>
       </c>
-      <c r="N61" s="4">
+      <c r="N61" s="6">
         <f>IF(COUNT(T61:W61)&gt;0,P61/COUNT(T61:W61),0.5)</f>
         <v/>
       </c>
-      <c r="O61" s="4">
+      <c r="O61" s="6">
         <f>IF(COUNT(X61:AA61)&gt;0,Q61/COUNT(X61:AA61),0.5)</f>
         <v/>
       </c>
@@ -9215,7 +9216,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="7" t="n"/>
+      <c r="A62" s="9" t="n"/>
       <c r="B62" s="19">
         <f>'By Round'!A63</f>
         <v/>
@@ -9236,23 +9237,23 @@
         <f>IF(ISBLANK('By Round'!F77),"",'By Round'!F77)</f>
         <v/>
       </c>
-      <c r="G62" s="7">
+      <c r="G62" s="9">
         <f>IF(ISBLANK('By Round'!G77),"",'By Round'!G77)</f>
         <v/>
       </c>
-      <c r="H62" s="7">
+      <c r="H62" s="9">
         <f>IF(ISBLANK('By Round'!H77),"",'By Round'!H77)</f>
         <v/>
       </c>
-      <c r="I62" s="7">
+      <c r="I62" s="9">
         <f>IF(ISBLANK('By Round'!I77),"",'By Round'!I77)</f>
         <v/>
       </c>
-      <c r="J62" s="7">
+      <c r="J62" s="9">
         <f>IF(ISBLANK('By Round'!J77),"",'By Round'!J77)</f>
         <v/>
       </c>
-      <c r="K62" s="7">
+      <c r="K62" s="9">
         <f>IF(ISBLANK('By Round'!K77),"",'By Round'!K77)</f>
         <v/>
       </c>
@@ -9260,95 +9261,95 @@
         <f>SUM(AB62:AE62)</f>
         <v/>
       </c>
-      <c r="M62" s="9">
+      <c r="M62" s="21">
         <f>SUM(AF62:AI62)</f>
         <v/>
       </c>
-      <c r="N62" s="8">
+      <c r="N62" s="22">
         <f>IF(COUNT(T62:W62)&gt;0,P62/COUNT(T62:W62),0.5)</f>
         <v/>
       </c>
-      <c r="O62" s="8">
+      <c r="O62" s="22">
         <f>IF(COUNT(X62:AA62)&gt;0,Q62/COUNT(X62:AA62),0.5)</f>
         <v/>
       </c>
-      <c r="P62" s="21">
+      <c r="P62" s="23">
         <f>SUM(T62:W62)</f>
         <v/>
       </c>
-      <c r="Q62" s="21">
+      <c r="Q62" s="23">
         <f>SUM(X62:AA62)</f>
         <v/>
       </c>
-      <c r="R62" s="22">
+      <c r="R62" s="24">
         <f>IF(ISNUMBER(J62),J62,IF(ISNUMBER(K62),-K62,""))</f>
         <v/>
       </c>
-      <c r="S62" s="7">
+      <c r="S62" s="9">
         <f>IF(ISNUMBER(K62),K62,IF(ISNUMBER(J62),-J62,""))</f>
         <v/>
       </c>
-      <c r="T62" s="22">
+      <c r="T62" s="24">
         <f>IF(ISNUMBER(R62),IF(ISNUMBER(R58),IF(R62&gt;R58,1.0,IF(R62=R58,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="U62" s="7">
+      <c r="U62" s="9">
         <f>IF(ISNUMBER(R62),IF(ISNUMBER(R59),IF(R62&gt;R59,1.0,IF(R62=R59,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="V62" s="7">
+      <c r="V62" s="9">
         <f>IF(ISNUMBER(R62),IF(ISNUMBER(R60),IF(R62&gt;R60,1.0,IF(R62=R60,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="W62" s="7">
+      <c r="W62" s="9">
         <f>IF(ISNUMBER(R62),IF(ISNUMBER(R61),IF(R62&gt;R61,1.0,IF(R62=R61,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="X62" s="7">
+      <c r="X62" s="9">
         <f>IF(ISNUMBER(S62),IF(ISNUMBER(S58),IF(S62&gt;S58,1.0,IF(S62=S58,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="Y62" s="7">
+      <c r="Y62" s="9">
         <f>IF(ISNUMBER(S62),IF(ISNUMBER(S59),IF(S62&gt;S59,1.0,IF(S62=S59,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="Z62" s="7">
+      <c r="Z62" s="9">
         <f>IF(ISNUMBER(S62),IF(ISNUMBER(S60),IF(S62&gt;S60,1.0,IF(S62=S60,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="AA62" s="7">
+      <c r="AA62" s="9">
         <f>IF(ISNUMBER(S62),IF(ISNUMBER(S61),IF(S62&gt;S61,1.0,IF(S62=S61,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="AB62" s="22">
+      <c r="AB62" s="24">
         <f>IF(AND(ISNUMBER(R62),ISNUMBER(R58)),VLOOKUP(ABS(R62-R58),'IMP Table'!$A$2:$C$26,3)*SIGN(R62-R58),0)</f>
         <v/>
       </c>
-      <c r="AC62" s="7">
+      <c r="AC62" s="9">
         <f>IF(AND(ISNUMBER(R62),ISNUMBER(R59)),VLOOKUP(ABS(R62-R59),'IMP Table'!$A$2:$C$26,3)*SIGN(R62-R59),0)</f>
         <v/>
       </c>
-      <c r="AD62" s="7">
+      <c r="AD62" s="9">
         <f>IF(AND(ISNUMBER(R62),ISNUMBER(R60)),VLOOKUP(ABS(R62-R60),'IMP Table'!$A$2:$C$26,3)*SIGN(R62-R60),0)</f>
         <v/>
       </c>
-      <c r="AE62" s="7">
+      <c r="AE62" s="9">
         <f>IF(AND(ISNUMBER(R62),ISNUMBER(R61)),VLOOKUP(ABS(R62-R61),'IMP Table'!$A$2:$C$26,3)*SIGN(R62-R61),0)</f>
         <v/>
       </c>
-      <c r="AF62" s="7">
+      <c r="AF62" s="9">
         <f>IF(AND(ISNUMBER(S62),ISNUMBER(S58)),VLOOKUP(ABS(S62-S58),'IMP Table'!$A$2:$C$26,3)*SIGN(S62-S58),0)</f>
         <v/>
       </c>
-      <c r="AG62" s="7">
+      <c r="AG62" s="9">
         <f>IF(AND(ISNUMBER(S62),ISNUMBER(S59)),VLOOKUP(ABS(S62-S59),'IMP Table'!$A$2:$C$26,3)*SIGN(S62-S59),0)</f>
         <v/>
       </c>
-      <c r="AH62" s="7">
+      <c r="AH62" s="9">
         <f>IF(AND(ISNUMBER(S62),ISNUMBER(S60)),VLOOKUP(ABS(S62-S60),'IMP Table'!$A$2:$C$26,3)*SIGN(S62-S60),0)</f>
         <v/>
       </c>
-      <c r="AI62" s="7">
+      <c r="AI62" s="9">
         <f>IF(AND(ISNUMBER(S62),ISNUMBER(S61)),VLOOKUP(ABS(S62-S61),'IMP Table'!$A$2:$C$26,3)*SIGN(S62-S61),0)</f>
         <v/>
       </c>
@@ -9401,15 +9402,15 @@
         <f>SUM(AB63:AE63)</f>
         <v/>
       </c>
-      <c r="M63" s="5">
+      <c r="M63" s="7">
         <f>SUM(AF63:AI63)</f>
         <v/>
       </c>
-      <c r="N63" s="4">
+      <c r="N63" s="6">
         <f>IF(COUNT(T63:W63)&gt;0,P63/COUNT(T63:W63),0.5)</f>
         <v/>
       </c>
-      <c r="O63" s="4">
+      <c r="O63" s="6">
         <f>IF(COUNT(X63:AA63)&gt;0,Q63/COUNT(X63:AA63),0.5)</f>
         <v/>
       </c>
@@ -9539,15 +9540,15 @@
         <f>SUM(AB64:AE64)</f>
         <v/>
       </c>
-      <c r="M64" s="5">
+      <c r="M64" s="7">
         <f>SUM(AF64:AI64)</f>
         <v/>
       </c>
-      <c r="N64" s="4">
+      <c r="N64" s="6">
         <f>IF(COUNT(T64:W64)&gt;0,P64/COUNT(T64:W64),0.5)</f>
         <v/>
       </c>
-      <c r="O64" s="4">
+      <c r="O64" s="6">
         <f>IF(COUNT(X64:AA64)&gt;0,Q64/COUNT(X64:AA64),0.5)</f>
         <v/>
       </c>
@@ -9677,15 +9678,15 @@
         <f>SUM(AB65:AE65)</f>
         <v/>
       </c>
-      <c r="M65" s="5">
+      <c r="M65" s="7">
         <f>SUM(AF65:AI65)</f>
         <v/>
       </c>
-      <c r="N65" s="4">
+      <c r="N65" s="6">
         <f>IF(COUNT(T65:W65)&gt;0,P65/COUNT(T65:W65),0.5)</f>
         <v/>
       </c>
-      <c r="O65" s="4">
+      <c r="O65" s="6">
         <f>IF(COUNT(X65:AA65)&gt;0,Q65/COUNT(X65:AA65),0.5)</f>
         <v/>
       </c>
@@ -9815,15 +9816,15 @@
         <f>SUM(AB66:AE66)</f>
         <v/>
       </c>
-      <c r="M66" s="5">
+      <c r="M66" s="7">
         <f>SUM(AF66:AI66)</f>
         <v/>
       </c>
-      <c r="N66" s="4">
+      <c r="N66" s="6">
         <f>IF(COUNT(T66:W66)&gt;0,P66/COUNT(T66:W66),0.5)</f>
         <v/>
       </c>
-      <c r="O66" s="4">
+      <c r="O66" s="6">
         <f>IF(COUNT(X66:AA66)&gt;0,Q66/COUNT(X66:AA66),0.5)</f>
         <v/>
       </c>
@@ -9909,7 +9910,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="7" t="n"/>
+      <c r="A67" s="9" t="n"/>
       <c r="B67" s="19">
         <f>'By Round'!A63</f>
         <v/>
@@ -9930,23 +9931,23 @@
         <f>IF(ISBLANK('By Round'!F63),"",'By Round'!F63)</f>
         <v/>
       </c>
-      <c r="G67" s="7">
+      <c r="G67" s="9">
         <f>IF(ISBLANK('By Round'!G63),"",'By Round'!G63)</f>
         <v/>
       </c>
-      <c r="H67" s="7">
+      <c r="H67" s="9">
         <f>IF(ISBLANK('By Round'!H63),"",'By Round'!H63)</f>
         <v/>
       </c>
-      <c r="I67" s="7">
+      <c r="I67" s="9">
         <f>IF(ISBLANK('By Round'!I63),"",'By Round'!I63)</f>
         <v/>
       </c>
-      <c r="J67" s="7">
+      <c r="J67" s="9">
         <f>IF(ISBLANK('By Round'!J63),"",'By Round'!J63)</f>
         <v/>
       </c>
-      <c r="K67" s="7">
+      <c r="K67" s="9">
         <f>IF(ISBLANK('By Round'!K63),"",'By Round'!K63)</f>
         <v/>
       </c>
@@ -9954,95 +9955,95 @@
         <f>SUM(AB67:AE67)</f>
         <v/>
       </c>
-      <c r="M67" s="9">
+      <c r="M67" s="21">
         <f>SUM(AF67:AI67)</f>
         <v/>
       </c>
-      <c r="N67" s="8">
+      <c r="N67" s="22">
         <f>IF(COUNT(T67:W67)&gt;0,P67/COUNT(T67:W67),0.5)</f>
         <v/>
       </c>
-      <c r="O67" s="8">
+      <c r="O67" s="22">
         <f>IF(COUNT(X67:AA67)&gt;0,Q67/COUNT(X67:AA67),0.5)</f>
         <v/>
       </c>
-      <c r="P67" s="21">
+      <c r="P67" s="23">
         <f>SUM(T67:W67)</f>
         <v/>
       </c>
-      <c r="Q67" s="21">
+      <c r="Q67" s="23">
         <f>SUM(X67:AA67)</f>
         <v/>
       </c>
-      <c r="R67" s="22">
+      <c r="R67" s="24">
         <f>IF(ISNUMBER(J67),J67,IF(ISNUMBER(K67),-K67,""))</f>
         <v/>
       </c>
-      <c r="S67" s="7">
+      <c r="S67" s="9">
         <f>IF(ISNUMBER(K67),K67,IF(ISNUMBER(J67),-J67,""))</f>
         <v/>
       </c>
-      <c r="T67" s="22">
+      <c r="T67" s="24">
         <f>IF(ISNUMBER(R67),IF(ISNUMBER(R63),IF(R67&gt;R63,1.0,IF(R67=R63,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="U67" s="7">
+      <c r="U67" s="9">
         <f>IF(ISNUMBER(R67),IF(ISNUMBER(R64),IF(R67&gt;R64,1.0,IF(R67=R64,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="V67" s="7">
+      <c r="V67" s="9">
         <f>IF(ISNUMBER(R67),IF(ISNUMBER(R65),IF(R67&gt;R65,1.0,IF(R67=R65,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="W67" s="7">
+      <c r="W67" s="9">
         <f>IF(ISNUMBER(R67),IF(ISNUMBER(R66),IF(R67&gt;R66,1.0,IF(R67=R66,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="X67" s="7">
+      <c r="X67" s="9">
         <f>IF(ISNUMBER(S67),IF(ISNUMBER(S63),IF(S67&gt;S63,1.0,IF(S67=S63,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="Y67" s="7">
+      <c r="Y67" s="9">
         <f>IF(ISNUMBER(S67),IF(ISNUMBER(S64),IF(S67&gt;S64,1.0,IF(S67=S64,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="Z67" s="7">
+      <c r="Z67" s="9">
         <f>IF(ISNUMBER(S67),IF(ISNUMBER(S65),IF(S67&gt;S65,1.0,IF(S67=S65,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="AA67" s="7">
+      <c r="AA67" s="9">
         <f>IF(ISNUMBER(S67),IF(ISNUMBER(S66),IF(S67&gt;S66,1.0,IF(S67=S66,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="AB67" s="22">
+      <c r="AB67" s="24">
         <f>IF(AND(ISNUMBER(R67),ISNUMBER(R63)),VLOOKUP(ABS(R67-R63),'IMP Table'!$A$2:$C$26,3)*SIGN(R67-R63),0)</f>
         <v/>
       </c>
-      <c r="AC67" s="7">
+      <c r="AC67" s="9">
         <f>IF(AND(ISNUMBER(R67),ISNUMBER(R64)),VLOOKUP(ABS(R67-R64),'IMP Table'!$A$2:$C$26,3)*SIGN(R67-R64),0)</f>
         <v/>
       </c>
-      <c r="AD67" s="7">
+      <c r="AD67" s="9">
         <f>IF(AND(ISNUMBER(R67),ISNUMBER(R65)),VLOOKUP(ABS(R67-R65),'IMP Table'!$A$2:$C$26,3)*SIGN(R67-R65),0)</f>
         <v/>
       </c>
-      <c r="AE67" s="7">
+      <c r="AE67" s="9">
         <f>IF(AND(ISNUMBER(R67),ISNUMBER(R66)),VLOOKUP(ABS(R67-R66),'IMP Table'!$A$2:$C$26,3)*SIGN(R67-R66),0)</f>
         <v/>
       </c>
-      <c r="AF67" s="7">
+      <c r="AF67" s="9">
         <f>IF(AND(ISNUMBER(S67),ISNUMBER(S63)),VLOOKUP(ABS(S67-S63),'IMP Table'!$A$2:$C$26,3)*SIGN(S67-S63),0)</f>
         <v/>
       </c>
-      <c r="AG67" s="7">
+      <c r="AG67" s="9">
         <f>IF(AND(ISNUMBER(S67),ISNUMBER(S64)),VLOOKUP(ABS(S67-S64),'IMP Table'!$A$2:$C$26,3)*SIGN(S67-S64),0)</f>
         <v/>
       </c>
-      <c r="AH67" s="7">
+      <c r="AH67" s="9">
         <f>IF(AND(ISNUMBER(S67),ISNUMBER(S65)),VLOOKUP(ABS(S67-S65),'IMP Table'!$A$2:$C$26,3)*SIGN(S67-S65),0)</f>
         <v/>
       </c>
-      <c r="AI67" s="7">
+      <c r="AI67" s="9">
         <f>IF(AND(ISNUMBER(S67),ISNUMBER(S66)),VLOOKUP(ABS(S67-S66),'IMP Table'!$A$2:$C$26,3)*SIGN(S67-S66),0)</f>
         <v/>
       </c>
@@ -10095,15 +10096,15 @@
         <f>SUM(AB68:AE68)</f>
         <v/>
       </c>
-      <c r="M68" s="5">
+      <c r="M68" s="7">
         <f>SUM(AF68:AI68)</f>
         <v/>
       </c>
-      <c r="N68" s="4">
+      <c r="N68" s="6">
         <f>IF(COUNT(T68:W68)&gt;0,P68/COUNT(T68:W68),0.5)</f>
         <v/>
       </c>
-      <c r="O68" s="4">
+      <c r="O68" s="6">
         <f>IF(COUNT(X68:AA68)&gt;0,Q68/COUNT(X68:AA68),0.5)</f>
         <v/>
       </c>
@@ -10233,15 +10234,15 @@
         <f>SUM(AB69:AE69)</f>
         <v/>
       </c>
-      <c r="M69" s="5">
+      <c r="M69" s="7">
         <f>SUM(AF69:AI69)</f>
         <v/>
       </c>
-      <c r="N69" s="4">
+      <c r="N69" s="6">
         <f>IF(COUNT(T69:W69)&gt;0,P69/COUNT(T69:W69),0.5)</f>
         <v/>
       </c>
-      <c r="O69" s="4">
+      <c r="O69" s="6">
         <f>IF(COUNT(X69:AA69)&gt;0,Q69/COUNT(X69:AA69),0.5)</f>
         <v/>
       </c>
@@ -10371,15 +10372,15 @@
         <f>SUM(AB70:AE70)</f>
         <v/>
       </c>
-      <c r="M70" s="5">
+      <c r="M70" s="7">
         <f>SUM(AF70:AI70)</f>
         <v/>
       </c>
-      <c r="N70" s="4">
+      <c r="N70" s="6">
         <f>IF(COUNT(T70:W70)&gt;0,P70/COUNT(T70:W70),0.5)</f>
         <v/>
       </c>
-      <c r="O70" s="4">
+      <c r="O70" s="6">
         <f>IF(COUNT(X70:AA70)&gt;0,Q70/COUNT(X70:AA70),0.5)</f>
         <v/>
       </c>
@@ -10509,15 +10510,15 @@
         <f>SUM(AB71:AE71)</f>
         <v/>
       </c>
-      <c r="M71" s="5">
+      <c r="M71" s="7">
         <f>SUM(AF71:AI71)</f>
         <v/>
       </c>
-      <c r="N71" s="4">
+      <c r="N71" s="6">
         <f>IF(COUNT(T71:W71)&gt;0,P71/COUNT(T71:W71),0.5)</f>
         <v/>
       </c>
-      <c r="O71" s="4">
+      <c r="O71" s="6">
         <f>IF(COUNT(X71:AA71)&gt;0,Q71/COUNT(X71:AA71),0.5)</f>
         <v/>
       </c>
@@ -10603,7 +10604,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="7" t="n"/>
+      <c r="A72" s="9" t="n"/>
       <c r="B72" s="19">
         <f>'By Round'!A63</f>
         <v/>
@@ -10624,23 +10625,23 @@
         <f>IF(ISBLANK('By Round'!F64),"",'By Round'!F64)</f>
         <v/>
       </c>
-      <c r="G72" s="7">
+      <c r="G72" s="9">
         <f>IF(ISBLANK('By Round'!G64),"",'By Round'!G64)</f>
         <v/>
       </c>
-      <c r="H72" s="7">
+      <c r="H72" s="9">
         <f>IF(ISBLANK('By Round'!H64),"",'By Round'!H64)</f>
         <v/>
       </c>
-      <c r="I72" s="7">
+      <c r="I72" s="9">
         <f>IF(ISBLANK('By Round'!I64),"",'By Round'!I64)</f>
         <v/>
       </c>
-      <c r="J72" s="7">
+      <c r="J72" s="9">
         <f>IF(ISBLANK('By Round'!J64),"",'By Round'!J64)</f>
         <v/>
       </c>
-      <c r="K72" s="7">
+      <c r="K72" s="9">
         <f>IF(ISBLANK('By Round'!K64),"",'By Round'!K64)</f>
         <v/>
       </c>
@@ -10648,95 +10649,95 @@
         <f>SUM(AB72:AE72)</f>
         <v/>
       </c>
-      <c r="M72" s="9">
+      <c r="M72" s="21">
         <f>SUM(AF72:AI72)</f>
         <v/>
       </c>
-      <c r="N72" s="8">
+      <c r="N72" s="22">
         <f>IF(COUNT(T72:W72)&gt;0,P72/COUNT(T72:W72),0.5)</f>
         <v/>
       </c>
-      <c r="O72" s="8">
+      <c r="O72" s="22">
         <f>IF(COUNT(X72:AA72)&gt;0,Q72/COUNT(X72:AA72),0.5)</f>
         <v/>
       </c>
-      <c r="P72" s="21">
+      <c r="P72" s="23">
         <f>SUM(T72:W72)</f>
         <v/>
       </c>
-      <c r="Q72" s="21">
+      <c r="Q72" s="23">
         <f>SUM(X72:AA72)</f>
         <v/>
       </c>
-      <c r="R72" s="22">
+      <c r="R72" s="24">
         <f>IF(ISNUMBER(J72),J72,IF(ISNUMBER(K72),-K72,""))</f>
         <v/>
       </c>
-      <c r="S72" s="7">
+      <c r="S72" s="9">
         <f>IF(ISNUMBER(K72),K72,IF(ISNUMBER(J72),-J72,""))</f>
         <v/>
       </c>
-      <c r="T72" s="22">
+      <c r="T72" s="24">
         <f>IF(ISNUMBER(R72),IF(ISNUMBER(R68),IF(R72&gt;R68,1.0,IF(R72=R68,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="U72" s="7">
+      <c r="U72" s="9">
         <f>IF(ISNUMBER(R72),IF(ISNUMBER(R69),IF(R72&gt;R69,1.0,IF(R72=R69,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="V72" s="7">
+      <c r="V72" s="9">
         <f>IF(ISNUMBER(R72),IF(ISNUMBER(R70),IF(R72&gt;R70,1.0,IF(R72=R70,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="W72" s="7">
+      <c r="W72" s="9">
         <f>IF(ISNUMBER(R72),IF(ISNUMBER(R71),IF(R72&gt;R71,1.0,IF(R72=R71,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="X72" s="7">
+      <c r="X72" s="9">
         <f>IF(ISNUMBER(S72),IF(ISNUMBER(S68),IF(S72&gt;S68,1.0,IF(S72=S68,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="Y72" s="7">
+      <c r="Y72" s="9">
         <f>IF(ISNUMBER(S72),IF(ISNUMBER(S69),IF(S72&gt;S69,1.0,IF(S72=S69,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="Z72" s="7">
+      <c r="Z72" s="9">
         <f>IF(ISNUMBER(S72),IF(ISNUMBER(S70),IF(S72&gt;S70,1.0,IF(S72=S70,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="AA72" s="7">
+      <c r="AA72" s="9">
         <f>IF(ISNUMBER(S72),IF(ISNUMBER(S71),IF(S72&gt;S71,1.0,IF(S72=S71,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="AB72" s="22">
+      <c r="AB72" s="24">
         <f>IF(AND(ISNUMBER(R72),ISNUMBER(R68)),VLOOKUP(ABS(R72-R68),'IMP Table'!$A$2:$C$26,3)*SIGN(R72-R68),0)</f>
         <v/>
       </c>
-      <c r="AC72" s="7">
+      <c r="AC72" s="9">
         <f>IF(AND(ISNUMBER(R72),ISNUMBER(R69)),VLOOKUP(ABS(R72-R69),'IMP Table'!$A$2:$C$26,3)*SIGN(R72-R69),0)</f>
         <v/>
       </c>
-      <c r="AD72" s="7">
+      <c r="AD72" s="9">
         <f>IF(AND(ISNUMBER(R72),ISNUMBER(R70)),VLOOKUP(ABS(R72-R70),'IMP Table'!$A$2:$C$26,3)*SIGN(R72-R70),0)</f>
         <v/>
       </c>
-      <c r="AE72" s="7">
+      <c r="AE72" s="9">
         <f>IF(AND(ISNUMBER(R72),ISNUMBER(R71)),VLOOKUP(ABS(R72-R71),'IMP Table'!$A$2:$C$26,3)*SIGN(R72-R71),0)</f>
         <v/>
       </c>
-      <c r="AF72" s="7">
+      <c r="AF72" s="9">
         <f>IF(AND(ISNUMBER(S72),ISNUMBER(S68)),VLOOKUP(ABS(S72-S68),'IMP Table'!$A$2:$C$26,3)*SIGN(S72-S68),0)</f>
         <v/>
       </c>
-      <c r="AG72" s="7">
+      <c r="AG72" s="9">
         <f>IF(AND(ISNUMBER(S72),ISNUMBER(S69)),VLOOKUP(ABS(S72-S69),'IMP Table'!$A$2:$C$26,3)*SIGN(S72-S69),0)</f>
         <v/>
       </c>
-      <c r="AH72" s="7">
+      <c r="AH72" s="9">
         <f>IF(AND(ISNUMBER(S72),ISNUMBER(S70)),VLOOKUP(ABS(S72-S70),'IMP Table'!$A$2:$C$26,3)*SIGN(S72-S70),0)</f>
         <v/>
       </c>
-      <c r="AI72" s="7">
+      <c r="AI72" s="9">
         <f>IF(AND(ISNUMBER(S72),ISNUMBER(S71)),VLOOKUP(ABS(S72-S71),'IMP Table'!$A$2:$C$26,3)*SIGN(S72-S71),0)</f>
         <v/>
       </c>
@@ -10789,15 +10790,15 @@
         <f>SUM(AB73:AE73)</f>
         <v/>
       </c>
-      <c r="M73" s="5">
+      <c r="M73" s="7">
         <f>SUM(AF73:AI73)</f>
         <v/>
       </c>
-      <c r="N73" s="4">
+      <c r="N73" s="6">
         <f>IF(COUNT(T73:W73)&gt;0,P73/COUNT(T73:W73),0.5)</f>
         <v/>
       </c>
-      <c r="O73" s="4">
+      <c r="O73" s="6">
         <f>IF(COUNT(X73:AA73)&gt;0,Q73/COUNT(X73:AA73),0.5)</f>
         <v/>
       </c>
@@ -10927,15 +10928,15 @@
         <f>SUM(AB74:AE74)</f>
         <v/>
       </c>
-      <c r="M74" s="5">
+      <c r="M74" s="7">
         <f>SUM(AF74:AI74)</f>
         <v/>
       </c>
-      <c r="N74" s="4">
+      <c r="N74" s="6">
         <f>IF(COUNT(T74:W74)&gt;0,P74/COUNT(T74:W74),0.5)</f>
         <v/>
       </c>
-      <c r="O74" s="4">
+      <c r="O74" s="6">
         <f>IF(COUNT(X74:AA74)&gt;0,Q74/COUNT(X74:AA74),0.5)</f>
         <v/>
       </c>
@@ -11065,15 +11066,15 @@
         <f>SUM(AB75:AE75)</f>
         <v/>
       </c>
-      <c r="M75" s="5">
+      <c r="M75" s="7">
         <f>SUM(AF75:AI75)</f>
         <v/>
       </c>
-      <c r="N75" s="4">
+      <c r="N75" s="6">
         <f>IF(COUNT(T75:W75)&gt;0,P75/COUNT(T75:W75),0.5)</f>
         <v/>
       </c>
-      <c r="O75" s="4">
+      <c r="O75" s="6">
         <f>IF(COUNT(X75:AA75)&gt;0,Q75/COUNT(X75:AA75),0.5)</f>
         <v/>
       </c>
@@ -11203,15 +11204,15 @@
         <f>SUM(AB76:AE76)</f>
         <v/>
       </c>
-      <c r="M76" s="5">
+      <c r="M76" s="7">
         <f>SUM(AF76:AI76)</f>
         <v/>
       </c>
-      <c r="N76" s="4">
+      <c r="N76" s="6">
         <f>IF(COUNT(T76:W76)&gt;0,P76/COUNT(T76:W76),0.5)</f>
         <v/>
       </c>
-      <c r="O76" s="4">
+      <c r="O76" s="6">
         <f>IF(COUNT(X76:AA76)&gt;0,Q76/COUNT(X76:AA76),0.5)</f>
         <v/>
       </c>
@@ -11297,7 +11298,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="7" t="n"/>
+      <c r="A77" s="9" t="n"/>
       <c r="B77" s="19">
         <f>'By Round'!A63</f>
         <v/>
@@ -11318,23 +11319,23 @@
         <f>IF(ISBLANK('By Round'!F65),"",'By Round'!F65)</f>
         <v/>
       </c>
-      <c r="G77" s="7">
+      <c r="G77" s="9">
         <f>IF(ISBLANK('By Round'!G65),"",'By Round'!G65)</f>
         <v/>
       </c>
-      <c r="H77" s="7">
+      <c r="H77" s="9">
         <f>IF(ISBLANK('By Round'!H65),"",'By Round'!H65)</f>
         <v/>
       </c>
-      <c r="I77" s="7">
+      <c r="I77" s="9">
         <f>IF(ISBLANK('By Round'!I65),"",'By Round'!I65)</f>
         <v/>
       </c>
-      <c r="J77" s="7">
+      <c r="J77" s="9">
         <f>IF(ISBLANK('By Round'!J65),"",'By Round'!J65)</f>
         <v/>
       </c>
-      <c r="K77" s="7">
+      <c r="K77" s="9">
         <f>IF(ISBLANK('By Round'!K65),"",'By Round'!K65)</f>
         <v/>
       </c>
@@ -11342,95 +11343,95 @@
         <f>SUM(AB77:AE77)</f>
         <v/>
       </c>
-      <c r="M77" s="9">
+      <c r="M77" s="21">
         <f>SUM(AF77:AI77)</f>
         <v/>
       </c>
-      <c r="N77" s="8">
+      <c r="N77" s="22">
         <f>IF(COUNT(T77:W77)&gt;0,P77/COUNT(T77:W77),0.5)</f>
         <v/>
       </c>
-      <c r="O77" s="8">
+      <c r="O77" s="22">
         <f>IF(COUNT(X77:AA77)&gt;0,Q77/COUNT(X77:AA77),0.5)</f>
         <v/>
       </c>
-      <c r="P77" s="21">
+      <c r="P77" s="23">
         <f>SUM(T77:W77)</f>
         <v/>
       </c>
-      <c r="Q77" s="21">
+      <c r="Q77" s="23">
         <f>SUM(X77:AA77)</f>
         <v/>
       </c>
-      <c r="R77" s="22">
+      <c r="R77" s="24">
         <f>IF(ISNUMBER(J77),J77,IF(ISNUMBER(K77),-K77,""))</f>
         <v/>
       </c>
-      <c r="S77" s="7">
+      <c r="S77" s="9">
         <f>IF(ISNUMBER(K77),K77,IF(ISNUMBER(J77),-J77,""))</f>
         <v/>
       </c>
-      <c r="T77" s="22">
+      <c r="T77" s="24">
         <f>IF(ISNUMBER(R77),IF(ISNUMBER(R73),IF(R77&gt;R73,1.0,IF(R77=R73,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="U77" s="7">
+      <c r="U77" s="9">
         <f>IF(ISNUMBER(R77),IF(ISNUMBER(R74),IF(R77&gt;R74,1.0,IF(R77=R74,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="V77" s="7">
+      <c r="V77" s="9">
         <f>IF(ISNUMBER(R77),IF(ISNUMBER(R75),IF(R77&gt;R75,1.0,IF(R77=R75,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="W77" s="7">
+      <c r="W77" s="9">
         <f>IF(ISNUMBER(R77),IF(ISNUMBER(R76),IF(R77&gt;R76,1.0,IF(R77=R76,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="X77" s="7">
+      <c r="X77" s="9">
         <f>IF(ISNUMBER(S77),IF(ISNUMBER(S73),IF(S77&gt;S73,1.0,IF(S77=S73,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="Y77" s="7">
+      <c r="Y77" s="9">
         <f>IF(ISNUMBER(S77),IF(ISNUMBER(S74),IF(S77&gt;S74,1.0,IF(S77=S74,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="Z77" s="7">
+      <c r="Z77" s="9">
         <f>IF(ISNUMBER(S77),IF(ISNUMBER(S75),IF(S77&gt;S75,1.0,IF(S77=S75,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="AA77" s="7">
+      <c r="AA77" s="9">
         <f>IF(ISNUMBER(S77),IF(ISNUMBER(S76),IF(S77&gt;S76,1.0,IF(S77=S76,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="AB77" s="22">
+      <c r="AB77" s="24">
         <f>IF(AND(ISNUMBER(R77),ISNUMBER(R73)),VLOOKUP(ABS(R77-R73),'IMP Table'!$A$2:$C$26,3)*SIGN(R77-R73),0)</f>
         <v/>
       </c>
-      <c r="AC77" s="7">
+      <c r="AC77" s="9">
         <f>IF(AND(ISNUMBER(R77),ISNUMBER(R74)),VLOOKUP(ABS(R77-R74),'IMP Table'!$A$2:$C$26,3)*SIGN(R77-R74),0)</f>
         <v/>
       </c>
-      <c r="AD77" s="7">
+      <c r="AD77" s="9">
         <f>IF(AND(ISNUMBER(R77),ISNUMBER(R75)),VLOOKUP(ABS(R77-R75),'IMP Table'!$A$2:$C$26,3)*SIGN(R77-R75),0)</f>
         <v/>
       </c>
-      <c r="AE77" s="7">
+      <c r="AE77" s="9">
         <f>IF(AND(ISNUMBER(R77),ISNUMBER(R76)),VLOOKUP(ABS(R77-R76),'IMP Table'!$A$2:$C$26,3)*SIGN(R77-R76),0)</f>
         <v/>
       </c>
-      <c r="AF77" s="7">
+      <c r="AF77" s="9">
         <f>IF(AND(ISNUMBER(S77),ISNUMBER(S73)),VLOOKUP(ABS(S77-S73),'IMP Table'!$A$2:$C$26,3)*SIGN(S77-S73),0)</f>
         <v/>
       </c>
-      <c r="AG77" s="7">
+      <c r="AG77" s="9">
         <f>IF(AND(ISNUMBER(S77),ISNUMBER(S74)),VLOOKUP(ABS(S77-S74),'IMP Table'!$A$2:$C$26,3)*SIGN(S77-S74),0)</f>
         <v/>
       </c>
-      <c r="AH77" s="7">
+      <c r="AH77" s="9">
         <f>IF(AND(ISNUMBER(S77),ISNUMBER(S75)),VLOOKUP(ABS(S77-S75),'IMP Table'!$A$2:$C$26,3)*SIGN(S77-S75),0)</f>
         <v/>
       </c>
-      <c r="AI77" s="7">
+      <c r="AI77" s="9">
         <f>IF(AND(ISNUMBER(S77),ISNUMBER(S76)),VLOOKUP(ABS(S77-S76),'IMP Table'!$A$2:$C$26,3)*SIGN(S77-S76),0)</f>
         <v/>
       </c>
@@ -11574,11 +11575,11 @@
           <t>EW</t>
         </is>
       </c>
-      <c r="G5" s="7" t="n"/>
-      <c r="H5" s="7" t="n"/>
-      <c r="I5" s="7" t="n"/>
-      <c r="J5" s="7" t="n"/>
-      <c r="K5" s="7" t="n"/>
+      <c r="G5" s="9" t="n"/>
+      <c r="H5" s="9" t="n"/>
+      <c r="I5" s="9" t="n"/>
+      <c r="J5" s="9" t="n"/>
+      <c r="K5" s="9" t="n"/>
     </row>
     <row r="6">
       <c r="B6" s="15" t="n">
@@ -11624,11 +11625,11 @@
           <t>EW</t>
         </is>
       </c>
-      <c r="G8" s="7" t="n"/>
-      <c r="H8" s="7" t="n"/>
-      <c r="I8" s="7" t="n"/>
-      <c r="J8" s="7" t="n"/>
-      <c r="K8" s="7" t="n"/>
+      <c r="G8" s="9" t="n"/>
+      <c r="H8" s="9" t="n"/>
+      <c r="I8" s="9" t="n"/>
+      <c r="J8" s="9" t="n"/>
+      <c r="K8" s="9" t="n"/>
     </row>
     <row r="9">
       <c r="B9" s="15" t="n">
@@ -11674,11 +11675,11 @@
           <t>EW</t>
         </is>
       </c>
-      <c r="G11" s="7" t="n"/>
-      <c r="H11" s="7" t="n"/>
-      <c r="I11" s="7" t="n"/>
-      <c r="J11" s="7" t="n"/>
-      <c r="K11" s="7" t="n"/>
+      <c r="G11" s="9" t="n"/>
+      <c r="H11" s="9" t="n"/>
+      <c r="I11" s="9" t="n"/>
+      <c r="J11" s="9" t="n"/>
+      <c r="K11" s="9" t="n"/>
     </row>
     <row r="12">
       <c r="B12" s="15" t="n">
@@ -11724,11 +11725,11 @@
           <t>NS</t>
         </is>
       </c>
-      <c r="G14" s="7" t="n"/>
-      <c r="H14" s="7" t="n"/>
-      <c r="I14" s="7" t="n"/>
-      <c r="J14" s="7" t="n"/>
-      <c r="K14" s="7" t="n"/>
+      <c r="G14" s="9" t="n"/>
+      <c r="H14" s="9" t="n"/>
+      <c r="I14" s="9" t="n"/>
+      <c r="J14" s="9" t="n"/>
+      <c r="K14" s="9" t="n"/>
     </row>
     <row r="15">
       <c r="B15" s="15" t="n">
@@ -11763,7 +11764,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="7" t="n"/>
+      <c r="A17" s="9" t="n"/>
       <c r="B17" s="19" t="n"/>
       <c r="C17" s="19" t="n"/>
       <c r="D17" s="19" t="n"/>
@@ -11775,11 +11776,11 @@
           <t>NS</t>
         </is>
       </c>
-      <c r="G17" s="7" t="n"/>
-      <c r="H17" s="7" t="n"/>
-      <c r="I17" s="7" t="n"/>
-      <c r="J17" s="7" t="n"/>
-      <c r="K17" s="7" t="n"/>
+      <c r="G17" s="9" t="n"/>
+      <c r="H17" s="9" t="n"/>
+      <c r="I17" s="9" t="n"/>
+      <c r="J17" s="9" t="n"/>
+      <c r="K17" s="9" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="15" t="n">
@@ -11828,11 +11829,11 @@
           <t>EW</t>
         </is>
       </c>
-      <c r="G20" s="7" t="n"/>
-      <c r="H20" s="7" t="n"/>
-      <c r="I20" s="7" t="n"/>
-      <c r="J20" s="7" t="n"/>
-      <c r="K20" s="7" t="n"/>
+      <c r="G20" s="9" t="n"/>
+      <c r="H20" s="9" t="n"/>
+      <c r="I20" s="9" t="n"/>
+      <c r="J20" s="9" t="n"/>
+      <c r="K20" s="9" t="n"/>
     </row>
     <row r="21">
       <c r="B21" s="15" t="n">
@@ -11878,11 +11879,11 @@
           <t>EW</t>
         </is>
       </c>
-      <c r="G23" s="7" t="n"/>
-      <c r="H23" s="7" t="n"/>
-      <c r="I23" s="7" t="n"/>
-      <c r="J23" s="7" t="n"/>
-      <c r="K23" s="7" t="n"/>
+      <c r="G23" s="9" t="n"/>
+      <c r="H23" s="9" t="n"/>
+      <c r="I23" s="9" t="n"/>
+      <c r="J23" s="9" t="n"/>
+      <c r="K23" s="9" t="n"/>
     </row>
     <row r="24">
       <c r="B24" s="15" t="n">
@@ -11928,11 +11929,11 @@
           <t>NS</t>
         </is>
       </c>
-      <c r="G26" s="7" t="n"/>
-      <c r="H26" s="7" t="n"/>
-      <c r="I26" s="7" t="n"/>
-      <c r="J26" s="7" t="n"/>
-      <c r="K26" s="7" t="n"/>
+      <c r="G26" s="9" t="n"/>
+      <c r="H26" s="9" t="n"/>
+      <c r="I26" s="9" t="n"/>
+      <c r="J26" s="9" t="n"/>
+      <c r="K26" s="9" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="15" t="n">
@@ -11978,11 +11979,11 @@
           <t>NS</t>
         </is>
       </c>
-      <c r="G29" s="7" t="n"/>
-      <c r="H29" s="7" t="n"/>
-      <c r="I29" s="7" t="n"/>
-      <c r="J29" s="7" t="n"/>
-      <c r="K29" s="7" t="n"/>
+      <c r="G29" s="9" t="n"/>
+      <c r="H29" s="9" t="n"/>
+      <c r="I29" s="9" t="n"/>
+      <c r="J29" s="9" t="n"/>
+      <c r="K29" s="9" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="15" t="n">
@@ -12017,7 +12018,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="7" t="n"/>
+      <c r="A32" s="9" t="n"/>
       <c r="B32" s="19" t="n"/>
       <c r="C32" s="19" t="n"/>
       <c r="D32" s="19" t="n"/>
@@ -12029,11 +12030,11 @@
           <t>EW</t>
         </is>
       </c>
-      <c r="G32" s="7" t="n"/>
-      <c r="H32" s="7" t="n"/>
-      <c r="I32" s="7" t="n"/>
-      <c r="J32" s="7" t="n"/>
-      <c r="K32" s="7" t="n"/>
+      <c r="G32" s="9" t="n"/>
+      <c r="H32" s="9" t="n"/>
+      <c r="I32" s="9" t="n"/>
+      <c r="J32" s="9" t="n"/>
+      <c r="K32" s="9" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="15" t="n">
@@ -12082,11 +12083,11 @@
           <t>EW</t>
         </is>
       </c>
-      <c r="G35" s="7" t="n"/>
-      <c r="H35" s="7" t="n"/>
-      <c r="I35" s="7" t="n"/>
-      <c r="J35" s="7" t="n"/>
-      <c r="K35" s="7" t="n"/>
+      <c r="G35" s="9" t="n"/>
+      <c r="H35" s="9" t="n"/>
+      <c r="I35" s="9" t="n"/>
+      <c r="J35" s="9" t="n"/>
+      <c r="K35" s="9" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="15" t="n">
@@ -12132,11 +12133,11 @@
           <t>NS</t>
         </is>
       </c>
-      <c r="G38" s="7" t="n"/>
-      <c r="H38" s="7" t="n"/>
-      <c r="I38" s="7" t="n"/>
-      <c r="J38" s="7" t="n"/>
-      <c r="K38" s="7" t="n"/>
+      <c r="G38" s="9" t="n"/>
+      <c r="H38" s="9" t="n"/>
+      <c r="I38" s="9" t="n"/>
+      <c r="J38" s="9" t="n"/>
+      <c r="K38" s="9" t="n"/>
     </row>
     <row r="39">
       <c r="B39" s="15" t="n">
@@ -12182,11 +12183,11 @@
           <t>NS</t>
         </is>
       </c>
-      <c r="G41" s="7" t="n"/>
-      <c r="H41" s="7" t="n"/>
-      <c r="I41" s="7" t="n"/>
-      <c r="J41" s="7" t="n"/>
-      <c r="K41" s="7" t="n"/>
+      <c r="G41" s="9" t="n"/>
+      <c r="H41" s="9" t="n"/>
+      <c r="I41" s="9" t="n"/>
+      <c r="J41" s="9" t="n"/>
+      <c r="K41" s="9" t="n"/>
     </row>
     <row r="42">
       <c r="B42" s="15" t="n">
@@ -12232,11 +12233,11 @@
           <t>EW</t>
         </is>
       </c>
-      <c r="G44" s="7" t="n"/>
-      <c r="H44" s="7" t="n"/>
-      <c r="I44" s="7" t="n"/>
-      <c r="J44" s="7" t="n"/>
-      <c r="K44" s="7" t="n"/>
+      <c r="G44" s="9" t="n"/>
+      <c r="H44" s="9" t="n"/>
+      <c r="I44" s="9" t="n"/>
+      <c r="J44" s="9" t="n"/>
+      <c r="K44" s="9" t="n"/>
     </row>
     <row r="45">
       <c r="B45" s="15" t="n">
@@ -12271,7 +12272,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="7" t="n"/>
+      <c r="A47" s="9" t="n"/>
       <c r="B47" s="19" t="n"/>
       <c r="C47" s="19" t="n"/>
       <c r="D47" s="19" t="n"/>
@@ -12283,11 +12284,11 @@
           <t>EW</t>
         </is>
       </c>
-      <c r="G47" s="7" t="n"/>
-      <c r="H47" s="7" t="n"/>
-      <c r="I47" s="7" t="n"/>
-      <c r="J47" s="7" t="n"/>
-      <c r="K47" s="7" t="n"/>
+      <c r="G47" s="9" t="n"/>
+      <c r="H47" s="9" t="n"/>
+      <c r="I47" s="9" t="n"/>
+      <c r="J47" s="9" t="n"/>
+      <c r="K47" s="9" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="15" t="n">
@@ -12336,11 +12337,11 @@
           <t>NS</t>
         </is>
       </c>
-      <c r="G50" s="7" t="n"/>
-      <c r="H50" s="7" t="n"/>
-      <c r="I50" s="7" t="n"/>
-      <c r="J50" s="7" t="n"/>
-      <c r="K50" s="7" t="n"/>
+      <c r="G50" s="9" t="n"/>
+      <c r="H50" s="9" t="n"/>
+      <c r="I50" s="9" t="n"/>
+      <c r="J50" s="9" t="n"/>
+      <c r="K50" s="9" t="n"/>
     </row>
     <row r="51">
       <c r="B51" s="15" t="n">
@@ -12386,11 +12387,11 @@
           <t>NS</t>
         </is>
       </c>
-      <c r="G53" s="7" t="n"/>
-      <c r="H53" s="7" t="n"/>
-      <c r="I53" s="7" t="n"/>
-      <c r="J53" s="7" t="n"/>
-      <c r="K53" s="7" t="n"/>
+      <c r="G53" s="9" t="n"/>
+      <c r="H53" s="9" t="n"/>
+      <c r="I53" s="9" t="n"/>
+      <c r="J53" s="9" t="n"/>
+      <c r="K53" s="9" t="n"/>
     </row>
     <row r="54">
       <c r="B54" s="15" t="n">
@@ -12436,11 +12437,11 @@
           <t>EW</t>
         </is>
       </c>
-      <c r="G56" s="7" t="n"/>
-      <c r="H56" s="7" t="n"/>
-      <c r="I56" s="7" t="n"/>
-      <c r="J56" s="7" t="n"/>
-      <c r="K56" s="7" t="n"/>
+      <c r="G56" s="9" t="n"/>
+      <c r="H56" s="9" t="n"/>
+      <c r="I56" s="9" t="n"/>
+      <c r="J56" s="9" t="n"/>
+      <c r="K56" s="9" t="n"/>
     </row>
     <row r="57">
       <c r="B57" s="15" t="n">
@@ -12486,11 +12487,11 @@
           <t>EW</t>
         </is>
       </c>
-      <c r="G59" s="7" t="n"/>
-      <c r="H59" s="7" t="n"/>
-      <c r="I59" s="7" t="n"/>
-      <c r="J59" s="7" t="n"/>
-      <c r="K59" s="7" t="n"/>
+      <c r="G59" s="9" t="n"/>
+      <c r="H59" s="9" t="n"/>
+      <c r="I59" s="9" t="n"/>
+      <c r="J59" s="9" t="n"/>
+      <c r="K59" s="9" t="n"/>
     </row>
     <row r="60">
       <c r="B60" s="15" t="n">
@@ -12525,7 +12526,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="7" t="n"/>
+      <c r="A62" s="9" t="n"/>
       <c r="B62" s="19" t="n"/>
       <c r="C62" s="19" t="n"/>
       <c r="D62" s="19" t="n"/>
@@ -12537,11 +12538,11 @@
           <t>EW</t>
         </is>
       </c>
-      <c r="G62" s="7" t="n"/>
-      <c r="H62" s="7" t="n"/>
-      <c r="I62" s="7" t="n"/>
-      <c r="J62" s="7" t="n"/>
-      <c r="K62" s="7" t="n"/>
+      <c r="G62" s="9" t="n"/>
+      <c r="H62" s="9" t="n"/>
+      <c r="I62" s="9" t="n"/>
+      <c r="J62" s="9" t="n"/>
+      <c r="K62" s="9" t="n"/>
     </row>
     <row r="63">
       <c r="A63" s="15" t="n">
@@ -12590,11 +12591,11 @@
           <t>NS</t>
         </is>
       </c>
-      <c r="G65" s="7" t="n"/>
-      <c r="H65" s="7" t="n"/>
-      <c r="I65" s="7" t="n"/>
-      <c r="J65" s="7" t="n"/>
-      <c r="K65" s="7" t="n"/>
+      <c r="G65" s="9" t="n"/>
+      <c r="H65" s="9" t="n"/>
+      <c r="I65" s="9" t="n"/>
+      <c r="J65" s="9" t="n"/>
+      <c r="K65" s="9" t="n"/>
     </row>
     <row r="66">
       <c r="B66" s="15" t="n">
@@ -12640,11 +12641,11 @@
           <t>EW</t>
         </is>
       </c>
-      <c r="G68" s="7" t="n"/>
-      <c r="H68" s="7" t="n"/>
-      <c r="I68" s="7" t="n"/>
-      <c r="J68" s="7" t="n"/>
-      <c r="K68" s="7" t="n"/>
+      <c r="G68" s="9" t="n"/>
+      <c r="H68" s="9" t="n"/>
+      <c r="I68" s="9" t="n"/>
+      <c r="J68" s="9" t="n"/>
+      <c r="K68" s="9" t="n"/>
     </row>
     <row r="69">
       <c r="B69" s="15" t="n">
@@ -12690,11 +12691,11 @@
           <t>EW</t>
         </is>
       </c>
-      <c r="G71" s="7" t="n"/>
-      <c r="H71" s="7" t="n"/>
-      <c r="I71" s="7" t="n"/>
-      <c r="J71" s="7" t="n"/>
-      <c r="K71" s="7" t="n"/>
+      <c r="G71" s="9" t="n"/>
+      <c r="H71" s="9" t="n"/>
+      <c r="I71" s="9" t="n"/>
+      <c r="J71" s="9" t="n"/>
+      <c r="K71" s="9" t="n"/>
     </row>
     <row r="72">
       <c r="B72" s="15" t="n">
@@ -12740,11 +12741,11 @@
           <t>EW</t>
         </is>
       </c>
-      <c r="G74" s="7" t="n"/>
-      <c r="H74" s="7" t="n"/>
-      <c r="I74" s="7" t="n"/>
-      <c r="J74" s="7" t="n"/>
-      <c r="K74" s="7" t="n"/>
+      <c r="G74" s="9" t="n"/>
+      <c r="H74" s="9" t="n"/>
+      <c r="I74" s="9" t="n"/>
+      <c r="J74" s="9" t="n"/>
+      <c r="K74" s="9" t="n"/>
     </row>
     <row r="75">
       <c r="B75" s="15" t="n">
@@ -12779,7 +12780,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="7" t="n"/>
+      <c r="A77" s="9" t="n"/>
       <c r="B77" s="19" t="n"/>
       <c r="C77" s="19" t="n"/>
       <c r="D77" s="19" t="n"/>
@@ -12791,11 +12792,11 @@
           <t>NS</t>
         </is>
       </c>
-      <c r="G77" s="7" t="n"/>
-      <c r="H77" s="7" t="n"/>
-      <c r="I77" s="7" t="n"/>
-      <c r="J77" s="7" t="n"/>
-      <c r="K77" s="7" t="n"/>
+      <c r="G77" s="9" t="n"/>
+      <c r="H77" s="9" t="n"/>
+      <c r="I77" s="9" t="n"/>
+      <c r="J77" s="9" t="n"/>
+      <c r="K77" s="9" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13222,22 +13223,22 @@
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="23" t="n">
+      <c r="C3" s="25" t="n">
         <v>70</v>
       </c>
-      <c r="D3" s="23" t="n">
+      <c r="D3" s="25" t="n">
         <v>140</v>
       </c>
-      <c r="E3" s="23" t="n">
+      <c r="E3" s="25" t="n">
         <v>230</v>
       </c>
-      <c r="F3" s="23" t="n">
+      <c r="F3" s="25" t="n">
         <v>70</v>
       </c>
-      <c r="G3" s="23" t="n">
+      <c r="G3" s="25" t="n">
         <v>140</v>
       </c>
-      <c r="H3" s="23" t="n">
+      <c r="H3" s="25" t="n">
         <v>230</v>
       </c>
       <c r="J3" t="n">
@@ -13268,22 +13269,22 @@
       <c r="B4" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="23" t="n">
+      <c r="C4" s="25" t="n">
         <v>90</v>
       </c>
-      <c r="D4" s="23" t="n">
+      <c r="D4" s="25" t="n">
         <v>240</v>
       </c>
-      <c r="E4" s="23" t="n">
+      <c r="E4" s="25" t="n">
         <v>430</v>
       </c>
-      <c r="F4" s="23" t="n">
+      <c r="F4" s="25" t="n">
         <v>90</v>
       </c>
-      <c r="G4" s="23" t="n">
+      <c r="G4" s="25" t="n">
         <v>340</v>
       </c>
-      <c r="H4" s="23" t="n">
+      <c r="H4" s="25" t="n">
         <v>630</v>
       </c>
       <c r="J4" t="n">
@@ -13318,22 +13319,22 @@
       <c r="B5" t="n">
         <v>3</v>
       </c>
-      <c r="C5" s="23" t="n">
+      <c r="C5" s="25" t="n">
         <v>110</v>
       </c>
-      <c r="D5" s="23" t="n">
+      <c r="D5" s="25" t="n">
         <v>340</v>
       </c>
-      <c r="E5" s="23" t="n">
+      <c r="E5" s="25" t="n">
         <v>630</v>
       </c>
-      <c r="F5" s="23" t="n">
+      <c r="F5" s="25" t="n">
         <v>110</v>
       </c>
-      <c r="G5" s="23" t="n">
+      <c r="G5" s="25" t="n">
         <v>540</v>
       </c>
-      <c r="H5" s="23" t="n">
+      <c r="H5" s="25" t="n">
         <v>1030</v>
       </c>
       <c r="J5" t="n">
@@ -13368,22 +13369,22 @@
       <c r="B6" t="n">
         <v>4</v>
       </c>
-      <c r="C6" s="23" t="n">
+      <c r="C6" s="25" t="n">
         <v>130</v>
       </c>
-      <c r="D6" s="23" t="n">
+      <c r="D6" s="25" t="n">
         <v>440</v>
       </c>
-      <c r="E6" s="23" t="n">
+      <c r="E6" s="25" t="n">
         <v>830</v>
       </c>
-      <c r="F6" s="23" t="n">
+      <c r="F6" s="25" t="n">
         <v>130</v>
       </c>
-      <c r="G6" s="23" t="n">
+      <c r="G6" s="25" t="n">
         <v>740</v>
       </c>
-      <c r="H6" s="23" t="n">
+      <c r="H6" s="25" t="n">
         <v>1430</v>
       </c>
       <c r="J6" t="n">
@@ -13418,22 +13419,22 @@
       <c r="B7" t="n">
         <v>5</v>
       </c>
-      <c r="C7" s="23" t="n">
+      <c r="C7" s="25" t="n">
         <v>150</v>
       </c>
-      <c r="D7" s="23" t="n">
+      <c r="D7" s="25" t="n">
         <v>540</v>
       </c>
-      <c r="E7" s="23" t="n">
+      <c r="E7" s="25" t="n">
         <v>1030</v>
       </c>
-      <c r="F7" s="23" t="n">
+      <c r="F7" s="25" t="n">
         <v>150</v>
       </c>
-      <c r="G7" s="23" t="n">
+      <c r="G7" s="25" t="n">
         <v>940</v>
       </c>
-      <c r="H7" s="23" t="n">
+      <c r="H7" s="25" t="n">
         <v>1830</v>
       </c>
       <c r="J7" t="n">
@@ -13468,22 +13469,22 @@
       <c r="B8" t="n">
         <v>6</v>
       </c>
-      <c r="C8" s="23" t="n">
+      <c r="C8" s="25" t="n">
         <v>170</v>
       </c>
-      <c r="D8" s="23" t="n">
+      <c r="D8" s="25" t="n">
         <v>640</v>
       </c>
-      <c r="E8" s="23" t="n">
+      <c r="E8" s="25" t="n">
         <v>1230</v>
       </c>
-      <c r="F8" s="23" t="n">
+      <c r="F8" s="25" t="n">
         <v>170</v>
       </c>
-      <c r="G8" s="23" t="n">
+      <c r="G8" s="25" t="n">
         <v>1140</v>
       </c>
-      <c r="H8" s="23" t="n">
+      <c r="H8" s="25" t="n">
         <v>2230</v>
       </c>
       <c r="J8" t="n">
@@ -13518,22 +13519,22 @@
       <c r="B9" t="n">
         <v>7</v>
       </c>
-      <c r="C9" s="23" t="n">
+      <c r="C9" s="25" t="n">
         <v>190</v>
       </c>
-      <c r="D9" s="23" t="n">
+      <c r="D9" s="25" t="n">
         <v>740</v>
       </c>
-      <c r="E9" s="23" t="n">
+      <c r="E9" s="25" t="n">
         <v>1430</v>
       </c>
-      <c r="F9" s="23" t="n">
+      <c r="F9" s="25" t="n">
         <v>190</v>
       </c>
-      <c r="G9" s="23" t="n">
+      <c r="G9" s="25" t="n">
         <v>1340</v>
       </c>
-      <c r="H9" s="23" t="n">
+      <c r="H9" s="25" t="n">
         <v>2630</v>
       </c>
       <c r="J9" t="n">
@@ -13573,22 +13574,22 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="23" t="n">
+      <c r="C10" s="25" t="n">
         <v>80</v>
       </c>
-      <c r="D10" s="23" t="n">
+      <c r="D10" s="25" t="n">
         <v>160</v>
       </c>
-      <c r="E10" s="23" t="n">
+      <c r="E10" s="25" t="n">
         <v>520</v>
       </c>
-      <c r="F10" s="23" t="n">
+      <c r="F10" s="25" t="n">
         <v>80</v>
       </c>
-      <c r="G10" s="23" t="n">
+      <c r="G10" s="25" t="n">
         <v>160</v>
       </c>
-      <c r="H10" s="23" t="n">
+      <c r="H10" s="25" t="n">
         <v>720</v>
       </c>
       <c r="J10" t="n">
@@ -13623,22 +13624,22 @@
       <c r="B11" t="n">
         <v>2</v>
       </c>
-      <c r="C11" s="23" t="n">
+      <c r="C11" s="25" t="n">
         <v>110</v>
       </c>
-      <c r="D11" s="23" t="n">
+      <c r="D11" s="25" t="n">
         <v>260</v>
       </c>
-      <c r="E11" s="23" t="n">
+      <c r="E11" s="25" t="n">
         <v>720</v>
       </c>
-      <c r="F11" s="23" t="n">
+      <c r="F11" s="25" t="n">
         <v>110</v>
       </c>
-      <c r="G11" s="23" t="n">
+      <c r="G11" s="25" t="n">
         <v>360</v>
       </c>
-      <c r="H11" s="23" t="n">
+      <c r="H11" s="25" t="n">
         <v>1120</v>
       </c>
       <c r="J11" t="n">
@@ -13673,22 +13674,22 @@
       <c r="B12" t="n">
         <v>3</v>
       </c>
-      <c r="C12" s="23" t="n">
+      <c r="C12" s="25" t="n">
         <v>140</v>
       </c>
-      <c r="D12" s="23" t="n">
+      <c r="D12" s="25" t="n">
         <v>360</v>
       </c>
-      <c r="E12" s="23" t="n">
+      <c r="E12" s="25" t="n">
         <v>920</v>
       </c>
-      <c r="F12" s="23" t="n">
+      <c r="F12" s="25" t="n">
         <v>140</v>
       </c>
-      <c r="G12" s="23" t="n">
+      <c r="G12" s="25" t="n">
         <v>560</v>
       </c>
-      <c r="H12" s="23" t="n">
+      <c r="H12" s="25" t="n">
         <v>1520</v>
       </c>
       <c r="J12" t="n">
@@ -13723,22 +13724,22 @@
       <c r="B13" t="n">
         <v>4</v>
       </c>
-      <c r="C13" s="23" t="n">
+      <c r="C13" s="25" t="n">
         <v>170</v>
       </c>
-      <c r="D13" s="23" t="n">
+      <c r="D13" s="25" t="n">
         <v>460</v>
       </c>
-      <c r="E13" s="23" t="n">
+      <c r="E13" s="25" t="n">
         <v>1120</v>
       </c>
-      <c r="F13" s="23" t="n">
+      <c r="F13" s="25" t="n">
         <v>170</v>
       </c>
-      <c r="G13" s="23" t="n">
+      <c r="G13" s="25" t="n">
         <v>760</v>
       </c>
-      <c r="H13" s="23" t="n">
+      <c r="H13" s="25" t="n">
         <v>1920</v>
       </c>
       <c r="J13" t="n">
@@ -13773,22 +13774,22 @@
       <c r="B14" t="n">
         <v>5</v>
       </c>
-      <c r="C14" s="23" t="n">
+      <c r="C14" s="25" t="n">
         <v>200</v>
       </c>
-      <c r="D14" s="23" t="n">
+      <c r="D14" s="25" t="n">
         <v>560</v>
       </c>
-      <c r="E14" s="23" t="n">
+      <c r="E14" s="25" t="n">
         <v>1320</v>
       </c>
-      <c r="F14" s="23" t="n">
+      <c r="F14" s="25" t="n">
         <v>200</v>
       </c>
-      <c r="G14" s="23" t="n">
+      <c r="G14" s="25" t="n">
         <v>960</v>
       </c>
-      <c r="H14" s="23" t="n">
+      <c r="H14" s="25" t="n">
         <v>2320</v>
       </c>
       <c r="J14" t="n">
@@ -13823,22 +13824,22 @@
       <c r="B15" t="n">
         <v>6</v>
       </c>
-      <c r="C15" s="23" t="n">
+      <c r="C15" s="25" t="n">
         <v>230</v>
       </c>
-      <c r="D15" s="23" t="n">
+      <c r="D15" s="25" t="n">
         <v>660</v>
       </c>
-      <c r="E15" s="23" t="n">
+      <c r="E15" s="25" t="n">
         <v>1520</v>
       </c>
-      <c r="F15" s="23" t="n">
+      <c r="F15" s="25" t="n">
         <v>230</v>
       </c>
-      <c r="G15" s="23" t="n">
+      <c r="G15" s="25" t="n">
         <v>1160</v>
       </c>
-      <c r="H15" s="23" t="n">
+      <c r="H15" s="25" t="n">
         <v>2720</v>
       </c>
       <c r="J15" t="n">
@@ -13873,22 +13874,22 @@
       <c r="B16" t="n">
         <v>7</v>
       </c>
-      <c r="C16" s="23" t="n">
+      <c r="C16" s="25" t="n">
         <v>260</v>
       </c>
-      <c r="D16" s="23" t="n">
+      <c r="D16" s="25" t="n">
         <v>760</v>
       </c>
-      <c r="E16" s="23" t="n">
+      <c r="E16" s="25" t="n">
         <v>1720</v>
       </c>
-      <c r="F16" s="23" t="n">
+      <c r="F16" s="25" t="n">
         <v>260</v>
       </c>
-      <c r="G16" s="23" t="n">
+      <c r="G16" s="25" t="n">
         <v>1360</v>
       </c>
-      <c r="H16" s="23" t="n">
+      <c r="H16" s="25" t="n">
         <v>3120</v>
       </c>
     </row>
@@ -13901,22 +13902,22 @@
       <c r="B17" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="23" t="n">
+      <c r="C17" s="25" t="n">
         <v>90</v>
       </c>
-      <c r="D17" s="23" t="n">
+      <c r="D17" s="25" t="n">
         <v>180</v>
       </c>
-      <c r="E17" s="23" t="n">
+      <c r="E17" s="25" t="n">
         <v>560</v>
       </c>
-      <c r="F17" s="23" t="n">
+      <c r="F17" s="25" t="n">
         <v>90</v>
       </c>
-      <c r="G17" s="23" t="n">
+      <c r="G17" s="25" t="n">
         <v>180</v>
       </c>
-      <c r="H17" s="23" t="n">
+      <c r="H17" s="25" t="n">
         <v>760</v>
       </c>
     </row>
@@ -13924,22 +13925,22 @@
       <c r="B18" t="n">
         <v>2</v>
       </c>
-      <c r="C18" s="23" t="n">
+      <c r="C18" s="25" t="n">
         <v>120</v>
       </c>
-      <c r="D18" s="23" t="n">
+      <c r="D18" s="25" t="n">
         <v>280</v>
       </c>
-      <c r="E18" s="23" t="n">
+      <c r="E18" s="25" t="n">
         <v>760</v>
       </c>
-      <c r="F18" s="23" t="n">
+      <c r="F18" s="25" t="n">
         <v>120</v>
       </c>
-      <c r="G18" s="23" t="n">
+      <c r="G18" s="25" t="n">
         <v>380</v>
       </c>
-      <c r="H18" s="23" t="n">
+      <c r="H18" s="25" t="n">
         <v>1160</v>
       </c>
     </row>
@@ -13947,22 +13948,22 @@
       <c r="B19" t="n">
         <v>3</v>
       </c>
-      <c r="C19" s="23" t="n">
+      <c r="C19" s="25" t="n">
         <v>150</v>
       </c>
-      <c r="D19" s="23" t="n">
+      <c r="D19" s="25" t="n">
         <v>380</v>
       </c>
-      <c r="E19" s="23" t="n">
+      <c r="E19" s="25" t="n">
         <v>960</v>
       </c>
-      <c r="F19" s="23" t="n">
+      <c r="F19" s="25" t="n">
         <v>150</v>
       </c>
-      <c r="G19" s="23" t="n">
+      <c r="G19" s="25" t="n">
         <v>580</v>
       </c>
-      <c r="H19" s="23" t="n">
+      <c r="H19" s="25" t="n">
         <v>1560</v>
       </c>
     </row>
@@ -13970,22 +13971,22 @@
       <c r="B20" t="n">
         <v>4</v>
       </c>
-      <c r="C20" s="23" t="n">
+      <c r="C20" s="25" t="n">
         <v>180</v>
       </c>
-      <c r="D20" s="23" t="n">
+      <c r="D20" s="25" t="n">
         <v>480</v>
       </c>
-      <c r="E20" s="23" t="n">
+      <c r="E20" s="25" t="n">
         <v>1160</v>
       </c>
-      <c r="F20" s="23" t="n">
+      <c r="F20" s="25" t="n">
         <v>180</v>
       </c>
-      <c r="G20" s="23" t="n">
+      <c r="G20" s="25" t="n">
         <v>780</v>
       </c>
-      <c r="H20" s="23" t="n">
+      <c r="H20" s="25" t="n">
         <v>1960</v>
       </c>
     </row>
@@ -13993,22 +13994,22 @@
       <c r="B21" t="n">
         <v>5</v>
       </c>
-      <c r="C21" s="23" t="n">
+      <c r="C21" s="25" t="n">
         <v>210</v>
       </c>
-      <c r="D21" s="23" t="n">
+      <c r="D21" s="25" t="n">
         <v>580</v>
       </c>
-      <c r="E21" s="23" t="n">
+      <c r="E21" s="25" t="n">
         <v>1360</v>
       </c>
-      <c r="F21" s="23" t="n">
+      <c r="F21" s="25" t="n">
         <v>210</v>
       </c>
-      <c r="G21" s="23" t="n">
+      <c r="G21" s="25" t="n">
         <v>980</v>
       </c>
-      <c r="H21" s="23" t="n">
+      <c r="H21" s="25" t="n">
         <v>2360</v>
       </c>
     </row>
@@ -14016,22 +14017,22 @@
       <c r="B22" t="n">
         <v>6</v>
       </c>
-      <c r="C22" s="23" t="n">
+      <c r="C22" s="25" t="n">
         <v>240</v>
       </c>
-      <c r="D22" s="23" t="n">
+      <c r="D22" s="25" t="n">
         <v>680</v>
       </c>
-      <c r="E22" s="23" t="n">
+      <c r="E22" s="25" t="n">
         <v>1560</v>
       </c>
-      <c r="F22" s="23" t="n">
+      <c r="F22" s="25" t="n">
         <v>240</v>
       </c>
-      <c r="G22" s="23" t="n">
+      <c r="G22" s="25" t="n">
         <v>1180</v>
       </c>
-      <c r="H22" s="23" t="n">
+      <c r="H22" s="25" t="n">
         <v>2760</v>
       </c>
     </row>
@@ -14039,22 +14040,22 @@
       <c r="B23" t="n">
         <v>7</v>
       </c>
-      <c r="C23" s="23" t="n">
+      <c r="C23" s="25" t="n">
         <v>270</v>
       </c>
-      <c r="D23" s="23" t="n">
+      <c r="D23" s="25" t="n">
         <v>780</v>
       </c>
-      <c r="E23" s="23" t="n">
+      <c r="E23" s="25" t="n">
         <v>1760</v>
       </c>
-      <c r="F23" s="23" t="n">
+      <c r="F23" s="25" t="n">
         <v>270</v>
       </c>
-      <c r="G23" s="23" t="n">
+      <c r="G23" s="25" t="n">
         <v>1380</v>
       </c>
-      <c r="H23" s="23" t="n">
+      <c r="H23" s="25" t="n">
         <v>3160</v>
       </c>
     </row>
@@ -14067,22 +14068,22 @@
       <c r="B24" t="n">
         <v>1</v>
       </c>
-      <c r="C24" s="23" t="n">
+      <c r="C24" s="25" t="n">
         <v>90</v>
       </c>
-      <c r="D24" s="23" t="n">
+      <c r="D24" s="25" t="n">
         <v>180</v>
       </c>
-      <c r="E24" s="23" t="n">
+      <c r="E24" s="25" t="n">
         <v>560</v>
       </c>
-      <c r="F24" s="23" t="n">
+      <c r="F24" s="25" t="n">
         <v>90</v>
       </c>
-      <c r="G24" s="23" t="n">
+      <c r="G24" s="25" t="n">
         <v>180</v>
       </c>
-      <c r="H24" s="23" t="n">
+      <c r="H24" s="25" t="n">
         <v>760</v>
       </c>
     </row>
@@ -14090,22 +14091,22 @@
       <c r="B25" t="n">
         <v>2</v>
       </c>
-      <c r="C25" s="23" t="n">
+      <c r="C25" s="25" t="n">
         <v>110</v>
       </c>
-      <c r="D25" s="23" t="n">
+      <c r="D25" s="25" t="n">
         <v>280</v>
       </c>
-      <c r="E25" s="23" t="n">
+      <c r="E25" s="25" t="n">
         <v>760</v>
       </c>
-      <c r="F25" s="23" t="n">
+      <c r="F25" s="25" t="n">
         <v>110</v>
       </c>
-      <c r="G25" s="23" t="n">
+      <c r="G25" s="25" t="n">
         <v>380</v>
       </c>
-      <c r="H25" s="23" t="n">
+      <c r="H25" s="25" t="n">
         <v>1160</v>
       </c>
     </row>
@@ -14113,22 +14114,22 @@
       <c r="B26" t="n">
         <v>3</v>
       </c>
-      <c r="C26" s="23" t="n">
+      <c r="C26" s="25" t="n">
         <v>130</v>
       </c>
-      <c r="D26" s="23" t="n">
+      <c r="D26" s="25" t="n">
         <v>380</v>
       </c>
-      <c r="E26" s="23" t="n">
+      <c r="E26" s="25" t="n">
         <v>960</v>
       </c>
-      <c r="F26" s="23" t="n">
+      <c r="F26" s="25" t="n">
         <v>130</v>
       </c>
-      <c r="G26" s="23" t="n">
+      <c r="G26" s="25" t="n">
         <v>580</v>
       </c>
-      <c r="H26" s="23" t="n">
+      <c r="H26" s="25" t="n">
         <v>1560</v>
       </c>
     </row>
@@ -14136,22 +14137,22 @@
       <c r="B27" t="n">
         <v>4</v>
       </c>
-      <c r="C27" s="23" t="n">
+      <c r="C27" s="25" t="n">
         <v>150</v>
       </c>
-      <c r="D27" s="23" t="n">
+      <c r="D27" s="25" t="n">
         <v>480</v>
       </c>
-      <c r="E27" s="23" t="n">
+      <c r="E27" s="25" t="n">
         <v>1160</v>
       </c>
-      <c r="F27" s="23" t="n">
+      <c r="F27" s="25" t="n">
         <v>150</v>
       </c>
-      <c r="G27" s="23" t="n">
+      <c r="G27" s="25" t="n">
         <v>780</v>
       </c>
-      <c r="H27" s="23" t="n">
+      <c r="H27" s="25" t="n">
         <v>1960</v>
       </c>
     </row>
@@ -14159,22 +14160,22 @@
       <c r="B28" t="n">
         <v>5</v>
       </c>
-      <c r="C28" s="23" t="n">
+      <c r="C28" s="25" t="n">
         <v>170</v>
       </c>
-      <c r="D28" s="23" t="n">
+      <c r="D28" s="25" t="n">
         <v>580</v>
       </c>
-      <c r="E28" s="23" t="n">
+      <c r="E28" s="25" t="n">
         <v>1360</v>
       </c>
-      <c r="F28" s="23" t="n">
+      <c r="F28" s="25" t="n">
         <v>170</v>
       </c>
-      <c r="G28" s="23" t="n">
+      <c r="G28" s="25" t="n">
         <v>980</v>
       </c>
-      <c r="H28" s="23" t="n">
+      <c r="H28" s="25" t="n">
         <v>2360</v>
       </c>
     </row>
@@ -14182,22 +14183,22 @@
       <c r="B29" t="n">
         <v>6</v>
       </c>
-      <c r="C29" s="23" t="n">
+      <c r="C29" s="25" t="n">
         <v>190</v>
       </c>
-      <c r="D29" s="23" t="n">
+      <c r="D29" s="25" t="n">
         <v>680</v>
       </c>
-      <c r="E29" s="23" t="n">
+      <c r="E29" s="25" t="n">
         <v>1560</v>
       </c>
-      <c r="F29" s="23" t="n">
+      <c r="F29" s="25" t="n">
         <v>190</v>
       </c>
-      <c r="G29" s="23" t="n">
+      <c r="G29" s="25" t="n">
         <v>1180</v>
       </c>
-      <c r="H29" s="23" t="n">
+      <c r="H29" s="25" t="n">
         <v>2760</v>
       </c>
     </row>
@@ -14210,22 +14211,22 @@
       <c r="B30" t="n">
         <v>1</v>
       </c>
-      <c r="C30" s="23" t="n">
+      <c r="C30" s="25" t="n">
         <v>110</v>
       </c>
-      <c r="D30" s="23" t="n">
+      <c r="D30" s="25" t="n">
         <v>470</v>
       </c>
-      <c r="E30" s="23" t="n">
+      <c r="E30" s="25" t="n">
         <v>640</v>
       </c>
-      <c r="F30" s="23" t="n">
+      <c r="F30" s="25" t="n">
         <v>110</v>
       </c>
-      <c r="G30" s="23" t="n">
+      <c r="G30" s="25" t="n">
         <v>670</v>
       </c>
-      <c r="H30" s="23" t="n">
+      <c r="H30" s="25" t="n">
         <v>840</v>
       </c>
     </row>
@@ -14233,22 +14234,22 @@
       <c r="B31" t="n">
         <v>2</v>
       </c>
-      <c r="C31" s="23" t="n">
+      <c r="C31" s="25" t="n">
         <v>140</v>
       </c>
-      <c r="D31" s="23" t="n">
+      <c r="D31" s="25" t="n">
         <v>570</v>
       </c>
-      <c r="E31" s="23" t="n">
+      <c r="E31" s="25" t="n">
         <v>840</v>
       </c>
-      <c r="F31" s="23" t="n">
+      <c r="F31" s="25" t="n">
         <v>140</v>
       </c>
-      <c r="G31" s="23" t="n">
+      <c r="G31" s="25" t="n">
         <v>870</v>
       </c>
-      <c r="H31" s="23" t="n">
+      <c r="H31" s="25" t="n">
         <v>1240</v>
       </c>
     </row>
@@ -14256,22 +14257,22 @@
       <c r="B32" t="n">
         <v>3</v>
       </c>
-      <c r="C32" s="23" t="n">
+      <c r="C32" s="25" t="n">
         <v>170</v>
       </c>
-      <c r="D32" s="23" t="n">
+      <c r="D32" s="25" t="n">
         <v>670</v>
       </c>
-      <c r="E32" s="23" t="n">
+      <c r="E32" s="25" t="n">
         <v>1040</v>
       </c>
-      <c r="F32" s="23" t="n">
+      <c r="F32" s="25" t="n">
         <v>170</v>
       </c>
-      <c r="G32" s="23" t="n">
+      <c r="G32" s="25" t="n">
         <v>1070</v>
       </c>
-      <c r="H32" s="23" t="n">
+      <c r="H32" s="25" t="n">
         <v>1640</v>
       </c>
     </row>
@@ -14279,22 +14280,22 @@
       <c r="B33" t="n">
         <v>4</v>
       </c>
-      <c r="C33" s="23" t="n">
+      <c r="C33" s="25" t="n">
         <v>200</v>
       </c>
-      <c r="D33" s="23" t="n">
+      <c r="D33" s="25" t="n">
         <v>770</v>
       </c>
-      <c r="E33" s="23" t="n">
+      <c r="E33" s="25" t="n">
         <v>1240</v>
       </c>
-      <c r="F33" s="23" t="n">
+      <c r="F33" s="25" t="n">
         <v>200</v>
       </c>
-      <c r="G33" s="23" t="n">
+      <c r="G33" s="25" t="n">
         <v>1270</v>
       </c>
-      <c r="H33" s="23" t="n">
+      <c r="H33" s="25" t="n">
         <v>2040</v>
       </c>
     </row>
@@ -14302,22 +14303,22 @@
       <c r="B34" t="n">
         <v>5</v>
       </c>
-      <c r="C34" s="23" t="n">
+      <c r="C34" s="25" t="n">
         <v>230</v>
       </c>
-      <c r="D34" s="23" t="n">
+      <c r="D34" s="25" t="n">
         <v>870</v>
       </c>
-      <c r="E34" s="23" t="n">
+      <c r="E34" s="25" t="n">
         <v>1440</v>
       </c>
-      <c r="F34" s="23" t="n">
+      <c r="F34" s="25" t="n">
         <v>230</v>
       </c>
-      <c r="G34" s="23" t="n">
+      <c r="G34" s="25" t="n">
         <v>1470</v>
       </c>
-      <c r="H34" s="23" t="n">
+      <c r="H34" s="25" t="n">
         <v>2440</v>
       </c>
     </row>
@@ -14325,22 +14326,22 @@
       <c r="B35" t="n">
         <v>6</v>
       </c>
-      <c r="C35" s="23" t="n">
+      <c r="C35" s="25" t="n">
         <v>260</v>
       </c>
-      <c r="D35" s="23" t="n">
+      <c r="D35" s="25" t="n">
         <v>970</v>
       </c>
-      <c r="E35" s="23" t="n">
+      <c r="E35" s="25" t="n">
         <v>1640</v>
       </c>
-      <c r="F35" s="23" t="n">
+      <c r="F35" s="25" t="n">
         <v>260</v>
       </c>
-      <c r="G35" s="23" t="n">
+      <c r="G35" s="25" t="n">
         <v>1670</v>
       </c>
-      <c r="H35" s="23" t="n">
+      <c r="H35" s="25" t="n">
         <v>2840</v>
       </c>
     </row>
@@ -14353,22 +14354,22 @@
       <c r="B36" t="n">
         <v>1</v>
       </c>
-      <c r="C36" s="23" t="n">
+      <c r="C36" s="25" t="n">
         <v>120</v>
       </c>
-      <c r="D36" s="23" t="n">
+      <c r="D36" s="25" t="n">
         <v>490</v>
       </c>
-      <c r="E36" s="23" t="n">
+      <c r="E36" s="25" t="n">
         <v>680</v>
       </c>
-      <c r="F36" s="23" t="n">
+      <c r="F36" s="25" t="n">
         <v>120</v>
       </c>
-      <c r="G36" s="23" t="n">
+      <c r="G36" s="25" t="n">
         <v>690</v>
       </c>
-      <c r="H36" s="23" t="n">
+      <c r="H36" s="25" t="n">
         <v>880</v>
       </c>
     </row>
@@ -14376,22 +14377,22 @@
       <c r="B37" t="n">
         <v>2</v>
       </c>
-      <c r="C37" s="23" t="n">
+      <c r="C37" s="25" t="n">
         <v>150</v>
       </c>
-      <c r="D37" s="23" t="n">
+      <c r="D37" s="25" t="n">
         <v>590</v>
       </c>
-      <c r="E37" s="23" t="n">
+      <c r="E37" s="25" t="n">
         <v>880</v>
       </c>
-      <c r="F37" s="23" t="n">
+      <c r="F37" s="25" t="n">
         <v>150</v>
       </c>
-      <c r="G37" s="23" t="n">
+      <c r="G37" s="25" t="n">
         <v>890</v>
       </c>
-      <c r="H37" s="23" t="n">
+      <c r="H37" s="25" t="n">
         <v>1280</v>
       </c>
     </row>
@@ -14399,22 +14400,22 @@
       <c r="B38" t="n">
         <v>3</v>
       </c>
-      <c r="C38" s="23" t="n">
+      <c r="C38" s="25" t="n">
         <v>180</v>
       </c>
-      <c r="D38" s="23" t="n">
+      <c r="D38" s="25" t="n">
         <v>690</v>
       </c>
-      <c r="E38" s="23" t="n">
+      <c r="E38" s="25" t="n">
         <v>1080</v>
       </c>
-      <c r="F38" s="23" t="n">
+      <c r="F38" s="25" t="n">
         <v>180</v>
       </c>
-      <c r="G38" s="23" t="n">
+      <c r="G38" s="25" t="n">
         <v>1090</v>
       </c>
-      <c r="H38" s="23" t="n">
+      <c r="H38" s="25" t="n">
         <v>1680</v>
       </c>
     </row>
@@ -14422,22 +14423,22 @@
       <c r="B39" t="n">
         <v>4</v>
       </c>
-      <c r="C39" s="23" t="n">
+      <c r="C39" s="25" t="n">
         <v>210</v>
       </c>
-      <c r="D39" s="23" t="n">
+      <c r="D39" s="25" t="n">
         <v>790</v>
       </c>
-      <c r="E39" s="23" t="n">
+      <c r="E39" s="25" t="n">
         <v>1280</v>
       </c>
-      <c r="F39" s="23" t="n">
+      <c r="F39" s="25" t="n">
         <v>210</v>
       </c>
-      <c r="G39" s="23" t="n">
+      <c r="G39" s="25" t="n">
         <v>1290</v>
       </c>
-      <c r="H39" s="23" t="n">
+      <c r="H39" s="25" t="n">
         <v>2080</v>
       </c>
     </row>
@@ -14445,22 +14446,22 @@
       <c r="B40" t="n">
         <v>5</v>
       </c>
-      <c r="C40" s="23" t="n">
+      <c r="C40" s="25" t="n">
         <v>240</v>
       </c>
-      <c r="D40" s="23" t="n">
+      <c r="D40" s="25" t="n">
         <v>890</v>
       </c>
-      <c r="E40" s="23" t="n">
+      <c r="E40" s="25" t="n">
         <v>1480</v>
       </c>
-      <c r="F40" s="23" t="n">
+      <c r="F40" s="25" t="n">
         <v>240</v>
       </c>
-      <c r="G40" s="23" t="n">
+      <c r="G40" s="25" t="n">
         <v>1490</v>
       </c>
-      <c r="H40" s="23" t="n">
+      <c r="H40" s="25" t="n">
         <v>2480</v>
       </c>
     </row>
@@ -14468,22 +14469,22 @@
       <c r="B41" t="n">
         <v>6</v>
       </c>
-      <c r="C41" s="23" t="n">
+      <c r="C41" s="25" t="n">
         <v>270</v>
       </c>
-      <c r="D41" s="23" t="n">
+      <c r="D41" s="25" t="n">
         <v>990</v>
       </c>
-      <c r="E41" s="23" t="n">
+      <c r="E41" s="25" t="n">
         <v>1680</v>
       </c>
-      <c r="F41" s="23" t="n">
+      <c r="F41" s="25" t="n">
         <v>270</v>
       </c>
-      <c r="G41" s="23" t="n">
+      <c r="G41" s="25" t="n">
         <v>1690</v>
       </c>
-      <c r="H41" s="23" t="n">
+      <c r="H41" s="25" t="n">
         <v>2880</v>
       </c>
     </row>
@@ -14496,22 +14497,22 @@
       <c r="B42" t="n">
         <v>1</v>
       </c>
-      <c r="C42" s="23" t="n">
+      <c r="C42" s="25" t="n">
         <v>110</v>
       </c>
-      <c r="D42" s="23" t="n">
+      <c r="D42" s="25" t="n">
         <v>470</v>
       </c>
-      <c r="E42" s="23" t="n">
+      <c r="E42" s="25" t="n">
         <v>640</v>
       </c>
-      <c r="F42" s="23" t="n">
+      <c r="F42" s="25" t="n">
         <v>110</v>
       </c>
-      <c r="G42" s="23" t="n">
+      <c r="G42" s="25" t="n">
         <v>670</v>
       </c>
-      <c r="H42" s="23" t="n">
+      <c r="H42" s="25" t="n">
         <v>840</v>
       </c>
     </row>
@@ -14519,22 +14520,22 @@
       <c r="B43" t="n">
         <v>2</v>
       </c>
-      <c r="C43" s="23" t="n">
+      <c r="C43" s="25" t="n">
         <v>130</v>
       </c>
-      <c r="D43" s="23" t="n">
+      <c r="D43" s="25" t="n">
         <v>570</v>
       </c>
-      <c r="E43" s="23" t="n">
+      <c r="E43" s="25" t="n">
         <v>840</v>
       </c>
-      <c r="F43" s="23" t="n">
+      <c r="F43" s="25" t="n">
         <v>130</v>
       </c>
-      <c r="G43" s="23" t="n">
+      <c r="G43" s="25" t="n">
         <v>870</v>
       </c>
-      <c r="H43" s="23" t="n">
+      <c r="H43" s="25" t="n">
         <v>1240</v>
       </c>
     </row>
@@ -14542,22 +14543,22 @@
       <c r="B44" t="n">
         <v>3</v>
       </c>
-      <c r="C44" s="23" t="n">
+      <c r="C44" s="25" t="n">
         <v>150</v>
       </c>
-      <c r="D44" s="23" t="n">
+      <c r="D44" s="25" t="n">
         <v>670</v>
       </c>
-      <c r="E44" s="23" t="n">
+      <c r="E44" s="25" t="n">
         <v>1040</v>
       </c>
-      <c r="F44" s="23" t="n">
+      <c r="F44" s="25" t="n">
         <v>150</v>
       </c>
-      <c r="G44" s="23" t="n">
+      <c r="G44" s="25" t="n">
         <v>1070</v>
       </c>
-      <c r="H44" s="23" t="n">
+      <c r="H44" s="25" t="n">
         <v>1640</v>
       </c>
     </row>
@@ -14565,22 +14566,22 @@
       <c r="B45" t="n">
         <v>4</v>
       </c>
-      <c r="C45" s="23" t="n">
+      <c r="C45" s="25" t="n">
         <v>170</v>
       </c>
-      <c r="D45" s="23" t="n">
+      <c r="D45" s="25" t="n">
         <v>770</v>
       </c>
-      <c r="E45" s="23" t="n">
+      <c r="E45" s="25" t="n">
         <v>1240</v>
       </c>
-      <c r="F45" s="23" t="n">
+      <c r="F45" s="25" t="n">
         <v>170</v>
       </c>
-      <c r="G45" s="23" t="n">
+      <c r="G45" s="25" t="n">
         <v>1270</v>
       </c>
-      <c r="H45" s="23" t="n">
+      <c r="H45" s="25" t="n">
         <v>2040</v>
       </c>
     </row>
@@ -14588,22 +14589,22 @@
       <c r="B46" t="n">
         <v>5</v>
       </c>
-      <c r="C46" s="23" t="n">
+      <c r="C46" s="25" t="n">
         <v>190</v>
       </c>
-      <c r="D46" s="23" t="n">
+      <c r="D46" s="25" t="n">
         <v>870</v>
       </c>
-      <c r="E46" s="23" t="n">
+      <c r="E46" s="25" t="n">
         <v>1440</v>
       </c>
-      <c r="F46" s="23" t="n">
+      <c r="F46" s="25" t="n">
         <v>190</v>
       </c>
-      <c r="G46" s="23" t="n">
+      <c r="G46" s="25" t="n">
         <v>1470</v>
       </c>
-      <c r="H46" s="23" t="n">
+      <c r="H46" s="25" t="n">
         <v>2440</v>
       </c>
     </row>
@@ -14616,22 +14617,22 @@
       <c r="B47" t="n">
         <v>1</v>
       </c>
-      <c r="C47" s="23" t="n">
+      <c r="C47" s="25" t="n">
         <v>140</v>
       </c>
-      <c r="D47" s="23" t="n">
+      <c r="D47" s="25" t="n">
         <v>530</v>
       </c>
-      <c r="E47" s="23" t="n">
+      <c r="E47" s="25" t="n">
         <v>760</v>
       </c>
-      <c r="F47" s="23" t="n">
+      <c r="F47" s="25" t="n">
         <v>140</v>
       </c>
-      <c r="G47" s="23" t="n">
+      <c r="G47" s="25" t="n">
         <v>730</v>
       </c>
-      <c r="H47" s="23" t="n">
+      <c r="H47" s="25" t="n">
         <v>960</v>
       </c>
     </row>
@@ -14639,22 +14640,22 @@
       <c r="B48" t="n">
         <v>2</v>
       </c>
-      <c r="C48" s="23" t="n">
+      <c r="C48" s="25" t="n">
         <v>170</v>
       </c>
-      <c r="D48" s="23" t="n">
+      <c r="D48" s="25" t="n">
         <v>630</v>
       </c>
-      <c r="E48" s="23" t="n">
+      <c r="E48" s="25" t="n">
         <v>960</v>
       </c>
-      <c r="F48" s="23" t="n">
+      <c r="F48" s="25" t="n">
         <v>170</v>
       </c>
-      <c r="G48" s="23" t="n">
+      <c r="G48" s="25" t="n">
         <v>930</v>
       </c>
-      <c r="H48" s="23" t="n">
+      <c r="H48" s="25" t="n">
         <v>1360</v>
       </c>
     </row>
@@ -14662,22 +14663,22 @@
       <c r="B49" t="n">
         <v>3</v>
       </c>
-      <c r="C49" s="23" t="n">
+      <c r="C49" s="25" t="n">
         <v>200</v>
       </c>
-      <c r="D49" s="23" t="n">
+      <c r="D49" s="25" t="n">
         <v>730</v>
       </c>
-      <c r="E49" s="23" t="n">
+      <c r="E49" s="25" t="n">
         <v>1160</v>
       </c>
-      <c r="F49" s="23" t="n">
+      <c r="F49" s="25" t="n">
         <v>200</v>
       </c>
-      <c r="G49" s="23" t="n">
+      <c r="G49" s="25" t="n">
         <v>1130</v>
       </c>
-      <c r="H49" s="23" t="n">
+      <c r="H49" s="25" t="n">
         <v>1760</v>
       </c>
     </row>
@@ -14685,22 +14686,22 @@
       <c r="B50" t="n">
         <v>4</v>
       </c>
-      <c r="C50" s="23" t="n">
+      <c r="C50" s="25" t="n">
         <v>230</v>
       </c>
-      <c r="D50" s="23" t="n">
+      <c r="D50" s="25" t="n">
         <v>830</v>
       </c>
-      <c r="E50" s="23" t="n">
+      <c r="E50" s="25" t="n">
         <v>1360</v>
       </c>
-      <c r="F50" s="23" t="n">
+      <c r="F50" s="25" t="n">
         <v>230</v>
       </c>
-      <c r="G50" s="23" t="n">
+      <c r="G50" s="25" t="n">
         <v>1330</v>
       </c>
-      <c r="H50" s="23" t="n">
+      <c r="H50" s="25" t="n">
         <v>2160</v>
       </c>
     </row>
@@ -14708,22 +14709,22 @@
       <c r="B51" t="n">
         <v>5</v>
       </c>
-      <c r="C51" s="23" t="n">
+      <c r="C51" s="25" t="n">
         <v>260</v>
       </c>
-      <c r="D51" s="23" t="n">
+      <c r="D51" s="25" t="n">
         <v>930</v>
       </c>
-      <c r="E51" s="23" t="n">
+      <c r="E51" s="25" t="n">
         <v>1560</v>
       </c>
-      <c r="F51" s="23" t="n">
+      <c r="F51" s="25" t="n">
         <v>260</v>
       </c>
-      <c r="G51" s="23" t="n">
+      <c r="G51" s="25" t="n">
         <v>1530</v>
       </c>
-      <c r="H51" s="23" t="n">
+      <c r="H51" s="25" t="n">
         <v>2560</v>
       </c>
     </row>
@@ -14736,22 +14737,22 @@
       <c r="B52" t="n">
         <v>1</v>
       </c>
-      <c r="C52" s="23" t="n">
+      <c r="C52" s="25" t="n">
         <v>400</v>
       </c>
-      <c r="D52" s="23" t="n">
+      <c r="D52" s="25" t="n">
         <v>550</v>
       </c>
-      <c r="E52" s="23" t="n">
+      <c r="E52" s="25" t="n">
         <v>800</v>
       </c>
-      <c r="F52" s="23" t="n">
+      <c r="F52" s="25" t="n">
         <v>600</v>
       </c>
-      <c r="G52" s="23" t="n">
+      <c r="G52" s="25" t="n">
         <v>750</v>
       </c>
-      <c r="H52" s="23" t="n">
+      <c r="H52" s="25" t="n">
         <v>1000</v>
       </c>
     </row>
@@ -14759,22 +14760,22 @@
       <c r="B53" t="n">
         <v>2</v>
       </c>
-      <c r="C53" s="23" t="n">
+      <c r="C53" s="25" t="n">
         <v>430</v>
       </c>
-      <c r="D53" s="23" t="n">
+      <c r="D53" s="25" t="n">
         <v>650</v>
       </c>
-      <c r="E53" s="23" t="n">
+      <c r="E53" s="25" t="n">
         <v>1000</v>
       </c>
-      <c r="F53" s="23" t="n">
+      <c r="F53" s="25" t="n">
         <v>630</v>
       </c>
-      <c r="G53" s="23" t="n">
+      <c r="G53" s="25" t="n">
         <v>950</v>
       </c>
-      <c r="H53" s="23" t="n">
+      <c r="H53" s="25" t="n">
         <v>1400</v>
       </c>
     </row>
@@ -14782,22 +14783,22 @@
       <c r="B54" t="n">
         <v>3</v>
       </c>
-      <c r="C54" s="23" t="n">
+      <c r="C54" s="25" t="n">
         <v>460</v>
       </c>
-      <c r="D54" s="23" t="n">
+      <c r="D54" s="25" t="n">
         <v>750</v>
       </c>
-      <c r="E54" s="23" t="n">
+      <c r="E54" s="25" t="n">
         <v>1200</v>
       </c>
-      <c r="F54" s="23" t="n">
+      <c r="F54" s="25" t="n">
         <v>660</v>
       </c>
-      <c r="G54" s="23" t="n">
+      <c r="G54" s="25" t="n">
         <v>1150</v>
       </c>
-      <c r="H54" s="23" t="n">
+      <c r="H54" s="25" t="n">
         <v>1800</v>
       </c>
     </row>
@@ -14805,22 +14806,22 @@
       <c r="B55" t="n">
         <v>4</v>
       </c>
-      <c r="C55" s="23" t="n">
+      <c r="C55" s="25" t="n">
         <v>490</v>
       </c>
-      <c r="D55" s="23" t="n">
+      <c r="D55" s="25" t="n">
         <v>850</v>
       </c>
-      <c r="E55" s="23" t="n">
+      <c r="E55" s="25" t="n">
         <v>1400</v>
       </c>
-      <c r="F55" s="23" t="n">
+      <c r="F55" s="25" t="n">
         <v>690</v>
       </c>
-      <c r="G55" s="23" t="n">
+      <c r="G55" s="25" t="n">
         <v>1350</v>
       </c>
-      <c r="H55" s="23" t="n">
+      <c r="H55" s="25" t="n">
         <v>2200</v>
       </c>
     </row>
@@ -14828,22 +14829,22 @@
       <c r="B56" t="n">
         <v>5</v>
       </c>
-      <c r="C56" s="23" t="n">
+      <c r="C56" s="25" t="n">
         <v>520</v>
       </c>
-      <c r="D56" s="23" t="n">
+      <c r="D56" s="25" t="n">
         <v>950</v>
       </c>
-      <c r="E56" s="23" t="n">
+      <c r="E56" s="25" t="n">
         <v>1600</v>
       </c>
-      <c r="F56" s="23" t="n">
+      <c r="F56" s="25" t="n">
         <v>720</v>
       </c>
-      <c r="G56" s="23" t="n">
+      <c r="G56" s="25" t="n">
         <v>1550</v>
       </c>
-      <c r="H56" s="23" t="n">
+      <c r="H56" s="25" t="n">
         <v>2600</v>
       </c>
     </row>
@@ -14856,22 +14857,22 @@
       <c r="B57" t="n">
         <v>1</v>
       </c>
-      <c r="C57" s="23" t="n">
+      <c r="C57" s="25" t="n">
         <v>130</v>
       </c>
-      <c r="D57" s="23" t="n">
+      <c r="D57" s="25" t="n">
         <v>510</v>
       </c>
-      <c r="E57" s="23" t="n">
+      <c r="E57" s="25" t="n">
         <v>720</v>
       </c>
-      <c r="F57" s="23" t="n">
+      <c r="F57" s="25" t="n">
         <v>130</v>
       </c>
-      <c r="G57" s="23" t="n">
+      <c r="G57" s="25" t="n">
         <v>710</v>
       </c>
-      <c r="H57" s="23" t="n">
+      <c r="H57" s="25" t="n">
         <v>920</v>
       </c>
     </row>
@@ -14879,22 +14880,22 @@
       <c r="B58" t="n">
         <v>2</v>
       </c>
-      <c r="C58" s="23" t="n">
+      <c r="C58" s="25" t="n">
         <v>150</v>
       </c>
-      <c r="D58" s="23" t="n">
+      <c r="D58" s="25" t="n">
         <v>610</v>
       </c>
-      <c r="E58" s="23" t="n">
+      <c r="E58" s="25" t="n">
         <v>920</v>
       </c>
-      <c r="F58" s="23" t="n">
+      <c r="F58" s="25" t="n">
         <v>150</v>
       </c>
-      <c r="G58" s="23" t="n">
+      <c r="G58" s="25" t="n">
         <v>910</v>
       </c>
-      <c r="H58" s="23" t="n">
+      <c r="H58" s="25" t="n">
         <v>1320</v>
       </c>
     </row>
@@ -14902,22 +14903,22 @@
       <c r="B59" t="n">
         <v>3</v>
       </c>
-      <c r="C59" s="23" t="n">
+      <c r="C59" s="25" t="n">
         <v>170</v>
       </c>
-      <c r="D59" s="23" t="n">
+      <c r="D59" s="25" t="n">
         <v>710</v>
       </c>
-      <c r="E59" s="23" t="n">
+      <c r="E59" s="25" t="n">
         <v>1120</v>
       </c>
-      <c r="F59" s="23" t="n">
+      <c r="F59" s="25" t="n">
         <v>170</v>
       </c>
-      <c r="G59" s="23" t="n">
+      <c r="G59" s="25" t="n">
         <v>1110</v>
       </c>
-      <c r="H59" s="23" t="n">
+      <c r="H59" s="25" t="n">
         <v>1720</v>
       </c>
     </row>
@@ -14925,22 +14926,22 @@
       <c r="B60" t="n">
         <v>4</v>
       </c>
-      <c r="C60" s="23" t="n">
+      <c r="C60" s="25" t="n">
         <v>190</v>
       </c>
-      <c r="D60" s="23" t="n">
+      <c r="D60" s="25" t="n">
         <v>810</v>
       </c>
-      <c r="E60" s="23" t="n">
+      <c r="E60" s="25" t="n">
         <v>1320</v>
       </c>
-      <c r="F60" s="23" t="n">
+      <c r="F60" s="25" t="n">
         <v>190</v>
       </c>
-      <c r="G60" s="23" t="n">
+      <c r="G60" s="25" t="n">
         <v>1310</v>
       </c>
-      <c r="H60" s="23" t="n">
+      <c r="H60" s="25" t="n">
         <v>2120</v>
       </c>
     </row>
@@ -14953,22 +14954,22 @@
       <c r="B61" t="n">
         <v>1</v>
       </c>
-      <c r="C61" s="23" t="n">
+      <c r="C61" s="25" t="n">
         <v>420</v>
       </c>
-      <c r="D61" s="23" t="n">
+      <c r="D61" s="25" t="n">
         <v>590</v>
       </c>
-      <c r="E61" s="23" t="n">
+      <c r="E61" s="25" t="n">
         <v>880</v>
       </c>
-      <c r="F61" s="23" t="n">
+      <c r="F61" s="25" t="n">
         <v>620</v>
       </c>
-      <c r="G61" s="23" t="n">
+      <c r="G61" s="25" t="n">
         <v>790</v>
       </c>
-      <c r="H61" s="23" t="n">
+      <c r="H61" s="25" t="n">
         <v>1080</v>
       </c>
     </row>
@@ -14976,22 +14977,22 @@
       <c r="B62" t="n">
         <v>2</v>
       </c>
-      <c r="C62" s="23" t="n">
+      <c r="C62" s="25" t="n">
         <v>450</v>
       </c>
-      <c r="D62" s="23" t="n">
+      <c r="D62" s="25" t="n">
         <v>690</v>
       </c>
-      <c r="E62" s="23" t="n">
+      <c r="E62" s="25" t="n">
         <v>1080</v>
       </c>
-      <c r="F62" s="23" t="n">
+      <c r="F62" s="25" t="n">
         <v>650</v>
       </c>
-      <c r="G62" s="23" t="n">
+      <c r="G62" s="25" t="n">
         <v>990</v>
       </c>
-      <c r="H62" s="23" t="n">
+      <c r="H62" s="25" t="n">
         <v>1480</v>
       </c>
     </row>
@@ -14999,22 +15000,22 @@
       <c r="B63" t="n">
         <v>3</v>
       </c>
-      <c r="C63" s="23" t="n">
+      <c r="C63" s="25" t="n">
         <v>480</v>
       </c>
-      <c r="D63" s="23" t="n">
+      <c r="D63" s="25" t="n">
         <v>790</v>
       </c>
-      <c r="E63" s="23" t="n">
+      <c r="E63" s="25" t="n">
         <v>1280</v>
       </c>
-      <c r="F63" s="23" t="n">
+      <c r="F63" s="25" t="n">
         <v>680</v>
       </c>
-      <c r="G63" s="23" t="n">
+      <c r="G63" s="25" t="n">
         <v>1190</v>
       </c>
-      <c r="H63" s="23" t="n">
+      <c r="H63" s="25" t="n">
         <v>1880</v>
       </c>
     </row>
@@ -15022,22 +15023,22 @@
       <c r="B64" t="n">
         <v>4</v>
       </c>
-      <c r="C64" s="23" t="n">
+      <c r="C64" s="25" t="n">
         <v>510</v>
       </c>
-      <c r="D64" s="23" t="n">
+      <c r="D64" s="25" t="n">
         <v>890</v>
       </c>
-      <c r="E64" s="23" t="n">
+      <c r="E64" s="25" t="n">
         <v>1480</v>
       </c>
-      <c r="F64" s="23" t="n">
+      <c r="F64" s="25" t="n">
         <v>710</v>
       </c>
-      <c r="G64" s="23" t="n">
+      <c r="G64" s="25" t="n">
         <v>1390</v>
       </c>
-      <c r="H64" s="23" t="n">
+      <c r="H64" s="25" t="n">
         <v>2280</v>
       </c>
     </row>
@@ -15050,22 +15051,22 @@
       <c r="B65" t="n">
         <v>1</v>
       </c>
-      <c r="C65" s="23" t="n">
+      <c r="C65" s="25" t="n">
         <v>430</v>
       </c>
-      <c r="D65" s="23" t="n">
+      <c r="D65" s="25" t="n">
         <v>610</v>
       </c>
-      <c r="E65" s="23" t="n">
+      <c r="E65" s="25" t="n">
         <v>920</v>
       </c>
-      <c r="F65" s="23" t="n">
+      <c r="F65" s="25" t="n">
         <v>630</v>
       </c>
-      <c r="G65" s="23" t="n">
+      <c r="G65" s="25" t="n">
         <v>810</v>
       </c>
-      <c r="H65" s="23" t="n">
+      <c r="H65" s="25" t="n">
         <v>1120</v>
       </c>
     </row>
@@ -15073,22 +15074,22 @@
       <c r="B66" t="n">
         <v>2</v>
       </c>
-      <c r="C66" s="23" t="n">
+      <c r="C66" s="25" t="n">
         <v>460</v>
       </c>
-      <c r="D66" s="23" t="n">
+      <c r="D66" s="25" t="n">
         <v>710</v>
       </c>
-      <c r="E66" s="23" t="n">
+      <c r="E66" s="25" t="n">
         <v>1120</v>
       </c>
-      <c r="F66" s="23" t="n">
+      <c r="F66" s="25" t="n">
         <v>660</v>
       </c>
-      <c r="G66" s="23" t="n">
+      <c r="G66" s="25" t="n">
         <v>1010</v>
       </c>
-      <c r="H66" s="23" t="n">
+      <c r="H66" s="25" t="n">
         <v>1520</v>
       </c>
     </row>
@@ -15096,22 +15097,22 @@
       <c r="B67" t="n">
         <v>3</v>
       </c>
-      <c r="C67" s="23" t="n">
+      <c r="C67" s="25" t="n">
         <v>490</v>
       </c>
-      <c r="D67" s="23" t="n">
+      <c r="D67" s="25" t="n">
         <v>810</v>
       </c>
-      <c r="E67" s="23" t="n">
+      <c r="E67" s="25" t="n">
         <v>1320</v>
       </c>
-      <c r="F67" s="23" t="n">
+      <c r="F67" s="25" t="n">
         <v>690</v>
       </c>
-      <c r="G67" s="23" t="n">
+      <c r="G67" s="25" t="n">
         <v>1210</v>
       </c>
-      <c r="H67" s="23" t="n">
+      <c r="H67" s="25" t="n">
         <v>1920</v>
       </c>
     </row>
@@ -15119,22 +15120,22 @@
       <c r="B68" t="n">
         <v>4</v>
       </c>
-      <c r="C68" s="23" t="n">
+      <c r="C68" s="25" t="n">
         <v>520</v>
       </c>
-      <c r="D68" s="23" t="n">
+      <c r="D68" s="25" t="n">
         <v>910</v>
       </c>
-      <c r="E68" s="23" t="n">
+      <c r="E68" s="25" t="n">
         <v>1520</v>
       </c>
-      <c r="F68" s="23" t="n">
+      <c r="F68" s="25" t="n">
         <v>720</v>
       </c>
-      <c r="G68" s="23" t="n">
+      <c r="G68" s="25" t="n">
         <v>1410</v>
       </c>
-      <c r="H68" s="23" t="n">
+      <c r="H68" s="25" t="n">
         <v>2320</v>
       </c>
     </row>
@@ -15147,22 +15148,22 @@
       <c r="B69" t="n">
         <v>1</v>
       </c>
-      <c r="C69" s="23" t="n">
+      <c r="C69" s="25" t="n">
         <v>400</v>
       </c>
-      <c r="D69" s="23" t="n">
+      <c r="D69" s="25" t="n">
         <v>550</v>
       </c>
-      <c r="E69" s="23" t="n">
+      <c r="E69" s="25" t="n">
         <v>800</v>
       </c>
-      <c r="F69" s="23" t="n">
+      <c r="F69" s="25" t="n">
         <v>600</v>
       </c>
-      <c r="G69" s="23" t="n">
+      <c r="G69" s="25" t="n">
         <v>750</v>
       </c>
-      <c r="H69" s="23" t="n">
+      <c r="H69" s="25" t="n">
         <v>1000</v>
       </c>
     </row>
@@ -15170,22 +15171,22 @@
       <c r="B70" t="n">
         <v>2</v>
       </c>
-      <c r="C70" s="23" t="n">
+      <c r="C70" s="25" t="n">
         <v>420</v>
       </c>
-      <c r="D70" s="23" t="n">
+      <c r="D70" s="25" t="n">
         <v>650</v>
       </c>
-      <c r="E70" s="23" t="n">
+      <c r="E70" s="25" t="n">
         <v>1000</v>
       </c>
-      <c r="F70" s="23" t="n">
+      <c r="F70" s="25" t="n">
         <v>620</v>
       </c>
-      <c r="G70" s="23" t="n">
+      <c r="G70" s="25" t="n">
         <v>950</v>
       </c>
-      <c r="H70" s="23" t="n">
+      <c r="H70" s="25" t="n">
         <v>1400</v>
       </c>
     </row>
@@ -15193,22 +15194,22 @@
       <c r="B71" t="n">
         <v>3</v>
       </c>
-      <c r="C71" s="23" t="n">
+      <c r="C71" s="25" t="n">
         <v>440</v>
       </c>
-      <c r="D71" s="23" t="n">
+      <c r="D71" s="25" t="n">
         <v>750</v>
       </c>
-      <c r="E71" s="23" t="n">
+      <c r="E71" s="25" t="n">
         <v>1200</v>
       </c>
-      <c r="F71" s="23" t="n">
+      <c r="F71" s="25" t="n">
         <v>640</v>
       </c>
-      <c r="G71" s="23" t="n">
+      <c r="G71" s="25" t="n">
         <v>1150</v>
       </c>
-      <c r="H71" s="23" t="n">
+      <c r="H71" s="25" t="n">
         <v>1800</v>
       </c>
     </row>
@@ -15221,22 +15222,22 @@
       <c r="B72" t="n">
         <v>1</v>
       </c>
-      <c r="C72" s="23" t="n">
+      <c r="C72" s="25" t="n">
         <v>450</v>
       </c>
-      <c r="D72" s="23" t="n">
+      <c r="D72" s="25" t="n">
         <v>650</v>
       </c>
-      <c r="E72" s="23" t="n">
+      <c r="E72" s="25" t="n">
         <v>1000</v>
       </c>
-      <c r="F72" s="23" t="n">
+      <c r="F72" s="25" t="n">
         <v>650</v>
       </c>
-      <c r="G72" s="23" t="n">
+      <c r="G72" s="25" t="n">
         <v>850</v>
       </c>
-      <c r="H72" s="23" t="n">
+      <c r="H72" s="25" t="n">
         <v>1200</v>
       </c>
     </row>
@@ -15244,22 +15245,22 @@
       <c r="B73" t="n">
         <v>2</v>
       </c>
-      <c r="C73" s="23" t="n">
+      <c r="C73" s="25" t="n">
         <v>480</v>
       </c>
-      <c r="D73" s="23" t="n">
+      <c r="D73" s="25" t="n">
         <v>750</v>
       </c>
-      <c r="E73" s="23" t="n">
+      <c r="E73" s="25" t="n">
         <v>1200</v>
       </c>
-      <c r="F73" s="23" t="n">
+      <c r="F73" s="25" t="n">
         <v>680</v>
       </c>
-      <c r="G73" s="23" t="n">
+      <c r="G73" s="25" t="n">
         <v>1050</v>
       </c>
-      <c r="H73" s="23" t="n">
+      <c r="H73" s="25" t="n">
         <v>1600</v>
       </c>
     </row>
@@ -15267,22 +15268,22 @@
       <c r="B74" t="n">
         <v>3</v>
       </c>
-      <c r="C74" s="23" t="n">
+      <c r="C74" s="25" t="n">
         <v>510</v>
       </c>
-      <c r="D74" s="23" t="n">
+      <c r="D74" s="25" t="n">
         <v>850</v>
       </c>
-      <c r="E74" s="23" t="n">
+      <c r="E74" s="25" t="n">
         <v>1400</v>
       </c>
-      <c r="F74" s="23" t="n">
+      <c r="F74" s="25" t="n">
         <v>710</v>
       </c>
-      <c r="G74" s="23" t="n">
+      <c r="G74" s="25" t="n">
         <v>1250</v>
       </c>
-      <c r="H74" s="23" t="n">
+      <c r="H74" s="25" t="n">
         <v>2000</v>
       </c>
     </row>
@@ -15295,22 +15296,22 @@
       <c r="B75" t="n">
         <v>1</v>
       </c>
-      <c r="C75" s="23" t="n">
+      <c r="C75" s="25" t="n">
         <v>460</v>
       </c>
-      <c r="D75" s="23" t="n">
+      <c r="D75" s="25" t="n">
         <v>670</v>
       </c>
-      <c r="E75" s="23" t="n">
+      <c r="E75" s="25" t="n">
         <v>1040</v>
       </c>
-      <c r="F75" s="23" t="n">
+      <c r="F75" s="25" t="n">
         <v>660</v>
       </c>
-      <c r="G75" s="23" t="n">
+      <c r="G75" s="25" t="n">
         <v>870</v>
       </c>
-      <c r="H75" s="23" t="n">
+      <c r="H75" s="25" t="n">
         <v>1240</v>
       </c>
     </row>
@@ -15318,22 +15319,22 @@
       <c r="B76" t="n">
         <v>2</v>
       </c>
-      <c r="C76" s="23" t="n">
+      <c r="C76" s="25" t="n">
         <v>490</v>
       </c>
-      <c r="D76" s="23" t="n">
+      <c r="D76" s="25" t="n">
         <v>770</v>
       </c>
-      <c r="E76" s="23" t="n">
+      <c r="E76" s="25" t="n">
         <v>1240</v>
       </c>
-      <c r="F76" s="23" t="n">
+      <c r="F76" s="25" t="n">
         <v>690</v>
       </c>
-      <c r="G76" s="23" t="n">
+      <c r="G76" s="25" t="n">
         <v>1070</v>
       </c>
-      <c r="H76" s="23" t="n">
+      <c r="H76" s="25" t="n">
         <v>1640</v>
       </c>
     </row>
@@ -15341,22 +15342,22 @@
       <c r="B77" t="n">
         <v>3</v>
       </c>
-      <c r="C77" s="23" t="n">
+      <c r="C77" s="25" t="n">
         <v>520</v>
       </c>
-      <c r="D77" s="23" t="n">
+      <c r="D77" s="25" t="n">
         <v>870</v>
       </c>
-      <c r="E77" s="23" t="n">
+      <c r="E77" s="25" t="n">
         <v>1440</v>
       </c>
-      <c r="F77" s="23" t="n">
+      <c r="F77" s="25" t="n">
         <v>720</v>
       </c>
-      <c r="G77" s="23" t="n">
+      <c r="G77" s="25" t="n">
         <v>1270</v>
       </c>
-      <c r="H77" s="23" t="n">
+      <c r="H77" s="25" t="n">
         <v>2040</v>
       </c>
     </row>
@@ -15369,22 +15370,22 @@
       <c r="B78" t="n">
         <v>1</v>
       </c>
-      <c r="C78" s="23" t="n">
+      <c r="C78" s="25" t="n">
         <v>920</v>
       </c>
-      <c r="D78" s="23" t="n">
+      <c r="D78" s="25" t="n">
         <v>1090</v>
       </c>
-      <c r="E78" s="23" t="n">
+      <c r="E78" s="25" t="n">
         <v>1380</v>
       </c>
-      <c r="F78" s="23" t="n">
+      <c r="F78" s="25" t="n">
         <v>1370</v>
       </c>
-      <c r="G78" s="23" t="n">
+      <c r="G78" s="25" t="n">
         <v>1540</v>
       </c>
-      <c r="H78" s="23" t="n">
+      <c r="H78" s="25" t="n">
         <v>1830</v>
       </c>
     </row>
@@ -15392,22 +15393,22 @@
       <c r="B79" t="n">
         <v>2</v>
       </c>
-      <c r="C79" s="23" t="n">
+      <c r="C79" s="25" t="n">
         <v>940</v>
       </c>
-      <c r="D79" s="23" t="n">
+      <c r="D79" s="25" t="n">
         <v>1190</v>
       </c>
-      <c r="E79" s="23" t="n">
+      <c r="E79" s="25" t="n">
         <v>1580</v>
       </c>
-      <c r="F79" s="23" t="n">
+      <c r="F79" s="25" t="n">
         <v>1390</v>
       </c>
-      <c r="G79" s="23" t="n">
+      <c r="G79" s="25" t="n">
         <v>1740</v>
       </c>
-      <c r="H79" s="23" t="n">
+      <c r="H79" s="25" t="n">
         <v>2230</v>
       </c>
     </row>
@@ -15420,22 +15421,22 @@
       <c r="B80" t="n">
         <v>1</v>
       </c>
-      <c r="C80" s="23" t="n">
+      <c r="C80" s="25" t="n">
         <v>980</v>
       </c>
-      <c r="D80" s="23" t="n">
+      <c r="D80" s="25" t="n">
         <v>1210</v>
       </c>
-      <c r="E80" s="23" t="n">
+      <c r="E80" s="25" t="n">
         <v>1620</v>
       </c>
-      <c r="F80" s="23" t="n">
+      <c r="F80" s="25" t="n">
         <v>1430</v>
       </c>
-      <c r="G80" s="23" t="n">
+      <c r="G80" s="25" t="n">
         <v>1660</v>
       </c>
-      <c r="H80" s="23" t="n">
+      <c r="H80" s="25" t="n">
         <v>2070</v>
       </c>
     </row>
@@ -15443,22 +15444,22 @@
       <c r="B81" t="n">
         <v>2</v>
       </c>
-      <c r="C81" s="23" t="n">
+      <c r="C81" s="25" t="n">
         <v>1010</v>
       </c>
-      <c r="D81" s="23" t="n">
+      <c r="D81" s="25" t="n">
         <v>1310</v>
       </c>
-      <c r="E81" s="23" t="n">
+      <c r="E81" s="25" t="n">
         <v>1820</v>
       </c>
-      <c r="F81" s="23" t="n">
+      <c r="F81" s="25" t="n">
         <v>1460</v>
       </c>
-      <c r="G81" s="23" t="n">
+      <c r="G81" s="25" t="n">
         <v>1860</v>
       </c>
-      <c r="H81" s="23" t="n">
+      <c r="H81" s="25" t="n">
         <v>2470</v>
       </c>
     </row>
@@ -15471,22 +15472,22 @@
       <c r="B82" t="n">
         <v>1</v>
       </c>
-      <c r="C82" s="23" t="n">
+      <c r="C82" s="25" t="n">
         <v>990</v>
       </c>
-      <c r="D82" s="23" t="n">
+      <c r="D82" s="25" t="n">
         <v>1230</v>
       </c>
-      <c r="E82" s="23" t="n">
+      <c r="E82" s="25" t="n">
         <v>1660</v>
       </c>
-      <c r="F82" s="23" t="n">
+      <c r="F82" s="25" t="n">
         <v>1440</v>
       </c>
-      <c r="G82" s="23" t="n">
+      <c r="G82" s="25" t="n">
         <v>1680</v>
       </c>
-      <c r="H82" s="23" t="n">
+      <c r="H82" s="25" t="n">
         <v>2110</v>
       </c>
     </row>
@@ -15494,22 +15495,22 @@
       <c r="B83" t="n">
         <v>2</v>
       </c>
-      <c r="C83" s="23" t="n">
+      <c r="C83" s="25" t="n">
         <v>1020</v>
       </c>
-      <c r="D83" s="23" t="n">
+      <c r="D83" s="25" t="n">
         <v>1330</v>
       </c>
-      <c r="E83" s="23" t="n">
+      <c r="E83" s="25" t="n">
         <v>1860</v>
       </c>
-      <c r="F83" s="23" t="n">
+      <c r="F83" s="25" t="n">
         <v>1470</v>
       </c>
-      <c r="G83" s="23" t="n">
+      <c r="G83" s="25" t="n">
         <v>1880</v>
       </c>
-      <c r="H83" s="23" t="n">
+      <c r="H83" s="25" t="n">
         <v>2510</v>
       </c>
     </row>
@@ -15522,22 +15523,22 @@
       <c r="B84" t="n">
         <v>1</v>
       </c>
-      <c r="C84" s="23" t="n">
+      <c r="C84" s="25" t="n">
         <v>1440</v>
       </c>
-      <c r="D84" s="23" t="n">
+      <c r="D84" s="25" t="n">
         <v>1630</v>
       </c>
-      <c r="E84" s="23" t="n">
+      <c r="E84" s="25" t="n">
         <v>1960</v>
       </c>
-      <c r="F84" s="23" t="n">
+      <c r="F84" s="25" t="n">
         <v>2140</v>
       </c>
-      <c r="G84" s="23" t="n">
+      <c r="G84" s="25" t="n">
         <v>2330</v>
       </c>
-      <c r="H84" s="23" t="n">
+      <c r="H84" s="25" t="n">
         <v>2660</v>
       </c>
     </row>
@@ -15550,22 +15551,22 @@
       <c r="B85" t="n">
         <v>1</v>
       </c>
-      <c r="C85" s="23" t="n">
+      <c r="C85" s="25" t="n">
         <v>1510</v>
       </c>
-      <c r="D85" s="23" t="n">
+      <c r="D85" s="25" t="n">
         <v>1770</v>
       </c>
-      <c r="E85" s="23" t="n">
+      <c r="E85" s="25" t="n">
         <v>2240</v>
       </c>
-      <c r="F85" s="23" t="n">
+      <c r="F85" s="25" t="n">
         <v>2210</v>
       </c>
-      <c r="G85" s="23" t="n">
+      <c r="G85" s="25" t="n">
         <v>2470</v>
       </c>
-      <c r="H85" s="23" t="n">
+      <c r="H85" s="25" t="n">
         <v>2940</v>
       </c>
     </row>
@@ -15578,22 +15579,22 @@
       <c r="B86" t="n">
         <v>1</v>
       </c>
-      <c r="C86" s="23" t="n">
+      <c r="C86" s="25" t="n">
         <v>1520</v>
       </c>
-      <c r="D86" s="23" t="n">
+      <c r="D86" s="25" t="n">
         <v>1790</v>
       </c>
-      <c r="E86" s="23" t="n">
+      <c r="E86" s="25" t="n">
         <v>2280</v>
       </c>
-      <c r="F86" s="23" t="n">
+      <c r="F86" s="25" t="n">
         <v>2220</v>
       </c>
-      <c r="G86" s="23" t="n">
+      <c r="G86" s="25" t="n">
         <v>2490</v>
       </c>
-      <c r="H86" s="23" t="n">
+      <c r="H86" s="25" t="n">
         <v>2980</v>
       </c>
     </row>

--- a/mitchell10x3.xlsx
+++ b/mitchell10x3.xlsx
@@ -510,7 +510,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>For public domain. No rights reserved. Generated on Feb 08, 2026.</t>
+          <t>For public domain. No rights reserved. Generated on Feb 10, 2026.</t>
         </is>
       </c>
     </row>
@@ -582,12 +582,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Name 83</t>
+          <t>Name 68</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Name 13</t>
+          <t>Name 32</t>
         </is>
       </c>
       <c r="D9" s="6">
@@ -605,12 +605,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Name 62</t>
+          <t>Name 19</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Name 78</t>
+          <t>Name 61</t>
         </is>
       </c>
       <c r="D10" s="6">
@@ -628,12 +628,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Name 64</t>
+          <t>Name 44</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Name 58</t>
+          <t>Name 38</t>
         </is>
       </c>
       <c r="D11" s="6">
@@ -651,12 +651,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Name 20</t>
+          <t>Name 25</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Name 51</t>
+          <t>Name 42</t>
         </is>
       </c>
       <c r="D12" s="6">
@@ -674,12 +674,12 @@
       </c>
       <c r="B13" s="9" t="inlineStr">
         <is>
-          <t>Name 81</t>
+          <t>Name 33</t>
         </is>
       </c>
       <c r="C13" s="9" t="inlineStr">
         <is>
-          <t>Name 61</t>
+          <t>Name 22</t>
         </is>
       </c>
       <c r="D13" s="9" t="n"/>
@@ -722,12 +722,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Name 82</t>
+          <t>Name 49</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Name 63</t>
+          <t>Name 61</t>
         </is>
       </c>
       <c r="D17" s="6">
@@ -745,12 +745,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Name 29</t>
+          <t>Name 68</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Name 73</t>
+          <t>Name 87</t>
         </is>
       </c>
       <c r="D18" s="6">
@@ -768,12 +768,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Name 24</t>
+          <t>Name 40</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Name 52</t>
+          <t>Name 33</t>
         </is>
       </c>
       <c r="D19" s="6">
@@ -791,12 +791,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Name 63</t>
+          <t>Name 35</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Name 61</t>
+          <t>Name 89</t>
         </is>
       </c>
       <c r="D20" s="6">
@@ -814,7 +814,7 @@
       </c>
       <c r="B21" s="9" t="inlineStr">
         <is>
-          <t>Name 31</t>
+          <t>Name 21</t>
         </is>
       </c>
       <c r="C21" s="9" t="inlineStr">

--- a/mitchell10x3.xlsx
+++ b/mitchell10x3.xlsx
@@ -504,7 +504,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>For public domain. No rights reserved. Generated on Feb 11, 2026.</t>
+          <t>For public domain. No rights reserved. Generated on Feb 12, 2026.</t>
         </is>
       </c>
     </row>
@@ -578,12 +578,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Name 43</t>
+          <t>Name 36</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Name 31</t>
+          <t>Name 44</t>
         </is>
       </c>
       <c r="D9" s="4">
@@ -601,12 +601,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Name 40</t>
+          <t>Name 84</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Name 44</t>
+          <t>Name 89</t>
         </is>
       </c>
       <c r="D10" s="4">
@@ -624,12 +624,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Name 64</t>
+          <t>Name 65</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Name 87</t>
+          <t>Name 80</t>
         </is>
       </c>
       <c r="D11" s="4">
@@ -647,12 +647,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Name 65</t>
+          <t>Name 85</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Name 90</t>
+          <t>Name 43</t>
         </is>
       </c>
       <c r="D12" s="4">
@@ -670,12 +670,12 @@
       </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>Name 38</t>
+          <t>Name 62</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr">
         <is>
-          <t>Name 60</t>
+          <t>Name 16</t>
         </is>
       </c>
       <c r="D13" s="8">
@@ -726,12 +726,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Name 71</t>
+          <t>Name 47</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Name 12</t>
+          <t>Name 81</t>
         </is>
       </c>
       <c r="D17" s="4">
@@ -749,12 +749,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Name 84</t>
+          <t>Name 57</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Name 78</t>
+          <t>Name 70</t>
         </is>
       </c>
       <c r="D18" s="4">
@@ -772,12 +772,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Name 67</t>
+          <t>Name 60</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Name 58</t>
+          <t>Name 40</t>
         </is>
       </c>
       <c r="D19" s="4">
@@ -795,12 +795,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Name 32</t>
+          <t>Name 11</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Name 88</t>
+          <t>Name 36</t>
         </is>
       </c>
       <c r="D20" s="4">
@@ -818,12 +818,12 @@
       </c>
       <c r="B21" s="7" t="inlineStr">
         <is>
-          <t>Name 77</t>
+          <t>Name 43</t>
         </is>
       </c>
       <c r="C21" s="7" t="inlineStr">
         <is>
-          <t>Name 26</t>
+          <t>Name 42</t>
         </is>
       </c>
       <c r="D21" s="8">

--- a/mitchell10x3.xlsx
+++ b/mitchell10x3.xlsx
@@ -504,7 +504,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>For public domain. No rights reserved. Generated on Feb 13, 2026.</t>
+          <t>For public domain. No rights reserved. Generated on Feb 19, 2026.</t>
         </is>
       </c>
     </row>
@@ -578,12 +578,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Name 57</t>
+          <t>Name 39</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Name 41</t>
+          <t>Name 40</t>
         </is>
       </c>
       <c r="D9" s="4">
@@ -601,12 +601,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Name 83</t>
+          <t>Name 51</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Name 42</t>
+          <t>Name 70</t>
         </is>
       </c>
       <c r="D10" s="4">
@@ -624,12 +624,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Name 35</t>
+          <t>Name 21</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Name 55</t>
+          <t>Name 90</t>
         </is>
       </c>
       <c r="D11" s="4">
@@ -647,12 +647,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Name 31</t>
+          <t>Name 76</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Name 33</t>
+          <t>Name 64</t>
         </is>
       </c>
       <c r="D12" s="4">
@@ -670,12 +670,12 @@
       </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>Name 69</t>
+          <t>Name 81</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr">
         <is>
-          <t>Name 75</t>
+          <t>Name 41</t>
         </is>
       </c>
       <c r="D13" s="8">
@@ -726,12 +726,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Name 72</t>
+          <t>Name 45</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Name 41</t>
+          <t>Name 33</t>
         </is>
       </c>
       <c r="D17" s="4">
@@ -749,12 +749,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Name 21</t>
+          <t>Name 89</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Name 62</t>
+          <t>Name 43</t>
         </is>
       </c>
       <c r="D18" s="4">
@@ -772,12 +772,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>Name 65</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>Name 44</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Name 13</t>
         </is>
       </c>
       <c r="D19" s="4">
@@ -795,12 +795,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Name 33</t>
+          <t>Name 73</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Name 38</t>
+          <t>Name 81</t>
         </is>
       </c>
       <c r="D20" s="4">
@@ -818,12 +818,12 @@
       </c>
       <c r="B21" s="7" t="inlineStr">
         <is>
-          <t>Name 38</t>
+          <t>Name 44</t>
         </is>
       </c>
       <c r="C21" s="7" t="inlineStr">
         <is>
-          <t>Name 73</t>
+          <t>Name 86</t>
         </is>
       </c>
       <c r="D21" s="8">
